--- a/TankRunner/Assets/Resources/LD.xlsx
+++ b/TankRunner/Assets/Resources/LD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="elements" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="17">
   <si>
     <t>row</t>
   </si>
@@ -45,10 +45,10 @@
     <t>G</t>
   </si>
   <si>
-    <t>H</t>
+    <t>T</t>
   </si>
   <si>
-    <t>T</t>
+    <t>H</t>
   </si>
   <si>
     <t>o</t>
@@ -1070,8 +1070,8 @@
   <sheetPr/>
   <dimension ref="A1:H118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24:F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G104" sqref="G104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.90833333333333" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1247,7 +1247,7 @@
         <v>24</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1255,7 +1255,7 @@
         <v>25</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1263,10 +1263,10 @@
         <v>26</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -1384,9 +1384,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:3">
       <c r="A45" s="1">
         <v>44</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1394,12 +1397,15 @@
         <v>45</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" s="1">
         <v>46</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1451,13 +1457,13 @@
         <v>54</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1579,9 +1585,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:5">
       <c r="A69" s="1">
         <v>68</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:1">
@@ -1589,9 +1598,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:3">
       <c r="A71" s="1">
         <v>70</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:1">
@@ -1599,9 +1611,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:7">
       <c r="A73" s="1">
         <v>72</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:1">
@@ -1619,9 +1634,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:5">
       <c r="A77" s="1">
         <v>76</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:1">
@@ -1639,9 +1657,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:4">
       <c r="A81" s="1">
         <v>80</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:1">
@@ -1659,9 +1680,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:4">
       <c r="A85" s="1">
         <v>84</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:1">
@@ -1674,34 +1698,52 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:6">
       <c r="A88" s="1">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:1">
+      <c r="F88" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89" s="1">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:1">
+      <c r="E89" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90" s="1">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:1">
+      <c r="E90" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:1">
+      <c r="E91" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92" s="1">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:1">
+      <c r="E92" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93" s="1">
         <v>92</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="94" spans="1:1">
@@ -1709,34 +1751,52 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:4">
       <c r="A95" s="1">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:1">
+      <c r="D95" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
       <c r="A96" s="1">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:1">
+      <c r="C96" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97" s="1">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:1">
+      <c r="C97" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
       <c r="A98" s="1">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:1">
+      <c r="C98" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
       <c r="A99" s="1">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:1">
+      <c r="C99" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
       <c r="A100" s="1">
         <v>99</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="101" spans="1:1">
@@ -1749,9 +1809,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:6">
       <c r="A103" s="1">
         <v>102</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="104" spans="1:1">
@@ -1764,9 +1827,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" spans="1:3">
       <c r="A106" s="1">
         <v>105</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="107" spans="1:1">
@@ -1774,9 +1840,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:7">
       <c r="A108" s="1">
         <v>107</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="109" spans="1:1">
@@ -1794,9 +1863,24 @@
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" spans="1:7">
       <c r="A112" s="1">
         <v>111</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="113" spans="1:1">
@@ -1875,12 +1959,12 @@
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="3:3">
@@ -1900,23 +1984,23 @@
     </row>
     <row r="37" spans="3:5">
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="5:5">
@@ -1936,13 +2020,13 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" t="s">
         <v>10</v>
       </c>
-      <c r="D49" t="s">
-        <v>9</v>
-      </c>
       <c r="E49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="3:3">
@@ -2032,7 +2116,7 @@
   <sheetPr/>
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+    <sheetView zoomScale="65" zoomScaleNormal="65" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="G1" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
@@ -2063,21 +2147,21 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -2090,7 +2174,7 @@
         <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2098,17 +2182,17 @@
         <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -2133,13 +2217,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
         <v>8</v>
@@ -2155,7 +2239,7 @@
         <v>8</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="4:4">
@@ -2170,24 +2254,24 @@
     </row>
     <row r="38" spans="2:4">
       <c r="B38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="3:5">
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="3:3">
@@ -2208,10 +2292,10 @@
         <v>8</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="3:3">
@@ -2254,7 +2338,7 @@
         <v>8</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="2:4">

--- a/TankRunner/Assets/Resources/LD.xlsx
+++ b/TankRunner/Assets/Resources/LD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420"/>
+    <workbookView windowWidth="13305" windowHeight="4995"/>
   </bookViews>
   <sheets>
     <sheet name="elements" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="18">
   <si>
     <t>row</t>
   </si>
@@ -42,10 +42,13 @@
     <t>SideRight</t>
   </si>
   <si>
+    <t>T</t>
+  </si>
+  <si>
     <t>G</t>
   </si>
   <si>
-    <t>T</t>
+    <t>R</t>
   </si>
   <si>
     <t>H</t>
@@ -727,7 +730,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -748,6 +751,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1070,8 +1076,8 @@
   <sheetPr/>
   <dimension ref="A1:H118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G104" sqref="G104"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.90833333333333" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1187,9 +1193,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>16</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1197,7 +1218,7 @@
         <v>17</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1205,7 +1226,7 @@
         <v>18</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1213,7 +1234,7 @@
         <v>19</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1221,7 +1242,7 @@
         <v>20</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1229,12 +1250,18 @@
         <v>21</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:1">
@@ -1247,7 +1274,7 @@
         <v>24</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1255,7 +1282,7 @@
         <v>25</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1263,20 +1290,26 @@
         <v>26</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="H28" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>28</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1284,7 +1317,7 @@
         <v>29</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1292,7 +1325,7 @@
         <v>30</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1300,7 +1333,7 @@
         <v>31</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1308,7 +1341,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1316,7 +1349,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:1">
@@ -1329,7 +1362,7 @@
         <v>35</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1337,7 +1370,7 @@
         <v>36</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1345,7 +1378,7 @@
         <v>37</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1353,7 +1386,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1361,7 +1394,7 @@
         <v>39</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:1">
@@ -1389,7 +1422,7 @@
         <v>44</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1397,7 +1430,7 @@
         <v>45</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1405,7 +1438,7 @@
         <v>46</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1413,7 +1446,7 @@
         <v>47</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1421,7 +1454,7 @@
         <v>48</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1429,7 +1462,7 @@
         <v>49</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:1">
@@ -1457,13 +1490,13 @@
         <v>54</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1471,7 +1504,7 @@
         <v>55</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1479,7 +1512,7 @@
         <v>56</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1487,7 +1520,7 @@
         <v>57</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:1">
@@ -1505,13 +1538,13 @@
         <v>60</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1519,13 +1552,13 @@
         <v>61</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1533,13 +1566,13 @@
         <v>62</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1547,13 +1580,13 @@
         <v>63</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1561,13 +1594,13 @@
         <v>64</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:1">
@@ -1590,7 +1623,7 @@
         <v>68</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:1">
@@ -1603,7 +1636,7 @@
         <v>70</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:1">
@@ -1616,7 +1649,7 @@
         <v>72</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:1">
@@ -1639,7 +1672,7 @@
         <v>76</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" spans="1:1">
@@ -1662,7 +1695,7 @@
         <v>80</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82" spans="1:1">
@@ -1685,7 +1718,7 @@
         <v>84</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86" spans="1:1">
@@ -1703,7 +1736,7 @@
         <v>87</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1711,7 +1744,7 @@
         <v>88</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1719,7 +1752,7 @@
         <v>89</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -1727,7 +1760,7 @@
         <v>90</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -1735,7 +1768,7 @@
         <v>91</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -1743,7 +1776,7 @@
         <v>92</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:1">
@@ -1756,7 +1789,7 @@
         <v>94</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1764,7 +1797,7 @@
         <v>95</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1772,7 +1805,7 @@
         <v>96</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1780,7 +1813,7 @@
         <v>97</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1788,7 +1821,7 @@
         <v>98</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1796,7 +1829,7 @@
         <v>99</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101" spans="1:1">
@@ -1814,7 +1847,7 @@
         <v>102</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="104" spans="1:1">
@@ -1832,7 +1865,7 @@
         <v>105</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="107" spans="1:1">
@@ -1845,7 +1878,7 @@
         <v>107</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="109" spans="1:1">
@@ -1868,19 +1901,19 @@
         <v>111</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="113" spans="1:1">
@@ -1908,9 +1941,24 @@
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:7">
       <c r="A118" s="1">
         <v>117</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F118" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G118" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1933,175 +1981,175 @@
   <sheetData>
     <row r="18" spans="2:4">
       <c r="B18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="5:5">
       <c r="E22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="3:5">
       <c r="C37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="5:5">
       <c r="E44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="5:5">
       <c r="E45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="5:5">
       <c r="E46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="2:4">
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="3:3">
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="2:4">
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2147,214 +2195,214 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="4:4">
       <c r="D31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="4:4">
       <c r="D33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="3:5">
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="4:4">
       <c r="D35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="5:5">
       <c r="E36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="3:5">
       <c r="C42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E47" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="4:4">
       <c r="D54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E57" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="2:4">
       <c r="B59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/TankRunner/Assets/Resources/LD.xlsx
+++ b/TankRunner/Assets/Resources/LD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13305" windowHeight="4995"/>
+    <workbookView windowWidth="28800" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="elements" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="18">
   <si>
     <t>row</t>
   </si>
@@ -1074,10 +1074,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H118"/>
+  <dimension ref="A1:H166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:G17"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="C167" sqref="C167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.90833333333333" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1203,9 +1203,7 @@
       <c r="D17" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>8</v>
-      </c>
+      <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
         <v>8</v>
       </c>
@@ -1492,9 +1490,6 @@
       <c r="E55" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F55" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="G55" s="3" t="s">
         <v>11</v>
       </c>
@@ -1690,11 +1685,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:3">
       <c r="A81" s="1">
         <v>80</v>
       </c>
-      <c r="D81" s="4" t="s">
+      <c r="C81" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1713,11 +1708,11 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:3">
       <c r="A85" s="1">
         <v>84</v>
       </c>
-      <c r="D85" s="4" t="s">
+      <c r="C85" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1906,9 +1901,6 @@
       <c r="D112" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E112" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="F112" s="4" t="s">
         <v>8</v>
       </c>
@@ -1951,14 +1943,161 @@
       <c r="D118" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E118" s="7" t="s">
-        <v>8</v>
-      </c>
+      <c r="E118" s="7"/>
       <c r="F118" s="7" t="s">
         <v>8</v>
       </c>
       <c r="G118" s="7" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="3:7">
+      <c r="C124" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" spans="3:7">
+      <c r="C125" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="3:7">
+      <c r="C126" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" spans="3:7">
+      <c r="C127" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128" spans="3:7">
+      <c r="C128" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136" spans="3:3">
+      <c r="C136" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="3:3">
+      <c r="C137" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="3:3">
+      <c r="C138" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="6:6">
+      <c r="F143" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="5:5">
+      <c r="E144" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" spans="4:4">
+      <c r="D145" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" spans="3:7">
+      <c r="C155" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G155" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="162" spans="3:7">
+      <c r="C162" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E162" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F162" s="4"/>
+      <c r="G162" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163" spans="3:7">
+      <c r="C163" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E163" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G163" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164" spans="3:7">
+      <c r="C164" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E164" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G164" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165" spans="3:7">
+      <c r="C165" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E165" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G165" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166" spans="3:7">
+      <c r="C166" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E166" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G166" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/TankRunner/Assets/Resources/LD.xlsx
+++ b/TankRunner/Assets/Resources/LD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420"/>
+    <workbookView windowWidth="28800" windowHeight="12420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="elements" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="12">
   <si>
     <t>row</t>
   </si>
@@ -52,24 +52,6 @@
   </si>
   <si>
     <t>H</t>
-  </si>
-  <si>
-    <t>o</t>
-  </si>
-  <si>
-    <t>磁铁</t>
-  </si>
-  <si>
-    <t>END</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>恢复生命</t>
-  </si>
-  <si>
-    <t>end</t>
   </si>
 </sst>
 </file>
@@ -244,6 +226,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -263,12 +251,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -734,11 +716,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -750,9 +729,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1076,13 +1058,13 @@
   <sheetPr/>
   <dimension ref="A1:H166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="C167" sqref="C167"/>
+    <sheetView topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:H166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.90833333333333" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9.90833333333333" style="1"/>
+    <col min="1" max="1" width="9.90833333333333" style="6"/>
     <col min="2" max="2" width="9.90833333333333" style="2"/>
     <col min="3" max="3" width="9.90833333333333" style="3"/>
     <col min="4" max="4" width="9.90833333333333" style="4"/>
@@ -1093,7 +1075,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1119,82 +1101,82 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="1">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="1">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="1">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="1">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="1">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="1">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="1">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="1">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="1">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="1">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="1">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="1">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="1">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="1">
+      <c r="A15" s="6">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="1">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="1">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -1212,7 +1194,7 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="1">
+      <c r="A18" s="6">
         <v>17</v>
       </c>
       <c r="E18" s="5" t="s">
@@ -1220,7 +1202,7 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="1">
+      <c r="A19" s="6">
         <v>18</v>
       </c>
       <c r="E19" s="5" t="s">
@@ -1228,7 +1210,7 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="1">
+      <c r="A20" s="6">
         <v>19</v>
       </c>
       <c r="E20" s="5" t="s">
@@ -1236,7 +1218,7 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="1">
+      <c r="A21" s="6">
         <v>20</v>
       </c>
       <c r="E21" s="5" t="s">
@@ -1244,7 +1226,7 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="1">
+      <c r="A22" s="6">
         <v>21</v>
       </c>
       <c r="E22" s="5" t="s">
@@ -1252,7 +1234,7 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="1">
+      <c r="A23" s="6">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1263,12 +1245,12 @@
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="1">
+      <c r="A24" s="6">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="1">
+      <c r="A25" s="6">
         <v>24</v>
       </c>
       <c r="G25" s="3" t="s">
@@ -1276,7 +1258,7 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="1">
+      <c r="A26" s="6">
         <v>25</v>
       </c>
       <c r="G26" s="3" t="s">
@@ -1284,7 +1266,7 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="1">
+      <c r="A27" s="6">
         <v>26</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -1295,7 +1277,7 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="1">
+      <c r="A28" s="6">
         <v>27</v>
       </c>
       <c r="H28" s="2" t="s">
@@ -1303,7 +1285,7 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="1">
+      <c r="A29" s="6">
         <v>28</v>
       </c>
       <c r="H29" s="2" t="s">
@@ -1311,7 +1293,7 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="1">
+      <c r="A30" s="6">
         <v>29</v>
       </c>
       <c r="G30" s="3" t="s">
@@ -1319,7 +1301,7 @@
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="1">
+      <c r="A31" s="6">
         <v>30</v>
       </c>
       <c r="F31" s="4" t="s">
@@ -1327,7 +1309,7 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="1">
+      <c r="A32" s="6">
         <v>31</v>
       </c>
       <c r="E32" s="5" t="s">
@@ -1335,7 +1317,7 @@
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="1">
+      <c r="A33" s="6">
         <v>32</v>
       </c>
       <c r="D33" s="4" t="s">
@@ -1343,7 +1325,7 @@
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1">
+      <c r="A34" s="6">
         <v>33</v>
       </c>
       <c r="C34" s="3" t="s">
@@ -1351,12 +1333,12 @@
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="1">
+      <c r="A35" s="6">
         <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="1">
+      <c r="A36" s="6">
         <v>35</v>
       </c>
       <c r="G36" s="3" t="s">
@@ -1364,7 +1346,7 @@
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="1">
+      <c r="A37" s="6">
         <v>36</v>
       </c>
       <c r="F37" s="4" t="s">
@@ -1372,7 +1354,7 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="1">
+      <c r="A38" s="6">
         <v>37</v>
       </c>
       <c r="E38" s="5" t="s">
@@ -1380,7 +1362,7 @@
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="1">
+      <c r="A39" s="6">
         <v>38</v>
       </c>
       <c r="D39" s="4" t="s">
@@ -1388,7 +1370,7 @@
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="1">
+      <c r="A40" s="6">
         <v>39</v>
       </c>
       <c r="C40" s="3" t="s">
@@ -1396,27 +1378,27 @@
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="1">
+      <c r="A41" s="6">
         <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="1">
+      <c r="A42" s="6">
         <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="1">
+      <c r="A43" s="6">
         <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="1">
+      <c r="A44" s="6">
         <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="1">
+      <c r="A45" s="6">
         <v>44</v>
       </c>
       <c r="C45" s="3" t="s">
@@ -1424,7 +1406,7 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="1">
+      <c r="A46" s="6">
         <v>45</v>
       </c>
       <c r="C46" s="3" t="s">
@@ -1432,7 +1414,7 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="1">
+      <c r="A47" s="6">
         <v>46</v>
       </c>
       <c r="C47" s="3" t="s">
@@ -1440,7 +1422,7 @@
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="1">
+      <c r="A48" s="6">
         <v>47</v>
       </c>
       <c r="E48" s="5" t="s">
@@ -1448,7 +1430,7 @@
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="1">
+      <c r="A49" s="6">
         <v>48</v>
       </c>
       <c r="E49" s="5" t="s">
@@ -1456,7 +1438,7 @@
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="1">
+      <c r="A50" s="6">
         <v>49</v>
       </c>
       <c r="E50" s="5" t="s">
@@ -1464,27 +1446,27 @@
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="1">
+      <c r="A51" s="6">
         <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="1">
+      <c r="A52" s="6">
         <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="1">
+      <c r="A53" s="6">
         <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="1">
+      <c r="A54" s="6">
         <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="1">
+      <c r="A55" s="6">
         <v>54</v>
       </c>
       <c r="E55" s="5" t="s">
@@ -1495,7 +1477,7 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="1">
+      <c r="A56" s="6">
         <v>55</v>
       </c>
       <c r="C56" s="3" t="s">
@@ -1503,7 +1485,7 @@
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="1">
+      <c r="A57" s="6">
         <v>56</v>
       </c>
       <c r="C57" s="3" t="s">
@@ -1511,7 +1493,7 @@
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="1">
+      <c r="A58" s="6">
         <v>57</v>
       </c>
       <c r="C58" s="3" t="s">
@@ -1519,17 +1501,17 @@
       </c>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="1">
+      <c r="A59" s="6">
         <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="1">
+      <c r="A60" s="6">
         <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="1">
+      <c r="A61" s="6">
         <v>60</v>
       </c>
       <c r="C61" s="3" t="s">
@@ -1543,7 +1525,7 @@
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="1">
+      <c r="A62" s="6">
         <v>61</v>
       </c>
       <c r="C62" s="3" t="s">
@@ -1557,7 +1539,7 @@
       </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="1">
+      <c r="A63" s="6">
         <v>62</v>
       </c>
       <c r="C63" s="3" t="s">
@@ -1571,7 +1553,7 @@
       </c>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="1">
+      <c r="A64" s="6">
         <v>63</v>
       </c>
       <c r="C64" s="3" t="s">
@@ -1585,7 +1567,7 @@
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="1">
+      <c r="A65" s="6">
         <v>64</v>
       </c>
       <c r="C65" s="3" t="s">
@@ -1599,22 +1581,22 @@
       </c>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="1">
+      <c r="A66" s="6">
         <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="1">
+      <c r="A67" s="6">
         <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="1">
+      <c r="A68" s="6">
         <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="1">
+      <c r="A69" s="6">
         <v>68</v>
       </c>
       <c r="E69" s="5" t="s">
@@ -1622,12 +1604,12 @@
       </c>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="1">
+      <c r="A70" s="6">
         <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="1">
+      <c r="A71" s="6">
         <v>70</v>
       </c>
       <c r="C71" s="3" t="s">
@@ -1635,12 +1617,12 @@
       </c>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="1">
+      <c r="A72" s="6">
         <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="1">
+      <c r="A73" s="6">
         <v>72</v>
       </c>
       <c r="G73" s="3" t="s">
@@ -1648,22 +1630,22 @@
       </c>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="1">
+      <c r="A74" s="6">
         <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="1">
+      <c r="A75" s="6">
         <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="1">
+      <c r="A76" s="6">
         <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="1">
+      <c r="A77" s="6">
         <v>76</v>
       </c>
       <c r="E77" s="5" t="s">
@@ -1671,22 +1653,22 @@
       </c>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="1">
+      <c r="A78" s="6">
         <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="1">
+      <c r="A79" s="6">
         <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="1">
+      <c r="A80" s="6">
         <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="1">
+      <c r="A81" s="6">
         <v>80</v>
       </c>
       <c r="C81" s="3" t="s">
@@ -1694,22 +1676,22 @@
       </c>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="1">
+      <c r="A82" s="6">
         <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="1">
+      <c r="A83" s="6">
         <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="1">
+      <c r="A84" s="6">
         <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="1">
+      <c r="A85" s="6">
         <v>84</v>
       </c>
       <c r="C85" s="3" t="s">
@@ -1717,17 +1699,17 @@
       </c>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="1">
+      <c r="A86" s="6">
         <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="1">
+      <c r="A87" s="6">
         <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="1">
+      <c r="A88" s="6">
         <v>87</v>
       </c>
       <c r="F88" s="4" t="s">
@@ -1735,7 +1717,7 @@
       </c>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="1">
+      <c r="A89" s="6">
         <v>88</v>
       </c>
       <c r="E89" s="5" t="s">
@@ -1743,7 +1725,7 @@
       </c>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="1">
+      <c r="A90" s="6">
         <v>89</v>
       </c>
       <c r="E90" s="5" t="s">
@@ -1751,7 +1733,7 @@
       </c>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="1">
+      <c r="A91" s="6">
         <v>90</v>
       </c>
       <c r="E91" s="5" t="s">
@@ -1759,7 +1741,7 @@
       </c>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="1">
+      <c r="A92" s="6">
         <v>91</v>
       </c>
       <c r="E92" s="5" t="s">
@@ -1767,7 +1749,7 @@
       </c>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="1">
+      <c r="A93" s="6">
         <v>92</v>
       </c>
       <c r="E93" s="5" t="s">
@@ -1775,12 +1757,12 @@
       </c>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="1">
+      <c r="A94" s="6">
         <v>93</v>
       </c>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="1">
+      <c r="A95" s="6">
         <v>94</v>
       </c>
       <c r="D95" s="4" t="s">
@@ -1788,7 +1770,7 @@
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="1">
+      <c r="A96" s="6">
         <v>95</v>
       </c>
       <c r="C96" s="3" t="s">
@@ -1796,7 +1778,7 @@
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="1">
+      <c r="A97" s="6">
         <v>96</v>
       </c>
       <c r="C97" s="3" t="s">
@@ -1804,7 +1786,7 @@
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="1">
+      <c r="A98" s="6">
         <v>97</v>
       </c>
       <c r="C98" s="3" t="s">
@@ -1812,7 +1794,7 @@
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="1">
+      <c r="A99" s="6">
         <v>98</v>
       </c>
       <c r="C99" s="3" t="s">
@@ -1820,7 +1802,7 @@
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="1">
+      <c r="A100" s="6">
         <v>99</v>
       </c>
       <c r="C100" s="3" t="s">
@@ -1828,17 +1810,17 @@
       </c>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="1">
+      <c r="A101" s="6">
         <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="1">
+      <c r="A102" s="6">
         <v>101</v>
       </c>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="1">
+      <c r="A103" s="6">
         <v>102</v>
       </c>
       <c r="F103" s="4" t="s">
@@ -1846,17 +1828,17 @@
       </c>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="1">
+      <c r="A104" s="6">
         <v>103</v>
       </c>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="1">
+      <c r="A105" s="6">
         <v>104</v>
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="1">
+      <c r="A106" s="6">
         <v>105</v>
       </c>
       <c r="C106" s="3" t="s">
@@ -1864,12 +1846,12 @@
       </c>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="1">
+      <c r="A107" s="6">
         <v>106</v>
       </c>
     </row>
     <row r="108" spans="1:7">
-      <c r="A108" s="1">
+      <c r="A108" s="6">
         <v>107</v>
       </c>
       <c r="G108" s="3" t="s">
@@ -1877,22 +1859,22 @@
       </c>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="1">
+      <c r="A109" s="6">
         <v>108</v>
       </c>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="1">
+      <c r="A110" s="6">
         <v>109</v>
       </c>
     </row>
     <row r="111" spans="1:1">
-      <c r="A111" s="1">
+      <c r="A111" s="6">
         <v>110</v>
       </c>
     </row>
     <row r="112" spans="1:7">
-      <c r="A112" s="1">
+      <c r="A112" s="6">
         <v>111</v>
       </c>
       <c r="C112" s="3" t="s">
@@ -1909,32 +1891,32 @@
       </c>
     </row>
     <row r="113" spans="1:1">
-      <c r="A113" s="1">
+      <c r="A113" s="6">
         <v>112</v>
       </c>
     </row>
     <row r="114" spans="1:1">
-      <c r="A114" s="1">
+      <c r="A114" s="6">
         <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:1">
-      <c r="A115" s="1">
+      <c r="A115" s="6">
         <v>114</v>
       </c>
     </row>
     <row r="116" spans="1:1">
-      <c r="A116" s="1">
+      <c r="A116" s="6">
         <v>115</v>
       </c>
     </row>
     <row r="117" spans="1:1">
-      <c r="A117" s="1">
+      <c r="A117" s="6">
         <v>116</v>
       </c>
     </row>
     <row r="118" spans="1:7">
-      <c r="A118" s="1">
+      <c r="A118" s="6">
         <v>117</v>
       </c>
       <c r="C118" s="7" t="s">
@@ -2051,7 +2033,6 @@
       <c r="E162" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F162" s="4"/>
       <c r="G162" s="3" t="s">
         <v>9</v>
       </c>
@@ -2110,186 +2091,2137 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A18:E64"/>
+  <dimension ref="A1:H166"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:H166"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.90833333333333" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.90833333333333" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <sheetData>
-    <row r="18" spans="2:4">
-      <c r="B18" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="C18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="5:5">
-      <c r="E22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="4:4">
-      <c r="D23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3">
-      <c r="C24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3">
-      <c r="C27" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3">
-      <c r="C34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5">
-      <c r="C37" t="s">
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="6">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="6">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="6">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="6">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="6">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="6">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="6">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="6">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="6">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="6">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="6">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="6">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="6">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="6">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D37" t="s">
+      <c r="F36" s="4"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="6">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="6">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="6">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="6">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="6">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="2"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="6">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="2"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="6">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="2"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="6">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="2"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="6">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="2"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="6">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="2"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="6">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="2"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="6">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="4"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="2"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="6">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="4"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="2"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="6">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="4"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="2"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="6">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="2"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="6">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="2"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="6">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="2"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="6">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="2"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="6">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E37" t="s">
+      <c r="H55" s="2"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="6">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="2"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="6">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="2"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="6">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="2"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="6">
+        <v>58</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="2"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="6">
+        <v>59</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="3:3">
-      <c r="C43" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="5:5">
-      <c r="E44" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="5:5">
-      <c r="E45" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="5:5">
-      <c r="E46" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="F60" s="4"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="2"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="6">
+        <v>60</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="2"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="6">
+        <v>61</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="2"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="6">
+        <v>62</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="2"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="6">
+        <v>63</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="2"/>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="6">
+        <v>64</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="2"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="6">
+        <v>65</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="2"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="6">
+        <v>66</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="2"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="6">
+        <v>67</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="2"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="6">
+        <v>68</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" s="4"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="2"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="6">
+        <v>69</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="2"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="6">
+        <v>70</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" s="4"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="2"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="6">
+        <v>71</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="2"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="6">
+        <v>72</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H73" s="2"/>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="6">
+        <v>73</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="2"/>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="6">
+        <v>74</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="2"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="6">
+        <v>75</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="4"/>
+      <c r="E76" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F76" s="4"/>
+      <c r="G76" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H76" s="2"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="6">
+        <v>76</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="4"/>
+      <c r="E77" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F77" s="4"/>
+      <c r="G77" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H77" s="2"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="6">
+        <v>77</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="4"/>
+      <c r="E78" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F78" s="4"/>
+      <c r="G78" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H78" s="2"/>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="6">
+        <v>78</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="4"/>
+      <c r="E79" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79" s="4"/>
+      <c r="G79" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H79" s="2"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="6">
+        <v>79</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="4"/>
+      <c r="E80" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F80" s="4"/>
+      <c r="G80" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H80" s="2"/>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="6">
+        <v>80</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="2"/>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="6">
+        <v>81</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="2"/>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="6">
+        <v>82</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="2"/>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="6">
+        <v>83</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="2"/>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="6">
+        <v>84</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E49" t="s">
+      <c r="D85" s="4"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="2"/>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="6">
+        <v>85</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="2"/>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="6">
+        <v>86</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="2"/>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="6">
+        <v>87</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="3:3">
-      <c r="C53" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55" t="s">
-        <v>9</v>
-      </c>
-      <c r="E55" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="s">
-        <v>9</v>
-      </c>
-      <c r="C56" t="s">
-        <v>9</v>
-      </c>
-      <c r="E56" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="s">
-        <v>9</v>
-      </c>
-      <c r="C57" t="s">
-        <v>9</v>
-      </c>
-      <c r="E57" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4">
-      <c r="B58" t="s">
-        <v>9</v>
-      </c>
-      <c r="C58" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="3:3">
-      <c r="C59" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4">
-      <c r="B60" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="s">
-        <v>9</v>
-      </c>
-      <c r="E61" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="64" spans="3:3">
-      <c r="C64" t="s">
-        <v>14</v>
-      </c>
+      <c r="F88" s="4"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="2"/>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="6">
+        <v>88</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="2"/>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="6">
+        <v>89</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="2"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="6">
+        <v>90</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="2"/>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="6">
+        <v>91</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="2"/>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="6">
+        <v>92</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="2"/>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="6">
+        <v>93</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H94" s="2"/>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="6">
+        <v>94</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G95" s="3"/>
+      <c r="H95" s="2"/>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="6">
+        <v>95</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F96" s="4"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="2"/>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="6">
+        <v>96</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E97" s="5"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="2"/>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="6">
+        <v>97</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="4"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="2"/>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="6">
+        <v>98</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="4"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="2"/>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="6">
+        <v>99</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="4"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="2"/>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="6">
+        <v>100</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="2"/>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="6">
+        <v>101</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="2"/>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="6">
+        <v>102</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G103" s="3"/>
+      <c r="H103" s="2"/>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="6">
+        <v>103</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="3"/>
+      <c r="H104" s="2"/>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="6">
+        <v>104</v>
+      </c>
+      <c r="B105" s="2"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="3"/>
+      <c r="H105" s="2"/>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="6">
+        <v>105</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106" s="4"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="3"/>
+      <c r="H106" s="2"/>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="6">
+        <v>106</v>
+      </c>
+      <c r="B107" s="2"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="3"/>
+      <c r="H107" s="2"/>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="6">
+        <v>107</v>
+      </c>
+      <c r="B108" s="2"/>
+      <c r="C108" s="3"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H108" s="2"/>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="6">
+        <v>108</v>
+      </c>
+      <c r="B109" s="2"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="3"/>
+      <c r="H109" s="2"/>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="6">
+        <v>109</v>
+      </c>
+      <c r="B110" s="2"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="3"/>
+      <c r="H110" s="2"/>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="6">
+        <v>110</v>
+      </c>
+      <c r="B111" s="2"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="3"/>
+      <c r="H111" s="2"/>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="6">
+        <v>111</v>
+      </c>
+      <c r="B112" s="2"/>
+      <c r="C112" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E112" s="5"/>
+      <c r="F112" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H112" s="2"/>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="6">
+        <v>112</v>
+      </c>
+      <c r="B113" s="2"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="4"/>
+      <c r="G113" s="3"/>
+      <c r="H113" s="2"/>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="6">
+        <v>113</v>
+      </c>
+      <c r="B114" s="2"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="4"/>
+      <c r="G114" s="3"/>
+      <c r="H114" s="2"/>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="6">
+        <v>114</v>
+      </c>
+      <c r="B115" s="2"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="4"/>
+      <c r="G115" s="3"/>
+      <c r="H115" s="2"/>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="6">
+        <v>115</v>
+      </c>
+      <c r="B116" s="2"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="4"/>
+      <c r="G116" s="3"/>
+      <c r="H116" s="2"/>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="6">
+        <v>116</v>
+      </c>
+      <c r="B117" s="2"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="4"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="4"/>
+      <c r="G117" s="3"/>
+      <c r="H117" s="2"/>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="6">
+        <v>117</v>
+      </c>
+      <c r="B118" s="2"/>
+      <c r="C118" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E118" s="7"/>
+      <c r="F118" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G118" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H118" s="2"/>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="6"/>
+      <c r="B119" s="2"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="4"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="4"/>
+      <c r="G119" s="3"/>
+      <c r="H119" s="2"/>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="6"/>
+      <c r="B120" s="2"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="4"/>
+      <c r="G120" s="3"/>
+      <c r="H120" s="2"/>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="6"/>
+      <c r="B121" s="2"/>
+      <c r="C121" s="3"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="4"/>
+      <c r="G121" s="3"/>
+      <c r="H121" s="2"/>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="6"/>
+      <c r="B122" s="2"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="4"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="4"/>
+      <c r="G122" s="3"/>
+      <c r="H122" s="2"/>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="6"/>
+      <c r="B123" s="2"/>
+      <c r="C123" s="3"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="4"/>
+      <c r="G123" s="3"/>
+      <c r="H123" s="2"/>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="6"/>
+      <c r="B124" s="2"/>
+      <c r="C124" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="4"/>
+      <c r="E124" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F124" s="4"/>
+      <c r="G124" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H124" s="2"/>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="6"/>
+      <c r="B125" s="2"/>
+      <c r="C125" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="4"/>
+      <c r="E125" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F125" s="4"/>
+      <c r="G125" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H125" s="2"/>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="6"/>
+      <c r="B126" s="2"/>
+      <c r="C126" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="4"/>
+      <c r="E126" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F126" s="4"/>
+      <c r="G126" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H126" s="2"/>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="6"/>
+      <c r="B127" s="2"/>
+      <c r="C127" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="4"/>
+      <c r="E127" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F127" s="4"/>
+      <c r="G127" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H127" s="2"/>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" s="6"/>
+      <c r="B128" s="2"/>
+      <c r="C128" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="4"/>
+      <c r="E128" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F128" s="4"/>
+      <c r="G128" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H128" s="2"/>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" s="6"/>
+      <c r="B129" s="2"/>
+      <c r="C129" s="3"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="4"/>
+      <c r="G129" s="3"/>
+      <c r="H129" s="2"/>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="6"/>
+      <c r="B130" s="2"/>
+      <c r="C130" s="3"/>
+      <c r="D130" s="4"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="4"/>
+      <c r="G130" s="3"/>
+      <c r="H130" s="2"/>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" s="6"/>
+      <c r="B131" s="2"/>
+      <c r="C131" s="3"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="4"/>
+      <c r="G131" s="3"/>
+      <c r="H131" s="2"/>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" s="6"/>
+      <c r="B132" s="2"/>
+      <c r="C132" s="3"/>
+      <c r="D132" s="4"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="4"/>
+      <c r="G132" s="3"/>
+      <c r="H132" s="2"/>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" s="6"/>
+      <c r="B133" s="2"/>
+      <c r="C133" s="3"/>
+      <c r="D133" s="4"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="4"/>
+      <c r="G133" s="3"/>
+      <c r="H133" s="2"/>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" s="6"/>
+      <c r="B134" s="2"/>
+      <c r="C134" s="3"/>
+      <c r="D134" s="4"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="4"/>
+      <c r="G134" s="3"/>
+      <c r="H134" s="2"/>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" s="6"/>
+      <c r="B135" s="2"/>
+      <c r="C135" s="3"/>
+      <c r="D135" s="4"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="4"/>
+      <c r="G135" s="3"/>
+      <c r="H135" s="2"/>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" s="6"/>
+      <c r="B136" s="2"/>
+      <c r="C136" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D136" s="4"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="4"/>
+      <c r="G136" s="3"/>
+      <c r="H136" s="2"/>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" s="6"/>
+      <c r="B137" s="2"/>
+      <c r="C137" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D137" s="4"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="4"/>
+      <c r="G137" s="3"/>
+      <c r="H137" s="2"/>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" s="6"/>
+      <c r="B138" s="2"/>
+      <c r="C138" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D138" s="4"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="4"/>
+      <c r="G138" s="3"/>
+      <c r="H138" s="2"/>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" s="6"/>
+      <c r="B139" s="2"/>
+      <c r="C139" s="3"/>
+      <c r="D139" s="4"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="4"/>
+      <c r="G139" s="3"/>
+      <c r="H139" s="2"/>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" s="6"/>
+      <c r="B140" s="2"/>
+      <c r="C140" s="3"/>
+      <c r="D140" s="4"/>
+      <c r="E140" s="5"/>
+      <c r="F140" s="4"/>
+      <c r="G140" s="3"/>
+      <c r="H140" s="2"/>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" s="6"/>
+      <c r="B141" s="2"/>
+      <c r="C141" s="3"/>
+      <c r="D141" s="4"/>
+      <c r="E141" s="5"/>
+      <c r="F141" s="4"/>
+      <c r="G141" s="3"/>
+      <c r="H141" s="2"/>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" s="6"/>
+      <c r="B142" s="2"/>
+      <c r="C142" s="3"/>
+      <c r="D142" s="4"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="4"/>
+      <c r="G142" s="3"/>
+      <c r="H142" s="2"/>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143" s="6"/>
+      <c r="B143" s="2"/>
+      <c r="C143" s="3"/>
+      <c r="D143" s="4"/>
+      <c r="E143" s="5"/>
+      <c r="F143" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G143" s="3"/>
+      <c r="H143" s="2"/>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" s="6"/>
+      <c r="B144" s="2"/>
+      <c r="C144" s="3"/>
+      <c r="D144" s="4"/>
+      <c r="E144" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F144" s="4"/>
+      <c r="G144" s="3"/>
+      <c r="H144" s="2"/>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" s="6"/>
+      <c r="B145" s="2"/>
+      <c r="C145" s="3"/>
+      <c r="D145" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E145" s="5"/>
+      <c r="F145" s="4"/>
+      <c r="G145" s="3"/>
+      <c r="H145" s="2"/>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146" s="6"/>
+      <c r="B146" s="2"/>
+      <c r="C146" s="3"/>
+      <c r="D146" s="4"/>
+      <c r="E146" s="5"/>
+      <c r="F146" s="4"/>
+      <c r="G146" s="3"/>
+      <c r="H146" s="2"/>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147" s="6"/>
+      <c r="B147" s="2"/>
+      <c r="C147" s="3"/>
+      <c r="D147" s="4"/>
+      <c r="E147" s="5"/>
+      <c r="F147" s="4"/>
+      <c r="G147" s="3"/>
+      <c r="H147" s="2"/>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148" s="6"/>
+      <c r="B148" s="2"/>
+      <c r="C148" s="3"/>
+      <c r="D148" s="4"/>
+      <c r="E148" s="5"/>
+      <c r="F148" s="4"/>
+      <c r="G148" s="3"/>
+      <c r="H148" s="2"/>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149" s="6"/>
+      <c r="B149" s="2"/>
+      <c r="C149" s="3"/>
+      <c r="D149" s="4"/>
+      <c r="E149" s="5"/>
+      <c r="F149" s="4"/>
+      <c r="G149" s="3"/>
+      <c r="H149" s="2"/>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150" s="6"/>
+      <c r="B150" s="2"/>
+      <c r="C150" s="3"/>
+      <c r="D150" s="4"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="4"/>
+      <c r="G150" s="3"/>
+      <c r="H150" s="2"/>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151" s="6"/>
+      <c r="B151" s="2"/>
+      <c r="C151" s="3"/>
+      <c r="D151" s="4"/>
+      <c r="E151" s="5"/>
+      <c r="F151" s="4"/>
+      <c r="G151" s="3"/>
+      <c r="H151" s="2"/>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152" s="6"/>
+      <c r="B152" s="2"/>
+      <c r="C152" s="3"/>
+      <c r="D152" s="4"/>
+      <c r="E152" s="5"/>
+      <c r="F152" s="4"/>
+      <c r="G152" s="3"/>
+      <c r="H152" s="2"/>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153" s="6"/>
+      <c r="B153" s="2"/>
+      <c r="C153" s="3"/>
+      <c r="D153" s="4"/>
+      <c r="E153" s="5"/>
+      <c r="F153" s="4"/>
+      <c r="G153" s="3"/>
+      <c r="H153" s="2"/>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154" s="6"/>
+      <c r="B154" s="2"/>
+      <c r="C154" s="3"/>
+      <c r="D154" s="4"/>
+      <c r="E154" s="5"/>
+      <c r="F154" s="4"/>
+      <c r="G154" s="3"/>
+      <c r="H154" s="2"/>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155" s="6"/>
+      <c r="B155" s="2"/>
+      <c r="C155" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D155" s="4"/>
+      <c r="E155" s="5"/>
+      <c r="F155" s="4"/>
+      <c r="G155" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H155" s="2"/>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156" s="6"/>
+      <c r="B156" s="2"/>
+      <c r="C156" s="3"/>
+      <c r="D156" s="4"/>
+      <c r="E156" s="5"/>
+      <c r="F156" s="4"/>
+      <c r="G156" s="3"/>
+      <c r="H156" s="2"/>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157" s="6"/>
+      <c r="B157" s="2"/>
+      <c r="C157" s="3"/>
+      <c r="D157" s="4"/>
+      <c r="E157" s="5"/>
+      <c r="F157" s="4"/>
+      <c r="G157" s="3"/>
+      <c r="H157" s="2"/>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158" s="6"/>
+      <c r="B158" s="2"/>
+      <c r="C158" s="3"/>
+      <c r="D158" s="4"/>
+      <c r="E158" s="5"/>
+      <c r="F158" s="4"/>
+      <c r="G158" s="3"/>
+      <c r="H158" s="2"/>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159" s="6"/>
+      <c r="B159" s="2"/>
+      <c r="C159" s="3"/>
+      <c r="D159" s="4"/>
+      <c r="E159" s="5"/>
+      <c r="F159" s="4"/>
+      <c r="G159" s="3"/>
+      <c r="H159" s="2"/>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160" s="6"/>
+      <c r="B160" s="2"/>
+      <c r="C160" s="3"/>
+      <c r="D160" s="4"/>
+      <c r="E160" s="5"/>
+      <c r="F160" s="4"/>
+      <c r="G160" s="3"/>
+      <c r="H160" s="2"/>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161" s="6"/>
+      <c r="B161" s="2"/>
+      <c r="C161" s="3"/>
+      <c r="D161" s="4"/>
+      <c r="E161" s="5"/>
+      <c r="F161" s="4"/>
+      <c r="G161" s="3"/>
+      <c r="H161" s="2"/>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162" s="6"/>
+      <c r="B162" s="2"/>
+      <c r="C162" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" s="4"/>
+      <c r="E162" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F162" s="4"/>
+      <c r="G162" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H162" s="2"/>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163" s="6"/>
+      <c r="B163" s="2"/>
+      <c r="C163" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" s="4"/>
+      <c r="E163" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F163" s="4"/>
+      <c r="G163" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H163" s="2"/>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164" s="6"/>
+      <c r="B164" s="2"/>
+      <c r="C164" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" s="4"/>
+      <c r="E164" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F164" s="4"/>
+      <c r="G164" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H164" s="2"/>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165" s="6"/>
+      <c r="B165" s="2"/>
+      <c r="C165" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" s="4"/>
+      <c r="E165" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F165" s="4"/>
+      <c r="G165" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H165" s="2"/>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" s="6"/>
+      <c r="B166" s="2"/>
+      <c r="C166" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" s="4"/>
+      <c r="E166" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F166" s="4"/>
+      <c r="G166" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H166" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -2301,248 +4233,2125 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:H166"/>
   <sheetViews>
-    <sheetView zoomScale="65" zoomScaleNormal="65" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G1" sqref="A1:G1"/>
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E162" sqref="E162"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.90833333333333" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.90833333333333" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="C21" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D21" t="s">
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="6">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="6">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="6">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3">
-      <c r="C26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="3:3">
-      <c r="C30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="4:4">
-      <c r="D31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" t="s">
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B32" t="s">
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="6">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="6">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="6">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="6">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="6">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="6">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="6">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="6">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="6">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="6">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="6">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" s="3"/>
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="6">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="6">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="6">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="6">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="6">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="2"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="6">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="2"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="6">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="2"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="6">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="2"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="6">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="2"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="6">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="2"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="6">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="2"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="6">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="4"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="2"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="6">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="4"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="2"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="6">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="4"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="2"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="6">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="2"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="6">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="2"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="6">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" s="4"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="2"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="6">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="2"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="6">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C32" t="s">
+      <c r="H55" s="2"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="6">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="2"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="6">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="2"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="6">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="2"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="6">
+        <v>58</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="2"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="6">
+        <v>59</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E32" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="4:4">
-      <c r="D33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5">
-      <c r="C34" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="4:4">
-      <c r="D35" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="5:5">
-      <c r="E36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4">
-      <c r="B38" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="3:5">
-      <c r="C42" t="s">
+      <c r="F60" s="4"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="2"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="6">
+        <v>60</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="2"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="6">
+        <v>61</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="2"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="6">
+        <v>62</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="2"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="6">
+        <v>63</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="2"/>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="6">
+        <v>64</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="2"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="6">
+        <v>65</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="2"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="6">
+        <v>66</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="2"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="6">
+        <v>67</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="2"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="6">
+        <v>68</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="4"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H69" s="2"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="6">
+        <v>69</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" s="4"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H70" s="2"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="6">
+        <v>70</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" s="4"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H71" s="2"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="6">
+        <v>71</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H72" s="2"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="6">
+        <v>72</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H73" s="2"/>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="6">
+        <v>73</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="2"/>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="6">
+        <v>74</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="2"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="6">
+        <v>75</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="4"/>
+      <c r="E76" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F76" s="4"/>
+      <c r="G76" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H76" s="2"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="6">
+        <v>76</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="4"/>
+      <c r="E77" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F77" s="4"/>
+      <c r="G77" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H77" s="2"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="6">
+        <v>77</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="4"/>
+      <c r="E78" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F78" s="4"/>
+      <c r="G78" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H78" s="2"/>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="6">
+        <v>78</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="4"/>
+      <c r="E79" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79" s="4"/>
+      <c r="G79" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H79" s="2"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="6">
+        <v>79</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="4"/>
+      <c r="E80" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F80" s="4"/>
+      <c r="G80" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H80" s="2"/>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="6">
+        <v>80</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="2"/>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="6">
+        <v>81</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="2"/>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="6">
+        <v>82</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="2"/>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="6">
+        <v>83</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="2"/>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="6">
+        <v>84</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" s="4"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="2"/>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="6">
+        <v>85</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86" s="5"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="2"/>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="6">
+        <v>86</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F87" s="4"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="2"/>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="6">
+        <v>87</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="2"/>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="6">
+        <v>88</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="2"/>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="6">
+        <v>89</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="2"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="6">
+        <v>90</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="2"/>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="6">
+        <v>91</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="2"/>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="6">
+        <v>92</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="2"/>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="6">
+        <v>93</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H94" s="2"/>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="6">
+        <v>94</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G95" s="3"/>
+      <c r="H95" s="2"/>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="6">
+        <v>95</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F96" s="4"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="2"/>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="6">
+        <v>96</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E97" s="5"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="2"/>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="6">
+        <v>97</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="4"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="2"/>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="6">
+        <v>98</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="2"/>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="6">
+        <v>99</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="2"/>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="6">
+        <v>100</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="2"/>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="6">
+        <v>101</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="2"/>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="6">
+        <v>102</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D42" t="s">
+      <c r="G103" s="3"/>
+      <c r="H103" s="2"/>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="6">
+        <v>103</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="3"/>
+      <c r="H104" s="2"/>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="6">
+        <v>104</v>
+      </c>
+      <c r="B105" s="2"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="3"/>
+      <c r="H105" s="2"/>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="6">
+        <v>105</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106" s="4"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="3"/>
+      <c r="H106" s="2"/>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="6">
+        <v>106</v>
+      </c>
+      <c r="B107" s="2"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="3"/>
+      <c r="H107" s="2"/>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="6">
+        <v>107</v>
+      </c>
+      <c r="B108" s="2"/>
+      <c r="C108" s="3"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="3"/>
+      <c r="H108" s="2"/>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="6">
+        <v>108</v>
+      </c>
+      <c r="B109" s="2"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="3"/>
+      <c r="H109" s="2"/>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="6">
+        <v>109</v>
+      </c>
+      <c r="B110" s="2"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="3"/>
+      <c r="H110" s="2"/>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="6">
+        <v>110</v>
+      </c>
+      <c r="B111" s="2"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="3"/>
+      <c r="H111" s="2"/>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="6">
+        <v>111</v>
+      </c>
+      <c r="B112" s="2"/>
+      <c r="C112" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E42" t="s">
+      <c r="D112" s="4"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="3"/>
+      <c r="H112" s="2"/>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="6">
+        <v>112</v>
+      </c>
+      <c r="B113" s="2"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="4"/>
+      <c r="G113" s="3"/>
+      <c r="H113" s="2"/>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="6">
+        <v>113</v>
+      </c>
+      <c r="B114" s="2"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="4"/>
+      <c r="G114" s="3"/>
+      <c r="H114" s="2"/>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="6">
+        <v>114</v>
+      </c>
+      <c r="B115" s="2"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="45" spans="3:3">
-      <c r="C45" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="3:3">
-      <c r="C46" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" t="s">
-        <v>15</v>
-      </c>
-      <c r="C47" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="3:3">
-      <c r="C50" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="51" spans="3:3">
-      <c r="C51" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="3:3">
-      <c r="C52" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="3:3">
-      <c r="C53" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="4:4">
-      <c r="D54" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="3:3">
-      <c r="C55" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2">
-      <c r="B56" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="s">
-        <v>9</v>
-      </c>
-      <c r="E57" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4">
-      <c r="B59" t="s">
-        <v>15</v>
-      </c>
-      <c r="C59" t="s">
-        <v>15</v>
-      </c>
-      <c r="D59" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="66" spans="3:3">
-      <c r="C66" t="s">
-        <v>17</v>
-      </c>
+      <c r="F115" s="4"/>
+      <c r="G115" s="3"/>
+      <c r="H115" s="2"/>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="6">
+        <v>115</v>
+      </c>
+      <c r="B116" s="2"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="4"/>
+      <c r="G116" s="3"/>
+      <c r="H116" s="2"/>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="6">
+        <v>116</v>
+      </c>
+      <c r="B117" s="2"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="4"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="4"/>
+      <c r="G117" s="3"/>
+      <c r="H117" s="2"/>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="6">
+        <v>117</v>
+      </c>
+      <c r="B118" s="2"/>
+      <c r="C118" s="7"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="7"/>
+      <c r="G118" s="7"/>
+      <c r="H118" s="2"/>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="6"/>
+      <c r="B119" s="2"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="4"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="4"/>
+      <c r="G119" s="3"/>
+      <c r="H119" s="2"/>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="6"/>
+      <c r="B120" s="2"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="4"/>
+      <c r="G120" s="3"/>
+      <c r="H120" s="2"/>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="6"/>
+      <c r="B121" s="2"/>
+      <c r="C121" s="3"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="4"/>
+      <c r="G121" s="3"/>
+      <c r="H121" s="2"/>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="6"/>
+      <c r="B122" s="2"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="4"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="4"/>
+      <c r="G122" s="3"/>
+      <c r="H122" s="2"/>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="6"/>
+      <c r="B123" s="2"/>
+      <c r="C123" s="3"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="4"/>
+      <c r="G123" s="3"/>
+      <c r="H123" s="2"/>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="6"/>
+      <c r="B124" s="2"/>
+      <c r="C124" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="4"/>
+      <c r="E124" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F124" s="4"/>
+      <c r="G124" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H124" s="2"/>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="6"/>
+      <c r="B125" s="2"/>
+      <c r="C125" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="4"/>
+      <c r="E125" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F125" s="4"/>
+      <c r="G125" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H125" s="2"/>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="6"/>
+      <c r="B126" s="2"/>
+      <c r="C126" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="4"/>
+      <c r="E126" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F126" s="4"/>
+      <c r="G126" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H126" s="2"/>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="6"/>
+      <c r="B127" s="2"/>
+      <c r="C127" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="4"/>
+      <c r="E127" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F127" s="4"/>
+      <c r="G127" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H127" s="2"/>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" s="6"/>
+      <c r="B128" s="2"/>
+      <c r="C128" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="4"/>
+      <c r="E128" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F128" s="4"/>
+      <c r="G128" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H128" s="2"/>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" s="6"/>
+      <c r="B129" s="2"/>
+      <c r="C129" s="3"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="4"/>
+      <c r="G129" s="3"/>
+      <c r="H129" s="2"/>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="6"/>
+      <c r="B130" s="2"/>
+      <c r="C130" s="3"/>
+      <c r="D130" s="4"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="4"/>
+      <c r="G130" s="3"/>
+      <c r="H130" s="2"/>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" s="6"/>
+      <c r="B131" s="2"/>
+      <c r="C131" s="3"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="4"/>
+      <c r="G131" s="3"/>
+      <c r="H131" s="2"/>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" s="6"/>
+      <c r="B132" s="2"/>
+      <c r="C132" s="3"/>
+      <c r="D132" s="4"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="4"/>
+      <c r="G132" s="3"/>
+      <c r="H132" s="2"/>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" s="6"/>
+      <c r="B133" s="2"/>
+      <c r="C133" s="3"/>
+      <c r="D133" s="4"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="4"/>
+      <c r="G133" s="3"/>
+      <c r="H133" s="2"/>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" s="6"/>
+      <c r="B134" s="2"/>
+      <c r="C134" s="3"/>
+      <c r="D134" s="4"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="4"/>
+      <c r="G134" s="3"/>
+      <c r="H134" s="2"/>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" s="6"/>
+      <c r="B135" s="2"/>
+      <c r="C135" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E135" s="5"/>
+      <c r="F135" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H135" s="2"/>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" s="6"/>
+      <c r="B136" s="2"/>
+      <c r="C136" s="3"/>
+      <c r="D136" s="4"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="4"/>
+      <c r="G136" s="3"/>
+      <c r="H136" s="2"/>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" s="6"/>
+      <c r="B137" s="2"/>
+      <c r="C137" s="3"/>
+      <c r="D137" s="4"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="4"/>
+      <c r="G137" s="3"/>
+      <c r="H137" s="2"/>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" s="6"/>
+      <c r="B138" s="2"/>
+      <c r="C138" s="3"/>
+      <c r="D138" s="4"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="4"/>
+      <c r="G138" s="3"/>
+      <c r="H138" s="2"/>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" s="6"/>
+      <c r="B139" s="2"/>
+      <c r="C139" s="3"/>
+      <c r="D139" s="4"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="4"/>
+      <c r="G139" s="3"/>
+      <c r="H139" s="2"/>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" s="6"/>
+      <c r="B140" s="2"/>
+      <c r="C140" s="3"/>
+      <c r="D140" s="4"/>
+      <c r="E140" s="5"/>
+      <c r="F140" s="4"/>
+      <c r="G140" s="3"/>
+      <c r="H140" s="2"/>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" s="6"/>
+      <c r="B141" s="2"/>
+      <c r="C141" s="3"/>
+      <c r="D141" s="4"/>
+      <c r="E141" s="5"/>
+      <c r="F141" s="4"/>
+      <c r="G141" s="3"/>
+      <c r="H141" s="2"/>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" s="6"/>
+      <c r="B142" s="2"/>
+      <c r="C142" s="3"/>
+      <c r="D142" s="4"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="4"/>
+      <c r="G142" s="3"/>
+      <c r="H142" s="2"/>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143" s="6"/>
+      <c r="B143" s="2"/>
+      <c r="C143" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G143" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H143" s="2"/>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" s="6"/>
+      <c r="B144" s="2"/>
+      <c r="C144" s="3"/>
+      <c r="D144" s="4"/>
+      <c r="E144" s="5"/>
+      <c r="F144" s="4"/>
+      <c r="G144" s="3"/>
+      <c r="H144" s="2"/>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" s="6"/>
+      <c r="B145" s="2"/>
+      <c r="C145" s="3"/>
+      <c r="D145" s="4"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="4"/>
+      <c r="G145" s="3"/>
+      <c r="H145" s="2"/>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146" s="6"/>
+      <c r="B146" s="2"/>
+      <c r="C146" s="3"/>
+      <c r="D146" s="4"/>
+      <c r="E146" s="5"/>
+      <c r="F146" s="4"/>
+      <c r="G146" s="3"/>
+      <c r="H146" s="2"/>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147" s="6"/>
+      <c r="B147" s="2"/>
+      <c r="C147" s="3"/>
+      <c r="D147" s="4"/>
+      <c r="E147" s="5"/>
+      <c r="F147" s="4"/>
+      <c r="G147" s="3"/>
+      <c r="H147" s="2"/>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148" s="6"/>
+      <c r="B148" s="2"/>
+      <c r="C148" s="3"/>
+      <c r="D148" s="4"/>
+      <c r="E148" s="5"/>
+      <c r="F148" s="4"/>
+      <c r="G148" s="3"/>
+      <c r="H148" s="2"/>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149" s="6"/>
+      <c r="B149" s="2"/>
+      <c r="C149" s="3"/>
+      <c r="D149" s="4"/>
+      <c r="E149" s="5"/>
+      <c r="F149" s="4"/>
+      <c r="G149" s="3"/>
+      <c r="H149" s="2"/>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150" s="6"/>
+      <c r="B150" s="2"/>
+      <c r="C150" s="3"/>
+      <c r="D150" s="4"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="4"/>
+      <c r="G150" s="3"/>
+      <c r="H150" s="2"/>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151" s="6"/>
+      <c r="B151" s="2"/>
+      <c r="C151" s="3"/>
+      <c r="D151" s="4"/>
+      <c r="E151" s="5"/>
+      <c r="F151" s="4"/>
+      <c r="G151" s="3"/>
+      <c r="H151" s="2"/>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152" s="6"/>
+      <c r="B152" s="2"/>
+      <c r="C152" s="3"/>
+      <c r="D152" s="4"/>
+      <c r="E152" s="5"/>
+      <c r="F152" s="4"/>
+      <c r="G152" s="3"/>
+      <c r="H152" s="2"/>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153" s="6"/>
+      <c r="B153" s="2"/>
+      <c r="C153" s="3"/>
+      <c r="D153" s="4"/>
+      <c r="E153" s="5"/>
+      <c r="F153" s="4"/>
+      <c r="G153" s="3"/>
+      <c r="H153" s="2"/>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154" s="6"/>
+      <c r="B154" s="2"/>
+      <c r="C154" s="3"/>
+      <c r="D154" s="4"/>
+      <c r="E154" s="5"/>
+      <c r="F154" s="4"/>
+      <c r="G154" s="3"/>
+      <c r="H154" s="2"/>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155" s="6"/>
+      <c r="B155" s="2"/>
+      <c r="C155" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E155" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F155" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G155" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H155" s="2"/>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156" s="6"/>
+      <c r="B156" s="2"/>
+      <c r="C156" s="3"/>
+      <c r="D156" s="4"/>
+      <c r="E156" s="5"/>
+      <c r="F156" s="4"/>
+      <c r="G156" s="3"/>
+      <c r="H156" s="2"/>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157" s="6"/>
+      <c r="B157" s="2"/>
+      <c r="C157" s="3"/>
+      <c r="D157" s="4"/>
+      <c r="E157" s="5"/>
+      <c r="F157" s="4"/>
+      <c r="G157" s="3"/>
+      <c r="H157" s="2"/>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158" s="6"/>
+      <c r="B158" s="2"/>
+      <c r="C158" s="3"/>
+      <c r="D158" s="4"/>
+      <c r="E158" s="5"/>
+      <c r="F158" s="4"/>
+      <c r="G158" s="3"/>
+      <c r="H158" s="2"/>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159" s="6"/>
+      <c r="B159" s="2"/>
+      <c r="C159" s="3"/>
+      <c r="D159" s="4"/>
+      <c r="E159" s="5"/>
+      <c r="F159" s="4"/>
+      <c r="G159" s="3"/>
+      <c r="H159" s="2"/>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160" s="6"/>
+      <c r="B160" s="2"/>
+      <c r="C160" s="3"/>
+      <c r="D160" s="4"/>
+      <c r="E160" s="5"/>
+      <c r="F160" s="4"/>
+      <c r="G160" s="3"/>
+      <c r="H160" s="2"/>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161" s="6"/>
+      <c r="B161" s="2"/>
+      <c r="C161" s="3"/>
+      <c r="D161" s="4"/>
+      <c r="E161" s="5"/>
+      <c r="F161" s="4"/>
+      <c r="G161" s="3"/>
+      <c r="H161" s="2"/>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162" s="6"/>
+      <c r="B162" s="2"/>
+      <c r="C162" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" s="4"/>
+      <c r="E162" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F162" s="4"/>
+      <c r="G162" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H162" s="2"/>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163" s="6"/>
+      <c r="B163" s="2"/>
+      <c r="C163" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" s="4"/>
+      <c r="E163" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F163" s="4"/>
+      <c r="G163" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H163" s="2"/>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164" s="6"/>
+      <c r="B164" s="2"/>
+      <c r="C164" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" s="4"/>
+      <c r="E164" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F164" s="4"/>
+      <c r="G164" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H164" s="2"/>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165" s="6"/>
+      <c r="B165" s="2"/>
+      <c r="C165" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" s="4"/>
+      <c r="E165" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F165" s="4"/>
+      <c r="G165" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H165" s="2"/>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" s="6"/>
+      <c r="B166" s="2"/>
+      <c r="C166" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" s="4"/>
+      <c r="E166" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F166" s="4"/>
+      <c r="G166" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H166" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/TankRunner/Assets/Resources/LD.xlsx
+++ b/TankRunner/Assets/Resources/LD.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420" activeTab="2"/>
+    <workbookView windowWidth="24225" windowHeight="12540" tabRatio="475"/>
   </bookViews>
   <sheets>
-    <sheet name="elements" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="lv1" sheetId="1" r:id="rId1"/>
+    <sheet name="lv2" sheetId="2" r:id="rId2"/>
+    <sheet name="lv3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="12">
   <si>
     <t>row</t>
   </si>
@@ -712,7 +712,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -733,9 +733,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1058,8 +1055,8 @@
   <sheetPr/>
   <dimension ref="A1:H166"/>
   <sheetViews>
-    <sheetView topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:H166"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="H144" sqref="H144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.90833333333333" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1179,17 +1176,16 @@
       <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="C17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1919,17 +1915,16 @@
       <c r="A118" s="6">
         <v>117</v>
       </c>
-      <c r="C118" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D118" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E118" s="7"/>
-      <c r="F118" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G118" s="7" t="s">
+      <c r="C118" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G118" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2093,8 +2088,8 @@
   <sheetPr/>
   <dimension ref="A1:H166"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:H166"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.90833333333333" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2254,7 +2249,7 @@
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="H12" s="2"/>
@@ -2268,7 +2263,7 @@
       <c r="D13" s="4"/>
       <c r="E13" s="5"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="H13" s="2"/>
@@ -2282,7 +2277,7 @@
       <c r="D14" s="4"/>
       <c r="E14" s="5"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="H14" s="2"/>
@@ -2296,7 +2291,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="3" t="s">
         <v>9</v>
       </c>
       <c r="H15" s="2"/>
@@ -2310,7 +2305,7 @@
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="3" t="s">
         <v>9</v>
       </c>
       <c r="H16" s="2"/>
@@ -2320,11 +2315,11 @@
         <v>16</v>
       </c>
       <c r="B17" s="2"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="3"/>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
@@ -2404,7 +2399,7 @@
       <c r="B23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="4"/>
@@ -2420,7 +2415,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="4"/>
@@ -2434,7 +2429,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2"/>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="4"/>
@@ -2450,7 +2445,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="4"/>
@@ -2466,7 +2461,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2"/>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="4"/>
@@ -2522,7 +2517,9 @@
         <v>30</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="C31" s="3"/>
+      <c r="C31" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="D31" s="4"/>
       <c r="E31" s="5"/>
       <c r="F31" s="4"/>
@@ -2584,9 +2581,7 @@
       <c r="B36" s="2"/>
       <c r="C36" s="3"/>
       <c r="D36" s="4"/>
-      <c r="E36" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="E36" s="5"/>
       <c r="F36" s="4"/>
       <c r="G36" s="3"/>
       <c r="H36" s="2"/>
@@ -2610,7 +2605,9 @@
       <c r="B38" s="2"/>
       <c r="C38" s="3"/>
       <c r="D38" s="4"/>
-      <c r="E38" s="5"/>
+      <c r="E38" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="F38" s="4"/>
       <c r="G38" s="3"/>
       <c r="H38" s="2"/>
@@ -3652,17 +3649,17 @@
         <v>117</v>
       </c>
       <c r="B118" s="2"/>
-      <c r="C118" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D118" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E118" s="7"/>
-      <c r="F118" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G118" s="7" t="s">
+      <c r="C118" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E118" s="5"/>
+      <c r="F118" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G118" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H118" s="2"/>
@@ -4235,8 +4232,8 @@
   <sheetPr/>
   <dimension ref="A1:H166"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E162" sqref="E162"/>
+    <sheetView zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.90833333333333" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -4396,7 +4393,7 @@
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="5"/>
+      <c r="G12" s="3"/>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
@@ -4408,7 +4405,7 @@
       <c r="D13" s="4"/>
       <c r="E13" s="5"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="5"/>
+      <c r="G13" s="3"/>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8">
@@ -4420,7 +4417,7 @@
       <c r="D14" s="4"/>
       <c r="E14" s="5"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="5"/>
+      <c r="G14" s="3"/>
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
@@ -4432,7 +4429,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="5"/>
+      <c r="G15" s="3"/>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8">
@@ -4444,7 +4441,7 @@
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="5"/>
+      <c r="G16" s="3"/>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
@@ -4452,13 +4449,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="2"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7" t="s">
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="3"/>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
@@ -4526,7 +4523,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="5"/>
+      <c r="C23" s="3"/>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
       <c r="F23" s="4"/>
@@ -4538,7 +4535,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="5"/>
+      <c r="C24" s="3"/>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
       <c r="F24" s="4"/>
@@ -4550,7 +4547,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2"/>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D25" s="4"/>
@@ -4566,7 +4563,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="5"/>
+      <c r="C26" s="3"/>
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
       <c r="F26" s="4"/>
@@ -4578,7 +4575,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2"/>
-      <c r="C27" s="5"/>
+      <c r="C27" s="3"/>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
       <c r="F27" s="4"/>
@@ -5778,11 +5775,11 @@
         <v>117</v>
       </c>
       <c r="B118" s="2"/>
-      <c r="C118" s="7"/>
-      <c r="D118" s="7"/>
-      <c r="E118" s="7"/>
-      <c r="F118" s="7"/>
-      <c r="G118" s="7"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="4"/>
+      <c r="G118" s="3"/>
       <c r="H118" s="2"/>
     </row>
     <row r="119" spans="1:8">

--- a/TankRunner/Assets/Resources/LD.xlsx
+++ b/TankRunner/Assets/Resources/LD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540" tabRatio="475"/>
+    <workbookView windowWidth="12795" windowHeight="12390" tabRatio="475" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="lv1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="12">
   <si>
     <t>row</t>
   </si>
@@ -42,16 +42,16 @@
     <t>SideRight</t>
   </si>
   <si>
+    <t>G</t>
+  </si>
+  <si>
     <t>T</t>
   </si>
   <si>
-    <t>G</t>
+    <t>H</t>
   </si>
   <si>
     <t>R</t>
-  </si>
-  <si>
-    <t>H</t>
   </si>
 </sst>
 </file>
@@ -1055,8 +1055,8 @@
   <sheetPr/>
   <dimension ref="A1:H166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="H144" sqref="H144"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.90833333333333" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1172,20 +1172,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:5">
       <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="3" t="s">
+      <c r="E17" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1194,7 +1185,7 @@
         <v>17</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1202,7 +1193,7 @@
         <v>18</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1210,7 +1201,7 @@
         <v>19</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1218,74 +1209,56 @@
         <v>20</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
       <c r="A22" s="6">
         <v>21</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+    </row>
+    <row r="23" spans="1:1">
       <c r="A23" s="6">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="6">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="E24" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
       <c r="A25" s="6">
         <v>24</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+    </row>
+    <row r="26" spans="1:1">
       <c r="A26" s="6">
         <v>25</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+    </row>
+    <row r="27" spans="1:1">
       <c r="A27" s="6">
         <v>26</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="6">
         <v>27</v>
       </c>
-      <c r="H28" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="G28" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="6">
         <v>28</v>
       </c>
-      <c r="H29" s="2" t="s">
-        <v>10</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1293,99 +1266,99 @@
         <v>29</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="6">
         <v>30</v>
       </c>
-      <c r="F31" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="G31" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="6">
         <v>31</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="G32" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
       <c r="A33" s="6">
         <v>32</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+    </row>
+    <row r="34" spans="1:1">
       <c r="A34" s="6">
         <v>33</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="6">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="G35" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
       <c r="A36" s="6">
         <v>35</v>
       </c>
-      <c r="G36" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+    </row>
+    <row r="37" spans="1:1">
       <c r="A37" s="6">
         <v>36</v>
       </c>
-      <c r="F37" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+    </row>
+    <row r="38" spans="1:1">
       <c r="A38" s="6">
         <v>37</v>
       </c>
-      <c r="E38" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="6">
         <v>38</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="E39" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="6">
         <v>39</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
+      <c r="E40" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="6">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
+      <c r="E41" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="6">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
+      <c r="E42" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="6">
         <v>42</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:1">
@@ -1393,67 +1366,67 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:5">
       <c r="A45" s="6">
         <v>44</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="E45" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
       <c r="A46" s="6">
         <v>45</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+    </row>
+    <row r="47" spans="1:1">
       <c r="A47" s="6">
         <v>46</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+    </row>
+    <row r="48" spans="1:1">
       <c r="A48" s="6">
         <v>47</v>
       </c>
-      <c r="E48" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" s="6">
         <v>48</v>
       </c>
-      <c r="E49" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="C49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="6">
         <v>49</v>
       </c>
-      <c r="E50" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="C50" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" s="6">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="C51" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" s="6">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="C52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" s="6">
         <v>52</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:1">
@@ -1461,119 +1434,86 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:3">
       <c r="A55" s="6">
         <v>54</v>
       </c>
-      <c r="E55" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="C55" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="6">
         <v>55</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="D56" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" s="6">
         <v>56</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="E57" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
       <c r="A58" s="6">
         <v>57</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" s="6">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
+      <c r="C59" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" s="6">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="E60" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" s="6">
         <v>60</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="E61" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" s="6">
         <v>61</v>
       </c>
-      <c r="C62" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="E62" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" s="6">
         <v>62</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="E63" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
       <c r="A64" s="6">
         <v>63</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+    </row>
+    <row r="65" spans="1:1">
       <c r="A65" s="6">
         <v>64</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:1">
@@ -1591,12 +1531,18 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:6">
       <c r="A69" s="6">
         <v>68</v>
       </c>
+      <c r="D69" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="E69" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:1">
@@ -1604,30 +1550,42 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:1">
       <c r="A71" s="6">
         <v>70</v>
       </c>
-      <c r="C71" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="6">
         <v>71</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="6">
         <v>72</v>
       </c>
+      <c r="C73" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="G73" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:7">
       <c r="A74" s="6">
         <v>73</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:1">
@@ -1640,17 +1598,20 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:1">
       <c r="A77" s="6">
         <v>76</v>
       </c>
-      <c r="E77" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="6">
         <v>77</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:1">
@@ -1663,40 +1624,79 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:1">
       <c r="A81" s="6">
         <v>80</v>
       </c>
-      <c r="C81" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="6">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:1">
+      <c r="C82" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="6">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:1">
+      <c r="C83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="6">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:3">
+      <c r="C84" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="6">
         <v>84</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
+        <v>8</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="6">
         <v>85</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:1">
@@ -1704,36 +1704,30 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:1">
       <c r="A88" s="6">
         <v>87</v>
       </c>
-      <c r="F88" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+    </row>
+    <row r="89" spans="1:1">
       <c r="A89" s="6">
         <v>88</v>
       </c>
-      <c r="E89" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90" s="6">
         <v>89</v>
       </c>
-      <c r="E90" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+      <c r="C90" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="6">
         <v>90</v>
       </c>
-      <c r="E91" s="5" t="s">
-        <v>9</v>
+      <c r="D91" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -1741,91 +1735,103 @@
         <v>91</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="6">
         <v>92</v>
       </c>
-      <c r="E93" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
+      <c r="F93" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="6">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:4">
+      <c r="G94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="6">
         <v>94</v>
       </c>
-      <c r="D95" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+      <c r="G95" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="6">
         <v>95</v>
       </c>
-      <c r="C96" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="G96" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="6">
         <v>96</v>
       </c>
-      <c r="C97" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+      <c r="G97" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="6">
         <v>97</v>
       </c>
-      <c r="C98" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+      <c r="G98" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
       <c r="A99" s="6">
         <v>98</v>
       </c>
-      <c r="C99" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="6">
         <v>99</v>
       </c>
-      <c r="C100" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1">
+      <c r="G100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="6">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:1">
+      <c r="F101" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
       <c r="A102" s="6">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:6">
+      <c r="E102" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="6">
         <v>102</v>
       </c>
-      <c r="F103" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1">
+      <c r="D103" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="6">
         <v>103</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:1">
@@ -1833,12 +1839,9 @@
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:1">
       <c r="A106" s="6">
         <v>105</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="107" spans="1:1">
@@ -1846,12 +1849,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:3">
       <c r="A108" s="6">
         <v>107</v>
       </c>
-      <c r="G108" s="3" t="s">
-        <v>8</v>
+      <c r="C108" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="109" spans="1:1">
@@ -1874,36 +1877,84 @@
         <v>111</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
       <c r="A113" s="6">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:1">
+      <c r="C113" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114" s="6">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:1">
+      <c r="C114" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115" s="6">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:1">
+      <c r="C115" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
       <c r="A116" s="6">
         <v>115</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="117" spans="1:1">
@@ -1911,169 +1962,119 @@
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:1">
       <c r="A118" s="6">
         <v>117</v>
       </c>
-      <c r="C118" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D118" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F118" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G118" s="3" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="124" spans="3:7">
       <c r="C124" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="125" spans="3:7">
       <c r="C125" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="126" spans="3:7">
       <c r="C126" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="127" spans="3:7">
       <c r="C127" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="128" spans="3:7">
       <c r="C128" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="136" spans="3:3">
-      <c r="C136" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="137" spans="3:3">
-      <c r="C137" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="138" spans="3:3">
-      <c r="C138" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="143" spans="6:6">
-      <c r="F143" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="144" spans="5:5">
-      <c r="E144" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="145" spans="4:4">
-      <c r="D145" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="155" spans="3:7">
-      <c r="C155" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G155" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="162" spans="3:7">
       <c r="C162" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="163" spans="3:7">
       <c r="C163" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="164" spans="3:7">
       <c r="C164" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="165" spans="3:7">
       <c r="C165" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="166" spans="3:7">
       <c r="C166" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2089,7 +2090,7 @@
   <dimension ref="A1:H166"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="G118" sqref="G118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.90833333333333" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2249,9 +2250,7 @@
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="G12" s="3"/>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
@@ -2263,9 +2262,7 @@
       <c r="D13" s="4"/>
       <c r="E13" s="5"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="G13" s="3"/>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8">
@@ -2277,9 +2274,7 @@
       <c r="D14" s="4"/>
       <c r="E14" s="5"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="G14" s="3"/>
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
@@ -2291,9 +2286,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="G15" s="3"/>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8">
@@ -2305,9 +2298,7 @@
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="G16" s="3"/>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
@@ -2330,7 +2321,7 @@
       <c r="C18" s="3"/>
       <c r="D18" s="4"/>
       <c r="E18" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="3"/>
@@ -2344,7 +2335,7 @@
       <c r="C19" s="3"/>
       <c r="D19" s="4"/>
       <c r="E19" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="3"/>
@@ -2358,7 +2349,7 @@
       <c r="C20" s="3"/>
       <c r="D20" s="4"/>
       <c r="E20" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="3"/>
@@ -2372,7 +2363,7 @@
       <c r="C21" s="3"/>
       <c r="D21" s="4"/>
       <c r="E21" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="3"/>
@@ -2386,7 +2377,7 @@
       <c r="C22" s="3"/>
       <c r="D22" s="4"/>
       <c r="E22" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="3"/>
@@ -2396,19 +2387,15 @@
       <c r="A23" s="6">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B23" s="2"/>
       <c r="C23" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
       <c r="F23" s="4"/>
       <c r="G23" s="3"/>
-      <c r="H23" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="6">
@@ -2416,7 +2403,7 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
@@ -2430,13 +2417,13 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
       <c r="F25" s="4"/>
       <c r="G25" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H25" s="2"/>
     </row>
@@ -2446,13 +2433,13 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
       <c r="F26" s="4"/>
       <c r="G26" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H26" s="2"/>
     </row>
@@ -2462,13 +2449,13 @@
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
       <c r="F27" s="4"/>
       <c r="G27" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H27" s="2"/>
     </row>
@@ -2482,9 +2469,7 @@
       <c r="E28" s="5"/>
       <c r="F28" s="4"/>
       <c r="G28" s="3"/>
-      <c r="H28" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="H28" s="2"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="6">
@@ -2496,9 +2481,7 @@
       <c r="E29" s="5"/>
       <c r="F29" s="4"/>
       <c r="G29" s="3"/>
-      <c r="H29" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="H29" s="2"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="6">
@@ -2517,9 +2500,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="C31" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="C31" s="3"/>
       <c r="D31" s="4"/>
       <c r="E31" s="5"/>
       <c r="F31" s="4"/>
@@ -2581,7 +2562,9 @@
       <c r="B36" s="2"/>
       <c r="C36" s="3"/>
       <c r="D36" s="4"/>
-      <c r="E36" s="5"/>
+      <c r="E36" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="F36" s="4"/>
       <c r="G36" s="3"/>
       <c r="H36" s="2"/>
@@ -2605,9 +2588,7 @@
       <c r="B38" s="2"/>
       <c r="C38" s="3"/>
       <c r="D38" s="4"/>
-      <c r="E38" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="E38" s="5"/>
       <c r="F38" s="4"/>
       <c r="G38" s="3"/>
       <c r="H38" s="2"/>
@@ -2678,7 +2659,7 @@
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="5"/>
@@ -2692,7 +2673,7 @@
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="5"/>
@@ -2706,7 +2687,7 @@
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="5"/>
@@ -2734,7 +2715,7 @@
       <c r="C48" s="3"/>
       <c r="D48" s="4"/>
       <c r="E48" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="3"/>
@@ -2748,7 +2729,7 @@
       <c r="C49" s="3"/>
       <c r="D49" s="4"/>
       <c r="E49" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="3"/>
@@ -2762,7 +2743,7 @@
       <c r="C50" s="3"/>
       <c r="D50" s="4"/>
       <c r="E50" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="3"/>
@@ -2775,7 +2756,9 @@
       <c r="B51" s="2"/>
       <c r="C51" s="3"/>
       <c r="D51" s="4"/>
-      <c r="E51" s="5"/>
+      <c r="E51" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F51" s="4"/>
       <c r="G51" s="3"/>
       <c r="H51" s="2"/>
@@ -2787,7 +2770,9 @@
       <c r="B52" s="2"/>
       <c r="C52" s="3"/>
       <c r="D52" s="4"/>
-      <c r="E52" s="5"/>
+      <c r="E52" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F52" s="4"/>
       <c r="G52" s="3"/>
       <c r="H52" s="2"/>
@@ -2826,7 +2811,7 @@
       <c r="E55" s="5"/>
       <c r="F55" s="4"/>
       <c r="G55" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H55" s="2"/>
     </row>
@@ -2839,7 +2824,9 @@
       <c r="D56" s="4"/>
       <c r="E56" s="5"/>
       <c r="F56" s="4"/>
-      <c r="G56" s="3"/>
+      <c r="G56" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="H56" s="2"/>
     </row>
     <row r="57" spans="1:8">
@@ -2851,7 +2838,9 @@
       <c r="D57" s="4"/>
       <c r="E57" s="5"/>
       <c r="F57" s="4"/>
-      <c r="G57" s="3"/>
+      <c r="G57" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="H57" s="2"/>
     </row>
     <row r="58" spans="1:8">
@@ -2863,7 +2852,9 @@
       <c r="D58" s="4"/>
       <c r="E58" s="5"/>
       <c r="F58" s="4"/>
-      <c r="G58" s="3"/>
+      <c r="G58" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="H58" s="2"/>
     </row>
     <row r="59" spans="1:8">
@@ -2875,7 +2866,9 @@
       <c r="D59" s="4"/>
       <c r="E59" s="5"/>
       <c r="F59" s="4"/>
-      <c r="G59" s="3"/>
+      <c r="G59" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="H59" s="2"/>
     </row>
     <row r="60" spans="1:8">
@@ -2886,7 +2879,7 @@
       <c r="C60" s="3"/>
       <c r="D60" s="4"/>
       <c r="E60" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="3"/>
@@ -2996,7 +2989,7 @@
       <c r="C69" s="3"/>
       <c r="D69" s="4"/>
       <c r="E69" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F69" s="4"/>
       <c r="G69" s="3"/>
@@ -3020,7 +3013,7 @@
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="5"/>
@@ -3050,7 +3043,7 @@
       <c r="E73" s="5"/>
       <c r="F73" s="4"/>
       <c r="G73" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H73" s="2"/>
     </row>
@@ -3084,15 +3077,15 @@
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D76" s="4"/>
       <c r="E76" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F76" s="4"/>
       <c r="G76" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H76" s="2"/>
     </row>
@@ -3102,15 +3095,15 @@
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F77" s="4"/>
       <c r="G77" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H77" s="2"/>
     </row>
@@ -3120,15 +3113,15 @@
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D78" s="4"/>
       <c r="E78" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F78" s="4"/>
       <c r="G78" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H78" s="2"/>
     </row>
@@ -3138,15 +3131,15 @@
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D79" s="4"/>
       <c r="E79" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F79" s="4"/>
       <c r="G79" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H79" s="2"/>
     </row>
@@ -3156,15 +3149,15 @@
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F80" s="4"/>
       <c r="G80" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H80" s="2"/>
     </row>
@@ -3222,7 +3215,7 @@
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="5"/>
@@ -3262,7 +3255,7 @@
       <c r="C88" s="3"/>
       <c r="D88" s="4"/>
       <c r="E88" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F88" s="4"/>
       <c r="G88" s="3"/>
@@ -3338,7 +3331,7 @@
       <c r="E94" s="5"/>
       <c r="F94" s="4"/>
       <c r="G94" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H94" s="2"/>
     </row>
@@ -3351,7 +3344,7 @@
       <c r="D95" s="4"/>
       <c r="E95" s="5"/>
       <c r="F95" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G95" s="3"/>
       <c r="H95" s="2"/>
@@ -3364,7 +3357,7 @@
       <c r="C96" s="3"/>
       <c r="D96" s="4"/>
       <c r="E96" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F96" s="4"/>
       <c r="G96" s="3"/>
@@ -3377,7 +3370,7 @@
       <c r="B97" s="2"/>
       <c r="C97" s="3"/>
       <c r="D97" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E97" s="5"/>
       <c r="F97" s="4"/>
@@ -3390,7 +3383,7 @@
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="5"/>
@@ -3404,7 +3397,7 @@
       </c>
       <c r="B99" s="2"/>
       <c r="C99" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="5"/>
@@ -3418,7 +3411,7 @@
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="5"/>
@@ -3459,7 +3452,7 @@
       <c r="D103" s="4"/>
       <c r="E103" s="5"/>
       <c r="F103" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G103" s="3"/>
       <c r="H103" s="2"/>
@@ -3494,7 +3487,7 @@
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" s="4"/>
       <c r="E106" s="5"/>
@@ -3524,7 +3517,7 @@
       <c r="E108" s="5"/>
       <c r="F108" s="4"/>
       <c r="G108" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H108" s="2"/>
     </row>
@@ -3570,17 +3563,17 @@
       </c>
       <c r="B112" s="2"/>
       <c r="C112" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E112" s="5"/>
       <c r="F112" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H112" s="2"/>
     </row>
@@ -3650,17 +3643,17 @@
       </c>
       <c r="B118" s="2"/>
       <c r="C118" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E118" s="5"/>
       <c r="F118" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H118" s="2"/>
     </row>
@@ -3718,15 +3711,15 @@
       <c r="A124" s="6"/>
       <c r="B124" s="2"/>
       <c r="C124" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D124" s="4"/>
       <c r="E124" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F124" s="4"/>
       <c r="G124" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H124" s="2"/>
     </row>
@@ -3734,15 +3727,15 @@
       <c r="A125" s="6"/>
       <c r="B125" s="2"/>
       <c r="C125" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D125" s="4"/>
       <c r="E125" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F125" s="4"/>
       <c r="G125" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H125" s="2"/>
     </row>
@@ -3750,15 +3743,15 @@
       <c r="A126" s="6"/>
       <c r="B126" s="2"/>
       <c r="C126" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D126" s="4"/>
       <c r="E126" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F126" s="4"/>
       <c r="G126" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H126" s="2"/>
     </row>
@@ -3766,15 +3759,15 @@
       <c r="A127" s="6"/>
       <c r="B127" s="2"/>
       <c r="C127" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D127" s="4"/>
       <c r="E127" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F127" s="4"/>
       <c r="G127" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H127" s="2"/>
     </row>
@@ -3782,15 +3775,15 @@
       <c r="A128" s="6"/>
       <c r="B128" s="2"/>
       <c r="C128" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D128" s="4"/>
       <c r="E128" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F128" s="4"/>
       <c r="G128" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H128" s="2"/>
     </row>
@@ -3868,7 +3861,7 @@
       <c r="A136" s="6"/>
       <c r="B136" s="2"/>
       <c r="C136" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" s="4"/>
       <c r="E136" s="5"/>
@@ -3880,7 +3873,7 @@
       <c r="A137" s="6"/>
       <c r="B137" s="2"/>
       <c r="C137" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" s="4"/>
       <c r="E137" s="5"/>
@@ -3892,7 +3885,7 @@
       <c r="A138" s="6"/>
       <c r="B138" s="2"/>
       <c r="C138" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" s="4"/>
       <c r="E138" s="5"/>
@@ -3947,7 +3940,7 @@
       <c r="D143" s="4"/>
       <c r="E143" s="5"/>
       <c r="F143" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G143" s="3"/>
       <c r="H143" s="2"/>
@@ -3958,7 +3951,7 @@
       <c r="C144" s="3"/>
       <c r="D144" s="4"/>
       <c r="E144" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F144" s="4"/>
       <c r="G144" s="3"/>
@@ -3969,7 +3962,7 @@
       <c r="B145" s="2"/>
       <c r="C145" s="3"/>
       <c r="D145" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E145" s="5"/>
       <c r="F145" s="4"/>
@@ -4070,13 +4063,13 @@
       <c r="A155" s="6"/>
       <c r="B155" s="2"/>
       <c r="C155" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D155" s="4"/>
       <c r="E155" s="5"/>
       <c r="F155" s="4"/>
       <c r="G155" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H155" s="2"/>
     </row>
@@ -4144,15 +4137,15 @@
       <c r="A162" s="6"/>
       <c r="B162" s="2"/>
       <c r="C162" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D162" s="4"/>
       <c r="E162" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F162" s="4"/>
       <c r="G162" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H162" s="2"/>
     </row>
@@ -4160,15 +4153,15 @@
       <c r="A163" s="6"/>
       <c r="B163" s="2"/>
       <c r="C163" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D163" s="4"/>
       <c r="E163" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F163" s="4"/>
       <c r="G163" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H163" s="2"/>
     </row>
@@ -4176,15 +4169,15 @@
       <c r="A164" s="6"/>
       <c r="B164" s="2"/>
       <c r="C164" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D164" s="4"/>
       <c r="E164" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F164" s="4"/>
       <c r="G164" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H164" s="2"/>
     </row>
@@ -4192,15 +4185,15 @@
       <c r="A165" s="6"/>
       <c r="B165" s="2"/>
       <c r="C165" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D165" s="4"/>
       <c r="E165" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F165" s="4"/>
       <c r="G165" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H165" s="2"/>
     </row>
@@ -4208,15 +4201,15 @@
       <c r="A166" s="6"/>
       <c r="B166" s="2"/>
       <c r="C166" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D166" s="4"/>
       <c r="E166" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F166" s="4"/>
       <c r="G166" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H166" s="2"/>
     </row>
@@ -4232,8 +4225,8 @@
   <sheetPr/>
   <dimension ref="A1:H166"/>
   <sheetViews>
-    <sheetView zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.90833333333333" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -4452,7 +4445,7 @@
       <c r="C17" s="3"/>
       <c r="D17" s="4"/>
       <c r="E17" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="3"/>
@@ -4548,13 +4541,13 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
       <c r="F25" s="4"/>
       <c r="G25" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H25" s="2"/>
     </row>
@@ -4590,12 +4583,12 @@
       <c r="C28" s="3"/>
       <c r="D28" s="4"/>
       <c r="E28" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="3"/>
       <c r="H28" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -4606,13 +4599,11 @@
       <c r="C29" s="3"/>
       <c r="D29" s="4"/>
       <c r="E29" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="3"/>
-      <c r="H29" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="H29" s="2"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="6">
@@ -4622,7 +4613,7 @@
       <c r="C30" s="3"/>
       <c r="D30" s="4"/>
       <c r="E30" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="3"/>
@@ -4636,7 +4627,7 @@
       <c r="C31" s="3"/>
       <c r="D31" s="4"/>
       <c r="E31" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="3"/>
@@ -4650,7 +4641,7 @@
       <c r="C32" s="3"/>
       <c r="D32" s="4"/>
       <c r="E32" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="3"/>
@@ -4699,13 +4690,13 @@
       <c r="B36" s="2"/>
       <c r="C36" s="3"/>
       <c r="D36" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="2"/>
@@ -4800,7 +4791,7 @@
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="5"/>
@@ -4814,7 +4805,7 @@
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="5"/>
@@ -4828,7 +4819,7 @@
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="5"/>
@@ -4856,7 +4847,7 @@
       <c r="C48" s="3"/>
       <c r="D48" s="4"/>
       <c r="E48" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="3"/>
@@ -4870,7 +4861,7 @@
       <c r="C49" s="3"/>
       <c r="D49" s="4"/>
       <c r="E49" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="3"/>
@@ -4884,7 +4875,7 @@
       <c r="C50" s="3"/>
       <c r="D50" s="4"/>
       <c r="E50" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="3"/>
@@ -4922,7 +4913,7 @@
       <c r="C53" s="3"/>
       <c r="D53" s="4"/>
       <c r="E53" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="3"/>
@@ -4950,7 +4941,7 @@
       <c r="E55" s="5"/>
       <c r="F55" s="4"/>
       <c r="G55" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H55" s="2"/>
     </row>
@@ -5010,7 +5001,7 @@
       <c r="C60" s="3"/>
       <c r="D60" s="4"/>
       <c r="E60" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="3"/>
@@ -5118,13 +5109,13 @@
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="5"/>
       <c r="F69" s="4"/>
       <c r="G69" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H69" s="2"/>
     </row>
@@ -5134,13 +5125,13 @@
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="5"/>
       <c r="F70" s="4"/>
       <c r="G70" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H70" s="2"/>
     </row>
@@ -5150,13 +5141,13 @@
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="5"/>
       <c r="F71" s="4"/>
       <c r="G71" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H71" s="2"/>
     </row>
@@ -5170,7 +5161,7 @@
       <c r="E72" s="5"/>
       <c r="F72" s="4"/>
       <c r="G72" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H72" s="2"/>
     </row>
@@ -5184,7 +5175,7 @@
       <c r="E73" s="5"/>
       <c r="F73" s="4"/>
       <c r="G73" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H73" s="2"/>
     </row>
@@ -5218,15 +5209,15 @@
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D76" s="4"/>
       <c r="E76" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F76" s="4"/>
       <c r="G76" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H76" s="2"/>
     </row>
@@ -5236,15 +5227,15 @@
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F77" s="4"/>
       <c r="G77" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H77" s="2"/>
     </row>
@@ -5254,15 +5245,15 @@
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D78" s="4"/>
       <c r="E78" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F78" s="4"/>
       <c r="G78" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H78" s="2"/>
     </row>
@@ -5272,15 +5263,15 @@
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D79" s="4"/>
       <c r="E79" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F79" s="4"/>
       <c r="G79" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H79" s="2"/>
     </row>
@@ -5288,17 +5279,19 @@
       <c r="A80" s="6">
         <v>79</v>
       </c>
-      <c r="B80" s="2"/>
+      <c r="B80" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C80" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F80" s="4"/>
       <c r="G80" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H80" s="2"/>
     </row>
@@ -5356,7 +5349,7 @@
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="5"/>
@@ -5371,7 +5364,7 @@
       <c r="B86" s="2"/>
       <c r="C86" s="3"/>
       <c r="D86" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E86" s="5"/>
       <c r="F86" s="4"/>
@@ -5386,7 +5379,7 @@
       <c r="C87" s="3"/>
       <c r="D87" s="4"/>
       <c r="E87" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F87" s="4"/>
       <c r="G87" s="3"/>
@@ -5474,7 +5467,7 @@
       <c r="E94" s="5"/>
       <c r="F94" s="4"/>
       <c r="G94" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H94" s="2"/>
     </row>
@@ -5487,7 +5480,7 @@
       <c r="D95" s="4"/>
       <c r="E95" s="5"/>
       <c r="F95" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G95" s="3"/>
       <c r="H95" s="2"/>
@@ -5500,7 +5493,7 @@
       <c r="C96" s="3"/>
       <c r="D96" s="4"/>
       <c r="E96" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F96" s="4"/>
       <c r="G96" s="3"/>
@@ -5513,7 +5506,7 @@
       <c r="B97" s="2"/>
       <c r="C97" s="3"/>
       <c r="D97" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E97" s="5"/>
       <c r="F97" s="4"/>
@@ -5526,7 +5519,7 @@
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="5"/>
@@ -5591,7 +5584,7 @@
       <c r="D103" s="4"/>
       <c r="E103" s="5"/>
       <c r="F103" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G103" s="3"/>
       <c r="H103" s="2"/>
@@ -5626,7 +5619,7 @@
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" s="4"/>
       <c r="E106" s="5"/>
@@ -5656,7 +5649,9 @@
       <c r="E108" s="5"/>
       <c r="F108" s="4"/>
       <c r="G108" s="3"/>
-      <c r="H108" s="2"/>
+      <c r="H108" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="6">
@@ -5700,7 +5695,7 @@
       </c>
       <c r="B112" s="2"/>
       <c r="C112" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D112" s="4"/>
       <c r="E112" s="5"/>
@@ -5740,7 +5735,7 @@
       <c r="C115" s="3"/>
       <c r="D115" s="4"/>
       <c r="E115" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F115" s="4"/>
       <c r="G115" s="3"/>
@@ -5836,15 +5831,15 @@
       <c r="A124" s="6"/>
       <c r="B124" s="2"/>
       <c r="C124" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D124" s="4"/>
       <c r="E124" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F124" s="4"/>
       <c r="G124" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H124" s="2"/>
     </row>
@@ -5852,15 +5847,15 @@
       <c r="A125" s="6"/>
       <c r="B125" s="2"/>
       <c r="C125" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D125" s="4"/>
       <c r="E125" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F125" s="4"/>
       <c r="G125" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H125" s="2"/>
     </row>
@@ -5868,15 +5863,15 @@
       <c r="A126" s="6"/>
       <c r="B126" s="2"/>
       <c r="C126" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D126" s="4"/>
       <c r="E126" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F126" s="4"/>
       <c r="G126" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H126" s="2"/>
     </row>
@@ -5884,15 +5879,15 @@
       <c r="A127" s="6"/>
       <c r="B127" s="2"/>
       <c r="C127" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D127" s="4"/>
       <c r="E127" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F127" s="4"/>
       <c r="G127" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H127" s="2"/>
     </row>
@@ -5900,15 +5895,15 @@
       <c r="A128" s="6"/>
       <c r="B128" s="2"/>
       <c r="C128" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D128" s="4"/>
       <c r="E128" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F128" s="4"/>
       <c r="G128" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H128" s="2"/>
     </row>
@@ -5976,17 +5971,17 @@
       <c r="A135" s="6"/>
       <c r="B135" s="2"/>
       <c r="C135" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E135" s="5"/>
       <c r="F135" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H135" s="2"/>
     </row>
@@ -6064,19 +6059,19 @@
       <c r="A143" s="6"/>
       <c r="B143" s="2"/>
       <c r="C143" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H143" s="2"/>
     </row>
@@ -6194,19 +6189,19 @@
       <c r="A155" s="6"/>
       <c r="B155" s="2"/>
       <c r="C155" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H155" s="2"/>
     </row>
@@ -6274,15 +6269,15 @@
       <c r="A162" s="6"/>
       <c r="B162" s="2"/>
       <c r="C162" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D162" s="4"/>
       <c r="E162" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F162" s="4"/>
       <c r="G162" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H162" s="2"/>
     </row>
@@ -6290,15 +6285,15 @@
       <c r="A163" s="6"/>
       <c r="B163" s="2"/>
       <c r="C163" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D163" s="4"/>
       <c r="E163" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F163" s="4"/>
       <c r="G163" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H163" s="2"/>
     </row>
@@ -6306,15 +6301,15 @@
       <c r="A164" s="6"/>
       <c r="B164" s="2"/>
       <c r="C164" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D164" s="4"/>
       <c r="E164" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F164" s="4"/>
       <c r="G164" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H164" s="2"/>
     </row>
@@ -6322,15 +6317,15 @@
       <c r="A165" s="6"/>
       <c r="B165" s="2"/>
       <c r="C165" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D165" s="4"/>
       <c r="E165" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F165" s="4"/>
       <c r="G165" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H165" s="2"/>
     </row>
@@ -6338,15 +6333,15 @@
       <c r="A166" s="6"/>
       <c r="B166" s="2"/>
       <c r="C166" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D166" s="4"/>
       <c r="E166" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F166" s="4"/>
       <c r="G166" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H166" s="2"/>
     </row>

--- a/TankRunner/Assets/Resources/LD.xlsx
+++ b/TankRunner/Assets/Resources/LD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12795" windowHeight="12390" tabRatio="475" activeTab="2"/>
+    <workbookView windowWidth="8955" windowHeight="12660" tabRatio="475"/>
   </bookViews>
   <sheets>
     <sheet name="lv1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="12">
   <si>
     <t>row</t>
   </si>
@@ -1055,8 +1055,8 @@
   <sheetPr/>
   <dimension ref="A1:H166"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H166"/>
+    <sheetView tabSelected="1" topLeftCell="B139" workbookViewId="0">
+      <selection activeCell="E147" sqref="E147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.90833333333333" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1142,9 +1142,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:5">
       <c r="A11" s="6">
         <v>10</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -1162,9 +1165,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:5">
       <c r="A15" s="6">
         <v>14</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:1">
@@ -1172,12 +1178,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:1">
       <c r="A17" s="6">
         <v>16</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1188,12 +1191,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:1">
       <c r="A19" s="6">
         <v>18</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1204,12 +1204,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:1">
       <c r="A21" s="6">
         <v>20</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -1222,17 +1219,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:1">
       <c r="A24" s="6">
         <v>23</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="6">
         <v>24</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:1">
@@ -1253,12 +1250,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:1">
       <c r="A29" s="6">
         <v>28</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1269,12 +1263,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:1">
       <c r="A31" s="6">
         <v>30</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1290,17 +1281,17 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:7">
       <c r="A34" s="6">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="G34" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
       <c r="A35" s="6">
         <v>34</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -1308,9 +1299,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:5">
       <c r="A37" s="6">
         <v>36</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -1318,31 +1312,25 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:1">
       <c r="A39" s="6">
         <v>38</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="6">
         <v>39</v>
       </c>
+      <c r="C40" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="E40" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:1">
       <c r="A41" s="6">
         <v>40</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1353,24 +1341,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:1">
       <c r="A43" s="6">
         <v>42</v>
       </c>
-      <c r="E43" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="6">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="G44" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" s="6">
         <v>44</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="C45" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1384,17 +1372,17 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:3">
       <c r="A48" s="6">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="C48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
       <c r="A49" s="6">
         <v>48</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1405,27 +1393,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:1">
       <c r="A51" s="6">
         <v>50</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="6">
         <v>51</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="6">
         <v>52</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="E53" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1434,120 +1419,129 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:1">
       <c r="A55" s="6">
         <v>54</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" s="6">
         <v>55</v>
       </c>
-      <c r="D56" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="C56" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
       <c r="A57" s="6">
         <v>56</v>
       </c>
-      <c r="E57" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" s="6">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="E58" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
       <c r="A59" s="6">
         <v>58</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+    </row>
+    <row r="60" spans="1:1">
       <c r="A60" s="6">
         <v>59</v>
       </c>
-      <c r="E60" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+    </row>
+    <row r="61" spans="1:1">
       <c r="A61" s="6">
         <v>60</v>
       </c>
-      <c r="E61" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="6">
         <v>61</v>
       </c>
-      <c r="E62" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="C62" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
       <c r="A63" s="6">
         <v>62</v>
       </c>
-      <c r="E63" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="6">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
+      <c r="D64" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" s="6">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
+      <c r="E65" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" s="6">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
+      <c r="E66" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="6">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1">
+      <c r="D67" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" s="6">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:6">
+      <c r="E68" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" s="6">
         <v>68</v>
       </c>
-      <c r="D69" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="E69" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" s="6">
         <v>69</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:1">
@@ -1555,37 +1549,22 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:1">
       <c r="A72" s="6">
         <v>71</v>
       </c>
-      <c r="C72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+    </row>
+    <row r="73" spans="1:1">
       <c r="A73" s="6">
         <v>72</v>
       </c>
-      <c r="C73" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" s="6">
         <v>73</v>
       </c>
-      <c r="C74" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>8</v>
+      <c r="E74" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:1">
@@ -1598,47 +1577,50 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:3">
       <c r="A77" s="6">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:7">
+      <c r="C77" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="6">
         <v>77</v>
       </c>
-      <c r="C78" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
+      <c r="D78" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79" s="6">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:1">
+      <c r="E79" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="6">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1">
+      <c r="F80" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="6">
         <v>80</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="6">
         <v>81</v>
       </c>
-      <c r="C82" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="G82" s="3" t="s">
         <v>8</v>
       </c>
@@ -1648,10 +1630,7 @@
         <v>82</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>8</v>
@@ -1661,12 +1640,6 @@
       <c r="A84" s="6">
         <v>83</v>
       </c>
-      <c r="C84" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="G84" s="3" t="s">
         <v>8</v>
       </c>
@@ -1675,28 +1648,13 @@
       <c r="A85" s="6">
         <v>84</v>
       </c>
-      <c r="C85" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="G85" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:1">
       <c r="A86" s="6">
         <v>85</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G86" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:1">
@@ -1704,9 +1662,18 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:7">
       <c r="A88" s="6">
         <v>87</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:1">
@@ -1714,35 +1681,53 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:7">
       <c r="A90" s="6">
         <v>89</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
       <c r="A91" s="6">
         <v>90</v>
       </c>
-      <c r="D91" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="6">
         <v>91</v>
       </c>
+      <c r="C92" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="E92" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="93" spans="1:6">
+      <c r="F92" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93" s="6">
         <v>92</v>
       </c>
-      <c r="F93" s="4" t="s">
+      <c r="E93" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1750,39 +1735,63 @@
       <c r="A94" s="6">
         <v>93</v>
       </c>
+      <c r="C94" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="G94" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="6">
         <v>94</v>
       </c>
+      <c r="C95" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="G95" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
       <c r="A96" s="6">
         <v>95</v>
       </c>
-      <c r="G96" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="E96" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97" s="6">
         <v>96</v>
       </c>
-      <c r="G97" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="E97" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
       <c r="A98" s="6">
         <v>97</v>
       </c>
-      <c r="G98" s="3" t="s">
+      <c r="E98" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1791,118 +1800,123 @@
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:1">
       <c r="A100" s="6">
         <v>99</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
+    </row>
+    <row r="101" spans="1:1">
       <c r="A101" s="6">
         <v>100</v>
       </c>
-      <c r="F101" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="6">
         <v>101</v>
       </c>
-      <c r="E102" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="G102" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="6">
         <v>102</v>
       </c>
-      <c r="D103" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="F103" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
       <c r="A104" s="6">
         <v>103</v>
       </c>
-      <c r="C104" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G104" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1">
+      <c r="E104" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105" s="6">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:1">
+      <c r="D105" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E105" s="5"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
       <c r="A106" s="6">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:1">
+      <c r="C106" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107" s="6">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:3">
+      <c r="C107" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107" s="4"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
       <c r="A108" s="6">
         <v>107</v>
       </c>
-      <c r="C108" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1">
+      <c r="D108" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
       <c r="A109" s="6">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:1">
+      <c r="E109" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110" s="6">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:1">
+      <c r="F110" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111" s="6">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:7">
+      <c r="C111" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="4"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
       <c r="A112" s="6">
         <v>111</v>
       </c>
-      <c r="C112" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F112" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G112" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
+    </row>
+    <row r="113" spans="1:3">
       <c r="A113" s="6">
         <v>112</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F113" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G113" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1910,170 +1924,496 @@
       <c r="A114" s="6">
         <v>113</v>
       </c>
-      <c r="C114" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F114" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="G114" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
       <c r="A115" s="6">
         <v>114</v>
       </c>
-      <c r="C115" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="F115" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G115" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
       <c r="A116" s="6">
         <v>115</v>
       </c>
-      <c r="C116" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F116" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G116" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1">
+      <c r="E116" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
       <c r="A117" s="6">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:1">
+      <c r="D117" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118" s="6">
         <v>117</v>
       </c>
-    </row>
-    <row r="124" spans="3:7">
-      <c r="C124" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E124" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G124" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="125" spans="3:7">
-      <c r="C125" s="3" t="s">
-        <v>8</v>
+      <c r="C118" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D118" s="4"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="4"/>
+      <c r="G118" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="6">
+        <v>118</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="6">
+        <v>119</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F120" s="4"/>
+      <c r="G120" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="6">
+        <v>120</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="6">
+        <v>121</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="6">
+        <v>122</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="6">
+        <v>123</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="6">
+        <v>124</v>
       </c>
       <c r="E125" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G125" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="126" spans="3:7">
-      <c r="C126" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E126" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G126" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="127" spans="3:7">
-      <c r="C127" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E127" s="5" t="s">
-        <v>8</v>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="6">
+        <v>125</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="6">
+        <v>126</v>
       </c>
       <c r="G127" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="3:7">
-      <c r="C128" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E128" s="5" t="s">
-        <v>8</v>
+    <row r="128" spans="1:7">
+      <c r="A128" s="6">
+        <v>127</v>
       </c>
       <c r="G128" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="3:7">
-      <c r="C162" s="3" t="s">
-        <v>8</v>
+    <row r="129" spans="1:6">
+      <c r="A129" s="6">
+        <v>128</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="6">
+        <v>129</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="6">
+        <v>130</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="6">
+        <v>131</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="6">
+        <v>132</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="6">
+        <v>133</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="6">
+        <v>134</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="6">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="6">
+        <v>136</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="6">
+        <v>137</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="6">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="6">
+        <v>139</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="6">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="6">
+        <v>141</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G142" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="6">
+        <v>142</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G143" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="6">
+        <v>143</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G144" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="6">
+        <v>144</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E145" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G145" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="6">
+        <v>145</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G146" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="6">
+        <v>146</v>
+      </c>
+      <c r="E147" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="6">
+        <v>147</v>
+      </c>
+      <c r="E148" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="6">
+        <v>148</v>
+      </c>
+      <c r="E149" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="6">
+        <v>149</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="6">
+        <v>150</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="6">
+        <v>151</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="6">
+        <v>152</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="6">
+        <v>153</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="6">
+        <v>154</v>
+      </c>
+      <c r="E155" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="6">
+        <v>155</v>
+      </c>
+      <c r="F156" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="6">
+        <v>156</v>
+      </c>
+      <c r="G157" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="6">
+        <v>157</v>
+      </c>
+      <c r="G158" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="6">
+        <v>158</v>
+      </c>
+      <c r="G159" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" s="6">
+        <v>159</v>
+      </c>
+      <c r="F160" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="6">
+        <v>160</v>
+      </c>
+      <c r="E161" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="6">
+        <v>161</v>
       </c>
       <c r="E162" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G162" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="163" spans="3:7">
-      <c r="C163" s="3" t="s">
-        <v>8</v>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="6">
+        <v>162</v>
       </c>
       <c r="E163" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G163" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="164" spans="3:7">
-      <c r="C164" s="3" t="s">
-        <v>8</v>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="6">
+        <v>163</v>
       </c>
       <c r="E164" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G164" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="165" spans="3:7">
-      <c r="C165" s="3" t="s">
-        <v>8</v>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="6">
+        <v>164</v>
       </c>
       <c r="E165" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G165" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="166" spans="3:7">
-      <c r="C166" s="3" t="s">
-        <v>8</v>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="6">
+        <v>165</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G166" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2089,8 +2429,8 @@
   <sheetPr/>
   <dimension ref="A1:H166"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G118" sqref="G118"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="A109" sqref="A109:A166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.90833333333333" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -3658,7 +3998,9 @@
       <c r="H118" s="2"/>
     </row>
     <row r="119" spans="1:8">
-      <c r="A119" s="6"/>
+      <c r="A119" s="6">
+        <v>118</v>
+      </c>
       <c r="B119" s="2"/>
       <c r="C119" s="3"/>
       <c r="D119" s="4"/>
@@ -3668,7 +4010,9 @@
       <c r="H119" s="2"/>
     </row>
     <row r="120" spans="1:8">
-      <c r="A120" s="6"/>
+      <c r="A120" s="6">
+        <v>119</v>
+      </c>
       <c r="B120" s="2"/>
       <c r="C120" s="3"/>
       <c r="D120" s="4"/>
@@ -3678,7 +4022,9 @@
       <c r="H120" s="2"/>
     </row>
     <row r="121" spans="1:8">
-      <c r="A121" s="6"/>
+      <c r="A121" s="6">
+        <v>120</v>
+      </c>
       <c r="B121" s="2"/>
       <c r="C121" s="3"/>
       <c r="D121" s="4"/>
@@ -3688,7 +4034,9 @@
       <c r="H121" s="2"/>
     </row>
     <row r="122" spans="1:8">
-      <c r="A122" s="6"/>
+      <c r="A122" s="6">
+        <v>121</v>
+      </c>
       <c r="B122" s="2"/>
       <c r="C122" s="3"/>
       <c r="D122" s="4"/>
@@ -3698,7 +4046,9 @@
       <c r="H122" s="2"/>
     </row>
     <row r="123" spans="1:8">
-      <c r="A123" s="6"/>
+      <c r="A123" s="6">
+        <v>122</v>
+      </c>
       <c r="B123" s="2"/>
       <c r="C123" s="3"/>
       <c r="D123" s="4"/>
@@ -3708,7 +4058,9 @@
       <c r="H123" s="2"/>
     </row>
     <row r="124" spans="1:8">
-      <c r="A124" s="6"/>
+      <c r="A124" s="6">
+        <v>123</v>
+      </c>
       <c r="B124" s="2"/>
       <c r="C124" s="3" t="s">
         <v>8</v>
@@ -3724,7 +4076,9 @@
       <c r="H124" s="2"/>
     </row>
     <row r="125" spans="1:8">
-      <c r="A125" s="6"/>
+      <c r="A125" s="6">
+        <v>124</v>
+      </c>
       <c r="B125" s="2"/>
       <c r="C125" s="3" t="s">
         <v>8</v>
@@ -3740,7 +4094,9 @@
       <c r="H125" s="2"/>
     </row>
     <row r="126" spans="1:8">
-      <c r="A126" s="6"/>
+      <c r="A126" s="6">
+        <v>125</v>
+      </c>
       <c r="B126" s="2"/>
       <c r="C126" s="3" t="s">
         <v>8</v>
@@ -3756,7 +4112,9 @@
       <c r="H126" s="2"/>
     </row>
     <row r="127" spans="1:8">
-      <c r="A127" s="6"/>
+      <c r="A127" s="6">
+        <v>126</v>
+      </c>
       <c r="B127" s="2"/>
       <c r="C127" s="3" t="s">
         <v>8</v>
@@ -3772,7 +4130,9 @@
       <c r="H127" s="2"/>
     </row>
     <row r="128" spans="1:8">
-      <c r="A128" s="6"/>
+      <c r="A128" s="6">
+        <v>127</v>
+      </c>
       <c r="B128" s="2"/>
       <c r="C128" s="3" t="s">
         <v>8</v>
@@ -3788,7 +4148,9 @@
       <c r="H128" s="2"/>
     </row>
     <row r="129" spans="1:8">
-      <c r="A129" s="6"/>
+      <c r="A129" s="6">
+        <v>128</v>
+      </c>
       <c r="B129" s="2"/>
       <c r="C129" s="3"/>
       <c r="D129" s="4"/>
@@ -3798,7 +4160,9 @@
       <c r="H129" s="2"/>
     </row>
     <row r="130" spans="1:8">
-      <c r="A130" s="6"/>
+      <c r="A130" s="6">
+        <v>129</v>
+      </c>
       <c r="B130" s="2"/>
       <c r="C130" s="3"/>
       <c r="D130" s="4"/>
@@ -3808,7 +4172,9 @@
       <c r="H130" s="2"/>
     </row>
     <row r="131" spans="1:8">
-      <c r="A131" s="6"/>
+      <c r="A131" s="6">
+        <v>130</v>
+      </c>
       <c r="B131" s="2"/>
       <c r="C131" s="3"/>
       <c r="D131" s="4"/>
@@ -3818,7 +4184,9 @@
       <c r="H131" s="2"/>
     </row>
     <row r="132" spans="1:8">
-      <c r="A132" s="6"/>
+      <c r="A132" s="6">
+        <v>131</v>
+      </c>
       <c r="B132" s="2"/>
       <c r="C132" s="3"/>
       <c r="D132" s="4"/>
@@ -3828,7 +4196,9 @@
       <c r="H132" s="2"/>
     </row>
     <row r="133" spans="1:8">
-      <c r="A133" s="6"/>
+      <c r="A133" s="6">
+        <v>132</v>
+      </c>
       <c r="B133" s="2"/>
       <c r="C133" s="3"/>
       <c r="D133" s="4"/>
@@ -3838,7 +4208,9 @@
       <c r="H133" s="2"/>
     </row>
     <row r="134" spans="1:8">
-      <c r="A134" s="6"/>
+      <c r="A134" s="6">
+        <v>133</v>
+      </c>
       <c r="B134" s="2"/>
       <c r="C134" s="3"/>
       <c r="D134" s="4"/>
@@ -3848,7 +4220,9 @@
       <c r="H134" s="2"/>
     </row>
     <row r="135" spans="1:8">
-      <c r="A135" s="6"/>
+      <c r="A135" s="6">
+        <v>134</v>
+      </c>
       <c r="B135" s="2"/>
       <c r="C135" s="3"/>
       <c r="D135" s="4"/>
@@ -3858,7 +4232,9 @@
       <c r="H135" s="2"/>
     </row>
     <row r="136" spans="1:8">
-      <c r="A136" s="6"/>
+      <c r="A136" s="6">
+        <v>135</v>
+      </c>
       <c r="B136" s="2"/>
       <c r="C136" s="3" t="s">
         <v>9</v>
@@ -3870,7 +4246,9 @@
       <c r="H136" s="2"/>
     </row>
     <row r="137" spans="1:8">
-      <c r="A137" s="6"/>
+      <c r="A137" s="6">
+        <v>136</v>
+      </c>
       <c r="B137" s="2"/>
       <c r="C137" s="3" t="s">
         <v>9</v>
@@ -3882,7 +4260,9 @@
       <c r="H137" s="2"/>
     </row>
     <row r="138" spans="1:8">
-      <c r="A138" s="6"/>
+      <c r="A138" s="6">
+        <v>137</v>
+      </c>
       <c r="B138" s="2"/>
       <c r="C138" s="3" t="s">
         <v>9</v>
@@ -3894,7 +4274,9 @@
       <c r="H138" s="2"/>
     </row>
     <row r="139" spans="1:8">
-      <c r="A139" s="6"/>
+      <c r="A139" s="6">
+        <v>138</v>
+      </c>
       <c r="B139" s="2"/>
       <c r="C139" s="3"/>
       <c r="D139" s="4"/>
@@ -3904,7 +4286,9 @@
       <c r="H139" s="2"/>
     </row>
     <row r="140" spans="1:8">
-      <c r="A140" s="6"/>
+      <c r="A140" s="6">
+        <v>139</v>
+      </c>
       <c r="B140" s="2"/>
       <c r="C140" s="3"/>
       <c r="D140" s="4"/>
@@ -3914,7 +4298,9 @@
       <c r="H140" s="2"/>
     </row>
     <row r="141" spans="1:8">
-      <c r="A141" s="6"/>
+      <c r="A141" s="6">
+        <v>140</v>
+      </c>
       <c r="B141" s="2"/>
       <c r="C141" s="3"/>
       <c r="D141" s="4"/>
@@ -3924,7 +4310,9 @@
       <c r="H141" s="2"/>
     </row>
     <row r="142" spans="1:8">
-      <c r="A142" s="6"/>
+      <c r="A142" s="6">
+        <v>141</v>
+      </c>
       <c r="B142" s="2"/>
       <c r="C142" s="3"/>
       <c r="D142" s="4"/>
@@ -3934,7 +4322,9 @@
       <c r="H142" s="2"/>
     </row>
     <row r="143" spans="1:8">
-      <c r="A143" s="6"/>
+      <c r="A143" s="6">
+        <v>142</v>
+      </c>
       <c r="B143" s="2"/>
       <c r="C143" s="3"/>
       <c r="D143" s="4"/>
@@ -3946,7 +4336,9 @@
       <c r="H143" s="2"/>
     </row>
     <row r="144" spans="1:8">
-      <c r="A144" s="6"/>
+      <c r="A144" s="6">
+        <v>143</v>
+      </c>
       <c r="B144" s="2"/>
       <c r="C144" s="3"/>
       <c r="D144" s="4"/>
@@ -3958,7 +4350,9 @@
       <c r="H144" s="2"/>
     </row>
     <row r="145" spans="1:8">
-      <c r="A145" s="6"/>
+      <c r="A145" s="6">
+        <v>144</v>
+      </c>
       <c r="B145" s="2"/>
       <c r="C145" s="3"/>
       <c r="D145" s="4" t="s">
@@ -3970,7 +4364,9 @@
       <c r="H145" s="2"/>
     </row>
     <row r="146" spans="1:8">
-      <c r="A146" s="6"/>
+      <c r="A146" s="6">
+        <v>145</v>
+      </c>
       <c r="B146" s="2"/>
       <c r="C146" s="3"/>
       <c r="D146" s="4"/>
@@ -3980,7 +4376,9 @@
       <c r="H146" s="2"/>
     </row>
     <row r="147" spans="1:8">
-      <c r="A147" s="6"/>
+      <c r="A147" s="6">
+        <v>146</v>
+      </c>
       <c r="B147" s="2"/>
       <c r="C147" s="3"/>
       <c r="D147" s="4"/>
@@ -3990,7 +4388,9 @@
       <c r="H147" s="2"/>
     </row>
     <row r="148" spans="1:8">
-      <c r="A148" s="6"/>
+      <c r="A148" s="6">
+        <v>147</v>
+      </c>
       <c r="B148" s="2"/>
       <c r="C148" s="3"/>
       <c r="D148" s="4"/>
@@ -4000,7 +4400,9 @@
       <c r="H148" s="2"/>
     </row>
     <row r="149" spans="1:8">
-      <c r="A149" s="6"/>
+      <c r="A149" s="6">
+        <v>148</v>
+      </c>
       <c r="B149" s="2"/>
       <c r="C149" s="3"/>
       <c r="D149" s="4"/>
@@ -4010,7 +4412,9 @@
       <c r="H149" s="2"/>
     </row>
     <row r="150" spans="1:8">
-      <c r="A150" s="6"/>
+      <c r="A150" s="6">
+        <v>149</v>
+      </c>
       <c r="B150" s="2"/>
       <c r="C150" s="3"/>
       <c r="D150" s="4"/>
@@ -4020,7 +4424,9 @@
       <c r="H150" s="2"/>
     </row>
     <row r="151" spans="1:8">
-      <c r="A151" s="6"/>
+      <c r="A151" s="6">
+        <v>150</v>
+      </c>
       <c r="B151" s="2"/>
       <c r="C151" s="3"/>
       <c r="D151" s="4"/>
@@ -4030,7 +4436,9 @@
       <c r="H151" s="2"/>
     </row>
     <row r="152" spans="1:8">
-      <c r="A152" s="6"/>
+      <c r="A152" s="6">
+        <v>151</v>
+      </c>
       <c r="B152" s="2"/>
       <c r="C152" s="3"/>
       <c r="D152" s="4"/>
@@ -4040,7 +4448,9 @@
       <c r="H152" s="2"/>
     </row>
     <row r="153" spans="1:8">
-      <c r="A153" s="6"/>
+      <c r="A153" s="6">
+        <v>152</v>
+      </c>
       <c r="B153" s="2"/>
       <c r="C153" s="3"/>
       <c r="D153" s="4"/>
@@ -4050,7 +4460,9 @@
       <c r="H153" s="2"/>
     </row>
     <row r="154" spans="1:8">
-      <c r="A154" s="6"/>
+      <c r="A154" s="6">
+        <v>153</v>
+      </c>
       <c r="B154" s="2"/>
       <c r="C154" s="3"/>
       <c r="D154" s="4"/>
@@ -4060,7 +4472,9 @@
       <c r="H154" s="2"/>
     </row>
     <row r="155" spans="1:8">
-      <c r="A155" s="6"/>
+      <c r="A155" s="6">
+        <v>154</v>
+      </c>
       <c r="B155" s="2"/>
       <c r="C155" s="3" t="s">
         <v>10</v>
@@ -4074,7 +4488,9 @@
       <c r="H155" s="2"/>
     </row>
     <row r="156" spans="1:8">
-      <c r="A156" s="6"/>
+      <c r="A156" s="6">
+        <v>155</v>
+      </c>
       <c r="B156" s="2"/>
       <c r="C156" s="3"/>
       <c r="D156" s="4"/>
@@ -4084,7 +4500,9 @@
       <c r="H156" s="2"/>
     </row>
     <row r="157" spans="1:8">
-      <c r="A157" s="6"/>
+      <c r="A157" s="6">
+        <v>156</v>
+      </c>
       <c r="B157" s="2"/>
       <c r="C157" s="3"/>
       <c r="D157" s="4"/>
@@ -4094,7 +4512,9 @@
       <c r="H157" s="2"/>
     </row>
     <row r="158" spans="1:8">
-      <c r="A158" s="6"/>
+      <c r="A158" s="6">
+        <v>157</v>
+      </c>
       <c r="B158" s="2"/>
       <c r="C158" s="3"/>
       <c r="D158" s="4"/>
@@ -4104,7 +4524,9 @@
       <c r="H158" s="2"/>
     </row>
     <row r="159" spans="1:8">
-      <c r="A159" s="6"/>
+      <c r="A159" s="6">
+        <v>158</v>
+      </c>
       <c r="B159" s="2"/>
       <c r="C159" s="3"/>
       <c r="D159" s="4"/>
@@ -4114,7 +4536,9 @@
       <c r="H159" s="2"/>
     </row>
     <row r="160" spans="1:8">
-      <c r="A160" s="6"/>
+      <c r="A160" s="6">
+        <v>159</v>
+      </c>
       <c r="B160" s="2"/>
       <c r="C160" s="3"/>
       <c r="D160" s="4"/>
@@ -4124,7 +4548,9 @@
       <c r="H160" s="2"/>
     </row>
     <row r="161" spans="1:8">
-      <c r="A161" s="6"/>
+      <c r="A161" s="6">
+        <v>160</v>
+      </c>
       <c r="B161" s="2"/>
       <c r="C161" s="3"/>
       <c r="D161" s="4"/>
@@ -4134,7 +4560,9 @@
       <c r="H161" s="2"/>
     </row>
     <row r="162" spans="1:8">
-      <c r="A162" s="6"/>
+      <c r="A162" s="6">
+        <v>161</v>
+      </c>
       <c r="B162" s="2"/>
       <c r="C162" s="3" t="s">
         <v>8</v>
@@ -4150,7 +4578,9 @@
       <c r="H162" s="2"/>
     </row>
     <row r="163" spans="1:8">
-      <c r="A163" s="6"/>
+      <c r="A163" s="6">
+        <v>162</v>
+      </c>
       <c r="B163" s="2"/>
       <c r="C163" s="3" t="s">
         <v>8</v>
@@ -4166,7 +4596,9 @@
       <c r="H163" s="2"/>
     </row>
     <row r="164" spans="1:8">
-      <c r="A164" s="6"/>
+      <c r="A164" s="6">
+        <v>163</v>
+      </c>
       <c r="B164" s="2"/>
       <c r="C164" s="3" t="s">
         <v>8</v>
@@ -4182,7 +4614,9 @@
       <c r="H164" s="2"/>
     </row>
     <row r="165" spans="1:8">
-      <c r="A165" s="6"/>
+      <c r="A165" s="6">
+        <v>164</v>
+      </c>
       <c r="B165" s="2"/>
       <c r="C165" s="3" t="s">
         <v>8</v>
@@ -4198,7 +4632,9 @@
       <c r="H165" s="2"/>
     </row>
     <row r="166" spans="1:8">
-      <c r="A166" s="6"/>
+      <c r="A166" s="6">
+        <v>165</v>
+      </c>
       <c r="B166" s="2"/>
       <c r="C166" s="3" t="s">
         <v>8</v>
@@ -4225,8 +4661,8 @@
   <sheetPr/>
   <dimension ref="A1:H166"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H166"/>
+    <sheetView zoomScale="65" zoomScaleNormal="65" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="E171" sqref="E171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.90833333333333" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -5778,7 +6214,9 @@
       <c r="H118" s="2"/>
     </row>
     <row r="119" spans="1:8">
-      <c r="A119" s="6"/>
+      <c r="A119" s="6">
+        <v>118</v>
+      </c>
       <c r="B119" s="2"/>
       <c r="C119" s="3"/>
       <c r="D119" s="4"/>
@@ -5788,7 +6226,9 @@
       <c r="H119" s="2"/>
     </row>
     <row r="120" spans="1:8">
-      <c r="A120" s="6"/>
+      <c r="A120" s="6">
+        <v>119</v>
+      </c>
       <c r="B120" s="2"/>
       <c r="C120" s="3"/>
       <c r="D120" s="4"/>
@@ -5798,7 +6238,9 @@
       <c r="H120" s="2"/>
     </row>
     <row r="121" spans="1:8">
-      <c r="A121" s="6"/>
+      <c r="A121" s="6">
+        <v>120</v>
+      </c>
       <c r="B121" s="2"/>
       <c r="C121" s="3"/>
       <c r="D121" s="4"/>
@@ -5808,7 +6250,9 @@
       <c r="H121" s="2"/>
     </row>
     <row r="122" spans="1:8">
-      <c r="A122" s="6"/>
+      <c r="A122" s="6">
+        <v>121</v>
+      </c>
       <c r="B122" s="2"/>
       <c r="C122" s="3"/>
       <c r="D122" s="4"/>
@@ -5818,7 +6262,9 @@
       <c r="H122" s="2"/>
     </row>
     <row r="123" spans="1:8">
-      <c r="A123" s="6"/>
+      <c r="A123" s="6">
+        <v>122</v>
+      </c>
       <c r="B123" s="2"/>
       <c r="C123" s="3"/>
       <c r="D123" s="4"/>
@@ -5828,7 +6274,9 @@
       <c r="H123" s="2"/>
     </row>
     <row r="124" spans="1:8">
-      <c r="A124" s="6"/>
+      <c r="A124" s="6">
+        <v>123</v>
+      </c>
       <c r="B124" s="2"/>
       <c r="C124" s="3" t="s">
         <v>8</v>
@@ -5844,7 +6292,9 @@
       <c r="H124" s="2"/>
     </row>
     <row r="125" spans="1:8">
-      <c r="A125" s="6"/>
+      <c r="A125" s="6">
+        <v>124</v>
+      </c>
       <c r="B125" s="2"/>
       <c r="C125" s="3" t="s">
         <v>8</v>
@@ -5860,7 +6310,9 @@
       <c r="H125" s="2"/>
     </row>
     <row r="126" spans="1:8">
-      <c r="A126" s="6"/>
+      <c r="A126" s="6">
+        <v>125</v>
+      </c>
       <c r="B126" s="2"/>
       <c r="C126" s="3" t="s">
         <v>8</v>
@@ -5876,7 +6328,9 @@
       <c r="H126" s="2"/>
     </row>
     <row r="127" spans="1:8">
-      <c r="A127" s="6"/>
+      <c r="A127" s="6">
+        <v>126</v>
+      </c>
       <c r="B127" s="2"/>
       <c r="C127" s="3" t="s">
         <v>8</v>
@@ -5892,7 +6346,9 @@
       <c r="H127" s="2"/>
     </row>
     <row r="128" spans="1:8">
-      <c r="A128" s="6"/>
+      <c r="A128" s="6">
+        <v>127</v>
+      </c>
       <c r="B128" s="2"/>
       <c r="C128" s="3" t="s">
         <v>8</v>
@@ -5908,7 +6364,9 @@
       <c r="H128" s="2"/>
     </row>
     <row r="129" spans="1:8">
-      <c r="A129" s="6"/>
+      <c r="A129" s="6">
+        <v>128</v>
+      </c>
       <c r="B129" s="2"/>
       <c r="C129" s="3"/>
       <c r="D129" s="4"/>
@@ -5918,7 +6376,9 @@
       <c r="H129" s="2"/>
     </row>
     <row r="130" spans="1:8">
-      <c r="A130" s="6"/>
+      <c r="A130" s="6">
+        <v>129</v>
+      </c>
       <c r="B130" s="2"/>
       <c r="C130" s="3"/>
       <c r="D130" s="4"/>
@@ -5928,7 +6388,9 @@
       <c r="H130" s="2"/>
     </row>
     <row r="131" spans="1:8">
-      <c r="A131" s="6"/>
+      <c r="A131" s="6">
+        <v>130</v>
+      </c>
       <c r="B131" s="2"/>
       <c r="C131" s="3"/>
       <c r="D131" s="4"/>
@@ -5938,7 +6400,9 @@
       <c r="H131" s="2"/>
     </row>
     <row r="132" spans="1:8">
-      <c r="A132" s="6"/>
+      <c r="A132" s="6">
+        <v>131</v>
+      </c>
       <c r="B132" s="2"/>
       <c r="C132" s="3"/>
       <c r="D132" s="4"/>
@@ -5948,7 +6412,9 @@
       <c r="H132" s="2"/>
     </row>
     <row r="133" spans="1:8">
-      <c r="A133" s="6"/>
+      <c r="A133" s="6">
+        <v>132</v>
+      </c>
       <c r="B133" s="2"/>
       <c r="C133" s="3"/>
       <c r="D133" s="4"/>
@@ -5958,7 +6424,9 @@
       <c r="H133" s="2"/>
     </row>
     <row r="134" spans="1:8">
-      <c r="A134" s="6"/>
+      <c r="A134" s="6">
+        <v>133</v>
+      </c>
       <c r="B134" s="2"/>
       <c r="C134" s="3"/>
       <c r="D134" s="4"/>
@@ -5968,7 +6436,9 @@
       <c r="H134" s="2"/>
     </row>
     <row r="135" spans="1:8">
-      <c r="A135" s="6"/>
+      <c r="A135" s="6">
+        <v>134</v>
+      </c>
       <c r="B135" s="2"/>
       <c r="C135" s="3" t="s">
         <v>9</v>
@@ -5986,7 +6456,9 @@
       <c r="H135" s="2"/>
     </row>
     <row r="136" spans="1:8">
-      <c r="A136" s="6"/>
+      <c r="A136" s="6">
+        <v>135</v>
+      </c>
       <c r="B136" s="2"/>
       <c r="C136" s="3"/>
       <c r="D136" s="4"/>
@@ -5996,7 +6468,9 @@
       <c r="H136" s="2"/>
     </row>
     <row r="137" spans="1:8">
-      <c r="A137" s="6"/>
+      <c r="A137" s="6">
+        <v>136</v>
+      </c>
       <c r="B137" s="2"/>
       <c r="C137" s="3"/>
       <c r="D137" s="4"/>
@@ -6006,7 +6480,9 @@
       <c r="H137" s="2"/>
     </row>
     <row r="138" spans="1:8">
-      <c r="A138" s="6"/>
+      <c r="A138" s="6">
+        <v>137</v>
+      </c>
       <c r="B138" s="2"/>
       <c r="C138" s="3"/>
       <c r="D138" s="4"/>
@@ -6016,7 +6492,9 @@
       <c r="H138" s="2"/>
     </row>
     <row r="139" spans="1:8">
-      <c r="A139" s="6"/>
+      <c r="A139" s="6">
+        <v>138</v>
+      </c>
       <c r="B139" s="2"/>
       <c r="C139" s="3"/>
       <c r="D139" s="4"/>
@@ -6026,7 +6504,9 @@
       <c r="H139" s="2"/>
     </row>
     <row r="140" spans="1:8">
-      <c r="A140" s="6"/>
+      <c r="A140" s="6">
+        <v>139</v>
+      </c>
       <c r="B140" s="2"/>
       <c r="C140" s="3"/>
       <c r="D140" s="4"/>
@@ -6036,7 +6516,9 @@
       <c r="H140" s="2"/>
     </row>
     <row r="141" spans="1:8">
-      <c r="A141" s="6"/>
+      <c r="A141" s="6">
+        <v>140</v>
+      </c>
       <c r="B141" s="2"/>
       <c r="C141" s="3"/>
       <c r="D141" s="4"/>
@@ -6046,7 +6528,9 @@
       <c r="H141" s="2"/>
     </row>
     <row r="142" spans="1:8">
-      <c r="A142" s="6"/>
+      <c r="A142" s="6">
+        <v>141</v>
+      </c>
       <c r="B142" s="2"/>
       <c r="C142" s="3"/>
       <c r="D142" s="4"/>
@@ -6056,7 +6540,9 @@
       <c r="H142" s="2"/>
     </row>
     <row r="143" spans="1:8">
-      <c r="A143" s="6"/>
+      <c r="A143" s="6">
+        <v>142</v>
+      </c>
       <c r="B143" s="2"/>
       <c r="C143" s="3" t="s">
         <v>10</v>
@@ -6076,7 +6562,9 @@
       <c r="H143" s="2"/>
     </row>
     <row r="144" spans="1:8">
-      <c r="A144" s="6"/>
+      <c r="A144" s="6">
+        <v>143</v>
+      </c>
       <c r="B144" s="2"/>
       <c r="C144" s="3"/>
       <c r="D144" s="4"/>
@@ -6086,7 +6574,9 @@
       <c r="H144" s="2"/>
     </row>
     <row r="145" spans="1:8">
-      <c r="A145" s="6"/>
+      <c r="A145" s="6">
+        <v>144</v>
+      </c>
       <c r="B145" s="2"/>
       <c r="C145" s="3"/>
       <c r="D145" s="4"/>
@@ -6096,7 +6586,9 @@
       <c r="H145" s="2"/>
     </row>
     <row r="146" spans="1:8">
-      <c r="A146" s="6"/>
+      <c r="A146" s="6">
+        <v>145</v>
+      </c>
       <c r="B146" s="2"/>
       <c r="C146" s="3"/>
       <c r="D146" s="4"/>
@@ -6106,7 +6598,9 @@
       <c r="H146" s="2"/>
     </row>
     <row r="147" spans="1:8">
-      <c r="A147" s="6"/>
+      <c r="A147" s="6">
+        <v>146</v>
+      </c>
       <c r="B147" s="2"/>
       <c r="C147" s="3"/>
       <c r="D147" s="4"/>
@@ -6116,7 +6610,9 @@
       <c r="H147" s="2"/>
     </row>
     <row r="148" spans="1:8">
-      <c r="A148" s="6"/>
+      <c r="A148" s="6">
+        <v>147</v>
+      </c>
       <c r="B148" s="2"/>
       <c r="C148" s="3"/>
       <c r="D148" s="4"/>
@@ -6126,7 +6622,9 @@
       <c r="H148" s="2"/>
     </row>
     <row r="149" spans="1:8">
-      <c r="A149" s="6"/>
+      <c r="A149" s="6">
+        <v>148</v>
+      </c>
       <c r="B149" s="2"/>
       <c r="C149" s="3"/>
       <c r="D149" s="4"/>
@@ -6136,7 +6634,9 @@
       <c r="H149" s="2"/>
     </row>
     <row r="150" spans="1:8">
-      <c r="A150" s="6"/>
+      <c r="A150" s="6">
+        <v>149</v>
+      </c>
       <c r="B150" s="2"/>
       <c r="C150" s="3"/>
       <c r="D150" s="4"/>
@@ -6146,7 +6646,9 @@
       <c r="H150" s="2"/>
     </row>
     <row r="151" spans="1:8">
-      <c r="A151" s="6"/>
+      <c r="A151" s="6">
+        <v>150</v>
+      </c>
       <c r="B151" s="2"/>
       <c r="C151" s="3"/>
       <c r="D151" s="4"/>
@@ -6156,7 +6658,9 @@
       <c r="H151" s="2"/>
     </row>
     <row r="152" spans="1:8">
-      <c r="A152" s="6"/>
+      <c r="A152" s="6">
+        <v>151</v>
+      </c>
       <c r="B152" s="2"/>
       <c r="C152" s="3"/>
       <c r="D152" s="4"/>
@@ -6166,7 +6670,9 @@
       <c r="H152" s="2"/>
     </row>
     <row r="153" spans="1:8">
-      <c r="A153" s="6"/>
+      <c r="A153" s="6">
+        <v>152</v>
+      </c>
       <c r="B153" s="2"/>
       <c r="C153" s="3"/>
       <c r="D153" s="4"/>
@@ -6176,7 +6682,9 @@
       <c r="H153" s="2"/>
     </row>
     <row r="154" spans="1:8">
-      <c r="A154" s="6"/>
+      <c r="A154" s="6">
+        <v>153</v>
+      </c>
       <c r="B154" s="2"/>
       <c r="C154" s="3"/>
       <c r="D154" s="4"/>
@@ -6186,7 +6694,9 @@
       <c r="H154" s="2"/>
     </row>
     <row r="155" spans="1:8">
-      <c r="A155" s="6"/>
+      <c r="A155" s="6">
+        <v>154</v>
+      </c>
       <c r="B155" s="2"/>
       <c r="C155" s="3" t="s">
         <v>10</v>
@@ -6206,7 +6716,9 @@
       <c r="H155" s="2"/>
     </row>
     <row r="156" spans="1:8">
-      <c r="A156" s="6"/>
+      <c r="A156" s="6">
+        <v>155</v>
+      </c>
       <c r="B156" s="2"/>
       <c r="C156" s="3"/>
       <c r="D156" s="4"/>
@@ -6216,7 +6728,9 @@
       <c r="H156" s="2"/>
     </row>
     <row r="157" spans="1:8">
-      <c r="A157" s="6"/>
+      <c r="A157" s="6">
+        <v>156</v>
+      </c>
       <c r="B157" s="2"/>
       <c r="C157" s="3"/>
       <c r="D157" s="4"/>
@@ -6226,7 +6740,9 @@
       <c r="H157" s="2"/>
     </row>
     <row r="158" spans="1:8">
-      <c r="A158" s="6"/>
+      <c r="A158" s="6">
+        <v>157</v>
+      </c>
       <c r="B158" s="2"/>
       <c r="C158" s="3"/>
       <c r="D158" s="4"/>
@@ -6236,7 +6752,9 @@
       <c r="H158" s="2"/>
     </row>
     <row r="159" spans="1:8">
-      <c r="A159" s="6"/>
+      <c r="A159" s="6">
+        <v>158</v>
+      </c>
       <c r="B159" s="2"/>
       <c r="C159" s="3"/>
       <c r="D159" s="4"/>
@@ -6246,7 +6764,9 @@
       <c r="H159" s="2"/>
     </row>
     <row r="160" spans="1:8">
-      <c r="A160" s="6"/>
+      <c r="A160" s="6">
+        <v>159</v>
+      </c>
       <c r="B160" s="2"/>
       <c r="C160" s="3"/>
       <c r="D160" s="4"/>
@@ -6256,7 +6776,9 @@
       <c r="H160" s="2"/>
     </row>
     <row r="161" spans="1:8">
-      <c r="A161" s="6"/>
+      <c r="A161" s="6">
+        <v>160</v>
+      </c>
       <c r="B161" s="2"/>
       <c r="C161" s="3"/>
       <c r="D161" s="4"/>
@@ -6266,7 +6788,9 @@
       <c r="H161" s="2"/>
     </row>
     <row r="162" spans="1:8">
-      <c r="A162" s="6"/>
+      <c r="A162" s="6">
+        <v>161</v>
+      </c>
       <c r="B162" s="2"/>
       <c r="C162" s="3" t="s">
         <v>8</v>
@@ -6282,7 +6806,9 @@
       <c r="H162" s="2"/>
     </row>
     <row r="163" spans="1:8">
-      <c r="A163" s="6"/>
+      <c r="A163" s="6">
+        <v>162</v>
+      </c>
       <c r="B163" s="2"/>
       <c r="C163" s="3" t="s">
         <v>8</v>
@@ -6298,7 +6824,9 @@
       <c r="H163" s="2"/>
     </row>
     <row r="164" spans="1:8">
-      <c r="A164" s="6"/>
+      <c r="A164" s="6">
+        <v>163</v>
+      </c>
       <c r="B164" s="2"/>
       <c r="C164" s="3" t="s">
         <v>8</v>
@@ -6314,7 +6842,9 @@
       <c r="H164" s="2"/>
     </row>
     <row r="165" spans="1:8">
-      <c r="A165" s="6"/>
+      <c r="A165" s="6">
+        <v>164</v>
+      </c>
       <c r="B165" s="2"/>
       <c r="C165" s="3" t="s">
         <v>8</v>
@@ -6330,7 +6860,9 @@
       <c r="H165" s="2"/>
     </row>
     <row r="166" spans="1:8">
-      <c r="A166" s="6"/>
+      <c r="A166" s="6">
+        <v>165</v>
+      </c>
       <c r="B166" s="2"/>
       <c r="C166" s="3" t="s">
         <v>8</v>

--- a/TankRunner/Assets/Resources/LD.xlsx
+++ b/TankRunner/Assets/Resources/LD.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="8955" windowHeight="12660" tabRatio="475"/>
+    <workbookView windowWidth="28800" windowHeight="12420" tabRatio="475" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="lv1" sheetId="1" r:id="rId1"/>
     <sheet name="lv2" sheetId="2" r:id="rId2"/>
     <sheet name="lv3" sheetId="3" r:id="rId3"/>
+    <sheet name="lv4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="12">
   <si>
     <t>row</t>
   </si>
@@ -64,10 +65,17 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -217,7 +225,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -251,6 +259,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,10 +590,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -582,34 +602,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -621,98 +638,101 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -733,6 +753,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1055,8 +1087,8 @@
   <sheetPr/>
   <dimension ref="A1:H166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B139" workbookViewId="0">
-      <selection activeCell="E147" sqref="E147"/>
+    <sheetView topLeftCell="B103" workbookViewId="0">
+      <selection activeCell="F103" sqref="F103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.90833333333333" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1165,12 +1197,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:1">
       <c r="A15" s="6">
         <v>14</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:1">
@@ -1191,9 +1220,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:5">
       <c r="A19" s="6">
         <v>18</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1224,12 +1256,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:1">
       <c r="A25" s="6">
         <v>24</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:1">
@@ -1242,17 +1271,17 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:1">
       <c r="A28" s="6">
         <v>27</v>
       </c>
-      <c r="G28" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="6">
         <v>28</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1263,9 +1292,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:7">
       <c r="A31" s="6">
         <v>30</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1281,12 +1313,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:1">
       <c r="A34" s="6">
         <v>33</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:1">
@@ -1354,12 +1383,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:1">
       <c r="A45" s="6">
         <v>44</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:1">
@@ -1372,12 +1398,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:1">
       <c r="A48" s="6">
         <v>47</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:1">
@@ -1490,12 +1513,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:1">
       <c r="A65" s="6">
         <v>64</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1636,20 +1656,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:1">
       <c r="A84" s="6">
         <v>83</v>
       </c>
-      <c r="G84" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+    </row>
+    <row r="85" spans="1:1">
       <c r="A85" s="6">
         <v>84</v>
-      </c>
-      <c r="G85" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:1">
@@ -1810,20 +1824,14 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:1">
       <c r="A102" s="6">
         <v>101</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+    </row>
+    <row r="103" spans="1:1">
       <c r="A103" s="6">
         <v>102</v>
-      </c>
-      <c r="F103" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -1841,8 +1849,6 @@
       <c r="D105" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E105" s="5"/>
-      <c r="F105" s="4"/>
       <c r="G105" s="3" t="s">
         <v>9</v>
       </c>
@@ -1862,9 +1868,6 @@
       <c r="C107" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D107" s="4"/>
-      <c r="E107" s="5"/>
-      <c r="F107" s="4"/>
       <c r="G107" s="3" t="s">
         <v>9</v>
       </c>
@@ -1900,9 +1903,6 @@
       <c r="C111" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D111" s="4"/>
-      <c r="E111" s="5"/>
-      <c r="F111" s="4"/>
       <c r="G111" s="3" t="s">
         <v>8</v>
       </c>
@@ -1959,9 +1959,6 @@
       <c r="C118" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D118" s="4"/>
-      <c r="E118" s="5"/>
-      <c r="F118" s="4"/>
       <c r="G118" s="3" t="s">
         <v>9</v>
       </c>
@@ -1981,7 +1978,6 @@
       <c r="E120" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F120" s="4"/>
       <c r="G120" s="3" t="s">
         <v>9</v>
       </c>
@@ -2429,8 +2425,8 @@
   <sheetPr/>
   <dimension ref="A1:H166"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="A109" sqref="A109:A166"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="E164" sqref="E164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.90833333333333" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2600,7 +2596,7 @@
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="5"/>
+      <c r="E13" s="10"/>
       <c r="F13" s="4"/>
       <c r="G13" s="3"/>
       <c r="H13" s="2"/>
@@ -2648,7 +2644,9 @@
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
+      <c r="E17" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="F17" s="4"/>
       <c r="G17" s="3"/>
       <c r="H17" s="2"/>
@@ -2660,9 +2658,7 @@
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="E18" s="5"/>
       <c r="F18" s="4"/>
       <c r="G18" s="3"/>
       <c r="H18" s="2"/>
@@ -2672,13 +2668,15 @@
         <v>18</v>
       </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="D19" s="4"/>
-      <c r="E19" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="E19" s="5"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="3"/>
+      <c r="G19" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
@@ -2686,13 +2684,15 @@
         <v>19</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="D20" s="4"/>
-      <c r="E20" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="E20" s="5"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="3"/>
+      <c r="G20" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
@@ -2700,13 +2700,15 @@
         <v>20</v>
       </c>
       <c r="B21" s="2"/>
-      <c r="C21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="D21" s="4"/>
-      <c r="E21" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="E21" s="5"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="3"/>
+      <c r="G21" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
@@ -2716,9 +2718,7 @@
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="E22" s="5"/>
       <c r="F22" s="4"/>
       <c r="G22" s="3"/>
       <c r="H22" s="2"/>
@@ -2728,9 +2728,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="C23" s="3"/>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
       <c r="F23" s="4"/>
@@ -2742,9 +2740,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="C24" s="3"/>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
       <c r="F24" s="4"/>
@@ -2756,9 +2752,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2"/>
-      <c r="C25" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="C25" s="3"/>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
       <c r="F25" s="4"/>
@@ -2772,9 +2766,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="C26" s="3"/>
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
       <c r="F26" s="4"/>
@@ -2788,9 +2780,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2"/>
-      <c r="C27" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="C27" s="3"/>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
       <c r="F27" s="4"/>
@@ -2926,11 +2916,15 @@
         <v>37</v>
       </c>
       <c r="B38" s="2"/>
-      <c r="C38" s="3"/>
+      <c r="C38" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="D38" s="4"/>
       <c r="E38" s="5"/>
       <c r="F38" s="4"/>
-      <c r="G38" s="3"/>
+      <c r="G38" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="H38" s="2"/>
     </row>
     <row r="39" spans="1:8">
@@ -2938,11 +2932,15 @@
         <v>38</v>
       </c>
       <c r="B39" s="2"/>
-      <c r="C39" s="3"/>
+      <c r="C39" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="D39" s="4"/>
       <c r="E39" s="5"/>
       <c r="F39" s="4"/>
-      <c r="G39" s="3"/>
+      <c r="G39" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="H39" s="2"/>
     </row>
     <row r="40" spans="1:8">
@@ -2950,11 +2948,15 @@
         <v>39</v>
       </c>
       <c r="B40" s="2"/>
-      <c r="C40" s="3"/>
+      <c r="C40" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="D40" s="4"/>
       <c r="E40" s="5"/>
       <c r="F40" s="4"/>
-      <c r="G40" s="3"/>
+      <c r="G40" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="H40" s="2"/>
     </row>
     <row r="41" spans="1:8">
@@ -3150,9 +3152,7 @@
       <c r="D55" s="4"/>
       <c r="E55" s="5"/>
       <c r="F55" s="4"/>
-      <c r="G55" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G55" s="3"/>
       <c r="H55" s="2"/>
     </row>
     <row r="56" spans="1:8">
@@ -3164,9 +3164,7 @@
       <c r="D56" s="4"/>
       <c r="E56" s="5"/>
       <c r="F56" s="4"/>
-      <c r="G56" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G56" s="3"/>
       <c r="H56" s="2"/>
     </row>
     <row r="57" spans="1:8">
@@ -3178,9 +3176,7 @@
       <c r="D57" s="4"/>
       <c r="E57" s="5"/>
       <c r="F57" s="4"/>
-      <c r="G57" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G57" s="3"/>
       <c r="H57" s="2"/>
     </row>
     <row r="58" spans="1:8">
@@ -3192,9 +3188,7 @@
       <c r="D58" s="4"/>
       <c r="E58" s="5"/>
       <c r="F58" s="4"/>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G58" s="3"/>
       <c r="H58" s="2"/>
     </row>
     <row r="59" spans="1:8">
@@ -3206,9 +3200,7 @@
       <c r="D59" s="4"/>
       <c r="E59" s="5"/>
       <c r="F59" s="4"/>
-      <c r="G59" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G59" s="3"/>
       <c r="H59" s="2"/>
     </row>
     <row r="60" spans="1:8">
@@ -3416,17 +3408,13 @@
         <v>75</v>
       </c>
       <c r="B76" s="2"/>
-      <c r="C76" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="C76" s="3"/>
       <c r="D76" s="4"/>
       <c r="E76" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F76" s="4"/>
-      <c r="G76" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G76" s="3"/>
       <c r="H76" s="2"/>
     </row>
     <row r="77" spans="1:8">
@@ -3434,17 +3422,13 @@
         <v>76</v>
       </c>
       <c r="B77" s="2"/>
-      <c r="C77" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="C77" s="3"/>
       <c r="D77" s="4"/>
       <c r="E77" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F77" s="4"/>
-      <c r="G77" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G77" s="3"/>
       <c r="H77" s="2"/>
     </row>
     <row r="78" spans="1:8">
@@ -3452,17 +3436,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="2"/>
-      <c r="C78" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="C78" s="3"/>
       <c r="D78" s="4"/>
       <c r="E78" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F78" s="4"/>
-      <c r="G78" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G78" s="3"/>
       <c r="H78" s="2"/>
     </row>
     <row r="79" spans="1:8">
@@ -3470,17 +3450,13 @@
         <v>78</v>
       </c>
       <c r="B79" s="2"/>
-      <c r="C79" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="C79" s="3"/>
       <c r="D79" s="4"/>
       <c r="E79" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F79" s="4"/>
-      <c r="G79" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G79" s="3"/>
       <c r="H79" s="2"/>
     </row>
     <row r="80" spans="1:8">
@@ -3488,17 +3464,13 @@
         <v>79</v>
       </c>
       <c r="B80" s="2"/>
-      <c r="C80" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="C80" s="3"/>
       <c r="D80" s="4"/>
       <c r="E80" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F80" s="4"/>
-      <c r="G80" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G80" s="3"/>
       <c r="H80" s="2"/>
     </row>
     <row r="81" spans="1:8">
@@ -3765,7 +3737,9 @@
       </c>
       <c r="B101" s="2"/>
       <c r="C101" s="3"/>
-      <c r="D101" s="4"/>
+      <c r="D101" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="E101" s="5"/>
       <c r="F101" s="4"/>
       <c r="G101" s="3"/>
@@ -3790,10 +3764,10 @@
       <c r="B103" s="2"/>
       <c r="C103" s="3"/>
       <c r="D103" s="4"/>
-      <c r="E103" s="5"/>
-      <c r="F103" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="E103" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F103" s="4"/>
       <c r="G103" s="3"/>
       <c r="H103" s="2"/>
     </row>
@@ -3804,7 +3778,9 @@
       <c r="B104" s="2"/>
       <c r="C104" s="3"/>
       <c r="D104" s="4"/>
-      <c r="E104" s="5"/>
+      <c r="E104" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F104" s="4"/>
       <c r="G104" s="3"/>
       <c r="H104" s="2"/>
@@ -3816,7 +3792,9 @@
       <c r="B105" s="2"/>
       <c r="C105" s="3"/>
       <c r="D105" s="4"/>
-      <c r="E105" s="5"/>
+      <c r="E105" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F105" s="4"/>
       <c r="G105" s="3"/>
       <c r="H105" s="2"/>
@@ -3924,7 +3902,9 @@
       <c r="B113" s="2"/>
       <c r="C113" s="3"/>
       <c r="D113" s="4"/>
-      <c r="E113" s="5"/>
+      <c r="E113" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F113" s="4"/>
       <c r="G113" s="3"/>
       <c r="H113" s="2"/>
@@ -3936,7 +3916,9 @@
       <c r="B114" s="2"/>
       <c r="C114" s="3"/>
       <c r="D114" s="4"/>
-      <c r="E114" s="5"/>
+      <c r="E114" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F114" s="4"/>
       <c r="G114" s="3"/>
       <c r="H114" s="2"/>
@@ -3948,7 +3930,9 @@
       <c r="B115" s="2"/>
       <c r="C115" s="3"/>
       <c r="D115" s="4"/>
-      <c r="E115" s="5"/>
+      <c r="E115" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F115" s="4"/>
       <c r="G115" s="3"/>
       <c r="H115" s="2"/>
@@ -4062,17 +4046,13 @@
         <v>123</v>
       </c>
       <c r="B124" s="2"/>
-      <c r="C124" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="C124" s="3"/>
       <c r="D124" s="4"/>
       <c r="E124" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F124" s="4"/>
-      <c r="G124" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G124" s="3"/>
       <c r="H124" s="2"/>
     </row>
     <row r="125" spans="1:8">
@@ -4080,17 +4060,13 @@
         <v>124</v>
       </c>
       <c r="B125" s="2"/>
-      <c r="C125" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="C125" s="3"/>
       <c r="D125" s="4"/>
-      <c r="E125" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F125" s="4"/>
-      <c r="G125" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="E125" s="5"/>
+      <c r="F125" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G125" s="3"/>
       <c r="H125" s="2"/>
     </row>
     <row r="126" spans="1:8">
@@ -4098,13 +4074,9 @@
         <v>125</v>
       </c>
       <c r="B126" s="2"/>
-      <c r="C126" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="C126" s="3"/>
       <c r="D126" s="4"/>
-      <c r="E126" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="E126" s="5"/>
       <c r="F126" s="4"/>
       <c r="G126" s="3" t="s">
         <v>8</v>
@@ -4116,17 +4088,11 @@
         <v>126</v>
       </c>
       <c r="B127" s="2"/>
-      <c r="C127" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="C127" s="3"/>
       <c r="D127" s="4"/>
-      <c r="E127" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="E127" s="5"/>
       <c r="F127" s="4"/>
-      <c r="G127" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G127" s="3"/>
       <c r="H127" s="2"/>
     </row>
     <row r="128" spans="1:8">
@@ -4134,17 +4100,11 @@
         <v>127</v>
       </c>
       <c r="B128" s="2"/>
-      <c r="C128" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="C128" s="3"/>
       <c r="D128" s="4"/>
-      <c r="E128" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="E128" s="5"/>
       <c r="F128" s="4"/>
-      <c r="G128" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G128" s="3"/>
       <c r="H128" s="2"/>
     </row>
     <row r="129" spans="1:8">
@@ -4192,7 +4152,9 @@
       <c r="D132" s="4"/>
       <c r="E132" s="5"/>
       <c r="F132" s="4"/>
-      <c r="G132" s="3"/>
+      <c r="G132" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="H132" s="2"/>
     </row>
     <row r="133" spans="1:8">
@@ -4204,7 +4166,9 @@
       <c r="D133" s="4"/>
       <c r="E133" s="5"/>
       <c r="F133" s="4"/>
-      <c r="G133" s="3"/>
+      <c r="G133" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="H133" s="2"/>
     </row>
     <row r="134" spans="1:8">
@@ -4216,7 +4180,9 @@
       <c r="D134" s="4"/>
       <c r="E134" s="5"/>
       <c r="F134" s="4"/>
-      <c r="G134" s="3"/>
+      <c r="G134" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="H134" s="2"/>
     </row>
     <row r="135" spans="1:8">
@@ -4241,7 +4207,9 @@
       </c>
       <c r="D136" s="4"/>
       <c r="E136" s="5"/>
-      <c r="F136" s="4"/>
+      <c r="F136" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="G136" s="3"/>
       <c r="H136" s="2"/>
     </row>
@@ -4254,7 +4222,9 @@
         <v>9</v>
       </c>
       <c r="D137" s="4"/>
-      <c r="E137" s="5"/>
+      <c r="E137" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F137" s="4"/>
       <c r="G137" s="3"/>
       <c r="H137" s="2"/>
@@ -4279,7 +4249,9 @@
       </c>
       <c r="B139" s="2"/>
       <c r="C139" s="3"/>
-      <c r="D139" s="4"/>
+      <c r="D139" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="E139" s="5"/>
       <c r="F139" s="4"/>
       <c r="G139" s="3"/>
@@ -4302,7 +4274,9 @@
         <v>140</v>
       </c>
       <c r="B141" s="2"/>
-      <c r="C141" s="3"/>
+      <c r="C141" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="D141" s="4"/>
       <c r="E141" s="5"/>
       <c r="F141" s="4"/>
@@ -4314,7 +4288,9 @@
         <v>141</v>
       </c>
       <c r="B142" s="2"/>
-      <c r="C142" s="3"/>
+      <c r="C142" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="D142" s="4"/>
       <c r="E142" s="5"/>
       <c r="F142" s="4"/>
@@ -4326,7 +4302,9 @@
         <v>142</v>
       </c>
       <c r="B143" s="2"/>
-      <c r="C143" s="3"/>
+      <c r="C143" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="D143" s="4"/>
       <c r="E143" s="5"/>
       <c r="F143" s="4" t="s">
@@ -4340,7 +4318,9 @@
         <v>143</v>
       </c>
       <c r="B144" s="2"/>
-      <c r="C144" s="3"/>
+      <c r="C144" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="D144" s="4"/>
       <c r="E144" s="5" t="s">
         <v>9</v>
@@ -4354,7 +4334,9 @@
         <v>144</v>
       </c>
       <c r="B145" s="2"/>
-      <c r="C145" s="3"/>
+      <c r="C145" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="D145" s="4" t="s">
         <v>9</v>
       </c>
@@ -4368,7 +4350,9 @@
         <v>145</v>
       </c>
       <c r="B146" s="2"/>
-      <c r="C146" s="3"/>
+      <c r="C146" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="D146" s="4"/>
       <c r="E146" s="5"/>
       <c r="F146" s="4"/>
@@ -4381,7 +4365,9 @@
       </c>
       <c r="B147" s="2"/>
       <c r="C147" s="3"/>
-      <c r="D147" s="4"/>
+      <c r="D147" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="E147" s="5"/>
       <c r="F147" s="4"/>
       <c r="G147" s="3"/>
@@ -4394,7 +4380,9 @@
       <c r="B148" s="2"/>
       <c r="C148" s="3"/>
       <c r="D148" s="4"/>
-      <c r="E148" s="5"/>
+      <c r="E148" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F148" s="4"/>
       <c r="G148" s="3"/>
       <c r="H148" s="2"/>
@@ -4406,7 +4394,9 @@
       <c r="B149" s="2"/>
       <c r="C149" s="3"/>
       <c r="D149" s="4"/>
-      <c r="E149" s="5"/>
+      <c r="E149" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F149" s="4"/>
       <c r="G149" s="3"/>
       <c r="H149" s="2"/>
@@ -4418,7 +4408,9 @@
       <c r="B150" s="2"/>
       <c r="C150" s="3"/>
       <c r="D150" s="4"/>
-      <c r="E150" s="5"/>
+      <c r="E150" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F150" s="4"/>
       <c r="G150" s="3"/>
       <c r="H150" s="2"/>
@@ -4430,7 +4422,9 @@
       <c r="B151" s="2"/>
       <c r="C151" s="3"/>
       <c r="D151" s="4"/>
-      <c r="E151" s="5"/>
+      <c r="E151" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F151" s="4"/>
       <c r="G151" s="3"/>
       <c r="H151" s="2"/>
@@ -4530,7 +4524,9 @@
       <c r="B159" s="2"/>
       <c r="C159" s="3"/>
       <c r="D159" s="4"/>
-      <c r="E159" s="5"/>
+      <c r="E159" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F159" s="4"/>
       <c r="G159" s="3"/>
       <c r="H159" s="2"/>
@@ -4542,7 +4538,9 @@
       <c r="B160" s="2"/>
       <c r="C160" s="3"/>
       <c r="D160" s="4"/>
-      <c r="E160" s="5"/>
+      <c r="E160" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F160" s="4"/>
       <c r="G160" s="3"/>
       <c r="H160" s="2"/>
@@ -4554,7 +4552,9 @@
       <c r="B161" s="2"/>
       <c r="C161" s="3"/>
       <c r="D161" s="4"/>
-      <c r="E161" s="5"/>
+      <c r="E161" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F161" s="4"/>
       <c r="G161" s="3"/>
       <c r="H161" s="2"/>
@@ -4564,17 +4564,13 @@
         <v>161</v>
       </c>
       <c r="B162" s="2"/>
-      <c r="C162" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="C162" s="3"/>
       <c r="D162" s="4"/>
       <c r="E162" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F162" s="4"/>
-      <c r="G162" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G162" s="3"/>
       <c r="H162" s="2"/>
     </row>
     <row r="163" spans="1:8">
@@ -4582,17 +4578,11 @@
         <v>162</v>
       </c>
       <c r="B163" s="2"/>
-      <c r="C163" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="C163" s="3"/>
       <c r="D163" s="4"/>
-      <c r="E163" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="E163" s="5"/>
       <c r="F163" s="4"/>
-      <c r="G163" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G163" s="3"/>
       <c r="H163" s="2"/>
     </row>
     <row r="164" spans="1:8">
@@ -4600,17 +4590,13 @@
         <v>163</v>
       </c>
       <c r="B164" s="2"/>
-      <c r="C164" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="C164" s="3"/>
       <c r="D164" s="4"/>
       <c r="E164" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F164" s="4"/>
-      <c r="G164" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G164" s="3"/>
       <c r="H164" s="2"/>
     </row>
     <row r="165" spans="1:8">
@@ -4618,17 +4604,11 @@
         <v>164</v>
       </c>
       <c r="B165" s="2"/>
-      <c r="C165" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="C165" s="3"/>
       <c r="D165" s="4"/>
-      <c r="E165" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="E165" s="5"/>
       <c r="F165" s="4"/>
-      <c r="G165" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G165" s="3"/>
       <c r="H165" s="2"/>
     </row>
     <row r="166" spans="1:8">
@@ -4636,17 +4616,11 @@
         <v>165</v>
       </c>
       <c r="B166" s="2"/>
-      <c r="C166" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="C166" s="3"/>
       <c r="D166" s="4"/>
-      <c r="E166" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="E166" s="5"/>
       <c r="F166" s="4"/>
-      <c r="G166" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G166" s="3"/>
       <c r="H166" s="2"/>
     </row>
   </sheetData>
@@ -4661,8 +4635,8 @@
   <sheetPr/>
   <dimension ref="A1:H166"/>
   <sheetViews>
-    <sheetView zoomScale="65" zoomScaleNormal="65" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="E171" sqref="E171"/>
+    <sheetView zoomScale="65" zoomScaleNormal="65" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="H139" sqref="H139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.90833333333333" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -4878,7 +4852,9 @@
         <v>16</v>
       </c>
       <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="D17" s="4"/>
       <c r="E17" s="5" t="s">
         <v>10</v>
@@ -4954,7 +4930,9 @@
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="5"/>
+      <c r="E23" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F23" s="4"/>
       <c r="G23" s="3"/>
       <c r="H23" s="2"/>
@@ -4966,7 +4944,9 @@
       <c r="B24" s="2"/>
       <c r="C24" s="3"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="5"/>
+      <c r="E24" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F24" s="4"/>
       <c r="G24" s="3"/>
       <c r="H24" s="2"/>
@@ -4980,7 +4960,9 @@
         <v>10</v>
       </c>
       <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
+      <c r="E25" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F25" s="4"/>
       <c r="G25" s="3" t="s">
         <v>10</v>
@@ -5018,14 +5000,10 @@
       <c r="B28" s="2"/>
       <c r="C28" s="3"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="E28" s="5"/>
       <c r="F28" s="4"/>
       <c r="G28" s="3"/>
-      <c r="H28" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="H28" s="2"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="6">
@@ -5034,9 +5012,7 @@
       <c r="B29" s="2"/>
       <c r="C29" s="3"/>
       <c r="D29" s="4"/>
-      <c r="E29" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="E29" s="5"/>
       <c r="F29" s="4"/>
       <c r="G29" s="3"/>
       <c r="H29" s="2"/>
@@ -5232,7 +5208,9 @@
       <c r="D44" s="4"/>
       <c r="E44" s="5"/>
       <c r="F44" s="4"/>
-      <c r="G44" s="3"/>
+      <c r="G44" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="H44" s="2"/>
     </row>
     <row r="45" spans="1:8">
@@ -5245,7 +5223,9 @@
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="5"/>
-      <c r="F45" s="4"/>
+      <c r="F45" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="G45" s="3"/>
       <c r="H45" s="2"/>
     </row>
@@ -5258,7 +5238,9 @@
         <v>9</v>
       </c>
       <c r="D46" s="4"/>
-      <c r="E46" s="5"/>
+      <c r="E46" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F46" s="4"/>
       <c r="G46" s="3"/>
       <c r="H46" s="2"/>
@@ -5270,7 +5252,9 @@
       <c r="B47" s="2"/>
       <c r="C47" s="3"/>
       <c r="D47" s="4"/>
-      <c r="E47" s="5"/>
+      <c r="E47" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F47" s="4"/>
       <c r="G47" s="3"/>
       <c r="H47" s="2"/>
@@ -5372,7 +5356,9 @@
         <v>54</v>
       </c>
       <c r="B55" s="2"/>
-      <c r="C55" s="3"/>
+      <c r="C55" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="D55" s="4"/>
       <c r="E55" s="5"/>
       <c r="F55" s="4"/>
@@ -5386,7 +5372,9 @@
         <v>55</v>
       </c>
       <c r="B56" s="2"/>
-      <c r="C56" s="3"/>
+      <c r="C56" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="D56" s="4"/>
       <c r="E56" s="5"/>
       <c r="F56" s="4"/>
@@ -5398,9 +5386,2243 @@
         <v>56</v>
       </c>
       <c r="B57" s="2"/>
+      <c r="C57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="4"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="2"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="6">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="4"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="2"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="6">
+        <v>58</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="4"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="2"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="6">
+        <v>59</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="4"/>
+      <c r="E60" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" s="4"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="2"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="6">
+        <v>60</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="2"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="6">
+        <v>61</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="2"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="6">
+        <v>62</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="2"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="6">
+        <v>63</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="2"/>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="6">
+        <v>64</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="2"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="6">
+        <v>65</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="2"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="6">
+        <v>66</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="2"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="6">
+        <v>67</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="2"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="6">
+        <v>68</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="4"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H69" s="2"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="6">
+        <v>69</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="4"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H70" s="2"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="6">
+        <v>70</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="4"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H71" s="2"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="6">
+        <v>71</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H72" s="2"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="6">
+        <v>72</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H73" s="2"/>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="6">
+        <v>73</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="2"/>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="6">
+        <v>74</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="2"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="6">
+        <v>75</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="2"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="6">
+        <v>76</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77" s="4"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="2"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="6">
+        <v>77</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78" s="4"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="2"/>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="6">
+        <v>78</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79" s="4"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="2"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="6">
+        <v>79</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" s="4"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="2"/>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="6">
+        <v>80</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="2"/>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="6">
+        <v>81</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="2"/>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="6">
+        <v>82</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="2"/>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="6">
+        <v>83</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="2"/>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="6">
+        <v>84</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="4"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="2"/>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="6">
+        <v>85</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E86" s="5"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="2"/>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="6">
+        <v>86</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F87" s="4"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="2"/>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="6">
+        <v>87</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="2"/>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="6">
+        <v>88</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="2"/>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="6">
+        <v>89</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H90" s="2"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="6">
+        <v>90</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H91" s="2"/>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="6">
+        <v>91</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H92" s="2"/>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="6">
+        <v>92</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H93" s="2"/>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="6">
+        <v>93</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H94" s="2"/>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="6">
+        <v>94</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G95" s="3"/>
+      <c r="H95" s="2"/>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="6">
+        <v>95</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F96" s="4"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="2"/>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="6">
+        <v>96</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E97" s="5"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="2"/>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="6">
+        <v>97</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" s="4"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="2"/>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="6">
+        <v>98</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99" s="4"/>
+      <c r="E99" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F99" s="4"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="2"/>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="6">
+        <v>99</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100" s="4"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="2"/>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="6">
+        <v>100</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" s="4"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="2"/>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="6">
+        <v>101</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="2"/>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="6">
+        <v>102</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="3"/>
+      <c r="H103" s="2"/>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="6">
+        <v>103</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104" s="5"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="3"/>
+      <c r="H104" s="2"/>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="6">
+        <v>104</v>
+      </c>
+      <c r="B105" s="2"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="3"/>
+      <c r="H105" s="2"/>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="6">
+        <v>105</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="4"/>
+      <c r="E106" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F106" s="4"/>
+      <c r="G106" s="3"/>
+      <c r="H106" s="2"/>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="6">
+        <v>106</v>
+      </c>
+      <c r="B107" s="2"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F107" s="4"/>
+      <c r="G107" s="3"/>
+      <c r="H107" s="2"/>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="6">
+        <v>107</v>
+      </c>
+      <c r="B108" s="2"/>
+      <c r="C108" s="3"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F108" s="4"/>
+      <c r="G108" s="3"/>
+      <c r="H108" s="2"/>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="6">
+        <v>108</v>
+      </c>
+      <c r="B109" s="2"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F109" s="4"/>
+      <c r="G109" s="3"/>
+      <c r="H109" s="2"/>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="6">
+        <v>109</v>
+      </c>
+      <c r="B110" s="2"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="3"/>
+      <c r="H110" s="2"/>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="6">
+        <v>110</v>
+      </c>
+      <c r="B111" s="2"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="3"/>
+      <c r="H111" s="2"/>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="6">
+        <v>111</v>
+      </c>
+      <c r="B112" s="2"/>
+      <c r="C112" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D112" s="4"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="3"/>
+      <c r="H112" s="2"/>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="6">
+        <v>112</v>
+      </c>
+      <c r="B113" s="2"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="4"/>
+      <c r="G113" s="3"/>
+      <c r="H113" s="2"/>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="6">
+        <v>113</v>
+      </c>
+      <c r="B114" s="2"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="4"/>
+      <c r="G114" s="3"/>
+      <c r="H114" s="2"/>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="6">
+        <v>114</v>
+      </c>
+      <c r="B115" s="2"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F115" s="4"/>
+      <c r="G115" s="3"/>
+      <c r="H115" s="2"/>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="6">
+        <v>115</v>
+      </c>
+      <c r="B116" s="2"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="4"/>
+      <c r="G116" s="3"/>
+      <c r="H116" s="2"/>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="6">
+        <v>116</v>
+      </c>
+      <c r="B117" s="2"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="4"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="4"/>
+      <c r="G117" s="3"/>
+      <c r="H117" s="2"/>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="6">
+        <v>117</v>
+      </c>
+      <c r="B118" s="2"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="4"/>
+      <c r="G118" s="3"/>
+      <c r="H118" s="2"/>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="6">
+        <v>118</v>
+      </c>
+      <c r="B119" s="2"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="4"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="4"/>
+      <c r="G119" s="3"/>
+      <c r="H119" s="2"/>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="6">
+        <v>119</v>
+      </c>
+      <c r="B120" s="2"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="4"/>
+      <c r="G120" s="3"/>
+      <c r="H120" s="2"/>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="6">
+        <v>120</v>
+      </c>
+      <c r="B121" s="2"/>
+      <c r="C121" s="3"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="4"/>
+      <c r="G121" s="3"/>
+      <c r="H121" s="2"/>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="6">
+        <v>121</v>
+      </c>
+      <c r="B122" s="2"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="4"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="4"/>
+      <c r="G122" s="3"/>
+      <c r="H122" s="2"/>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="6">
+        <v>122</v>
+      </c>
+      <c r="B123" s="2"/>
+      <c r="C123" s="3"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="4"/>
+      <c r="G123" s="3"/>
+      <c r="H123" s="2"/>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="6">
+        <v>123</v>
+      </c>
+      <c r="B124" s="2"/>
+      <c r="C124" s="3"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F124" s="4"/>
+      <c r="G124" s="3"/>
+      <c r="H124" s="2"/>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="6">
+        <v>124</v>
+      </c>
+      <c r="B125" s="2"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F125" s="4"/>
+      <c r="G125" s="3"/>
+      <c r="H125" s="2"/>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="6">
+        <v>125</v>
+      </c>
+      <c r="B126" s="2"/>
+      <c r="C126" s="3"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F126" s="4"/>
+      <c r="G126" s="3"/>
+      <c r="H126" s="2"/>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="6">
+        <v>126</v>
+      </c>
+      <c r="B127" s="2"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="4"/>
+      <c r="E127" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F127" s="4"/>
+      <c r="G127" s="3"/>
+      <c r="H127" s="2"/>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" s="6">
+        <v>127</v>
+      </c>
+      <c r="B128" s="2"/>
+      <c r="C128" s="3"/>
+      <c r="D128" s="4"/>
+      <c r="E128" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F128" s="4"/>
+      <c r="G128" s="3"/>
+      <c r="H128" s="2"/>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" s="6">
+        <v>128</v>
+      </c>
+      <c r="B129" s="2"/>
+      <c r="C129" s="3"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="4"/>
+      <c r="G129" s="3"/>
+      <c r="H129" s="2"/>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="6">
+        <v>129</v>
+      </c>
+      <c r="B130" s="2"/>
+      <c r="C130" s="3"/>
+      <c r="D130" s="4"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="4"/>
+      <c r="G130" s="3"/>
+      <c r="H130" s="2"/>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" s="6">
+        <v>130</v>
+      </c>
+      <c r="B131" s="2"/>
+      <c r="C131" s="3"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="4"/>
+      <c r="G131" s="3"/>
+      <c r="H131" s="2"/>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" s="6">
+        <v>131</v>
+      </c>
+      <c r="B132" s="2"/>
+      <c r="C132" s="3"/>
+      <c r="D132" s="4"/>
+      <c r="E132" s="10"/>
+      <c r="F132" s="4"/>
+      <c r="G132" s="3"/>
+      <c r="H132" s="2"/>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" s="6">
+        <v>132</v>
+      </c>
+      <c r="B133" s="2"/>
+      <c r="C133" s="3"/>
+      <c r="D133" s="4"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="4"/>
+      <c r="G133" s="3"/>
+      <c r="H133" s="2"/>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" s="6">
+        <v>133</v>
+      </c>
+      <c r="B134" s="2"/>
+      <c r="C134" s="3"/>
+      <c r="D134" s="4"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="4"/>
+      <c r="G134" s="3"/>
+      <c r="H134" s="2"/>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" s="6">
+        <v>134</v>
+      </c>
+      <c r="B135" s="2"/>
+      <c r="C135" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E135" s="5"/>
+      <c r="F135" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H135" s="2"/>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" s="6">
+        <v>135</v>
+      </c>
+      <c r="B136" s="2"/>
+      <c r="C136" s="3"/>
+      <c r="D136" s="4"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="4"/>
+      <c r="G136" s="3"/>
+      <c r="H136" s="2"/>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" s="6">
+        <v>136</v>
+      </c>
+      <c r="B137" s="2"/>
+      <c r="C137" s="3"/>
+      <c r="D137" s="4"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="4"/>
+      <c r="G137" s="3"/>
+      <c r="H137" s="2"/>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" s="6">
+        <v>137</v>
+      </c>
+      <c r="B138" s="2"/>
+      <c r="C138" s="3"/>
+      <c r="D138" s="4"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="4"/>
+      <c r="G138" s="3"/>
+      <c r="H138" s="2"/>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" s="6">
+        <v>138</v>
+      </c>
+      <c r="B139" s="2"/>
+      <c r="C139" s="3"/>
+      <c r="D139" s="4"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="4"/>
+      <c r="G139" s="3"/>
+      <c r="H139" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" s="6">
+        <v>139</v>
+      </c>
+      <c r="B140" s="2"/>
+      <c r="C140" s="3"/>
+      <c r="D140" s="4"/>
+      <c r="E140" s="5"/>
+      <c r="F140" s="4"/>
+      <c r="G140" s="3"/>
+      <c r="H140" s="2"/>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" s="6">
+        <v>140</v>
+      </c>
+      <c r="B141" s="2"/>
+      <c r="C141" s="3"/>
+      <c r="D141" s="4"/>
+      <c r="E141" s="5"/>
+      <c r="F141" s="4"/>
+      <c r="G141" s="3"/>
+      <c r="H141" s="2"/>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" s="6">
+        <v>141</v>
+      </c>
+      <c r="B142" s="2"/>
+      <c r="C142" s="3"/>
+      <c r="D142" s="4"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="4"/>
+      <c r="G142" s="3"/>
+      <c r="H142" s="2"/>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143" s="6">
+        <v>142</v>
+      </c>
+      <c r="B143" s="2"/>
+      <c r="C143" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G143" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H143" s="2"/>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" s="6">
+        <v>143</v>
+      </c>
+      <c r="B144" s="2"/>
+      <c r="C144" s="3"/>
+      <c r="D144" s="4"/>
+      <c r="E144" s="5"/>
+      <c r="F144" s="4"/>
+      <c r="G144" s="3"/>
+      <c r="H144" s="2"/>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" s="6">
+        <v>144</v>
+      </c>
+      <c r="B145" s="2"/>
+      <c r="C145" s="3"/>
+      <c r="D145" s="4"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="4"/>
+      <c r="G145" s="3"/>
+      <c r="H145" s="2"/>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146" s="6">
+        <v>145</v>
+      </c>
+      <c r="B146" s="2"/>
+      <c r="C146" s="3"/>
+      <c r="D146" s="4"/>
+      <c r="E146" s="5"/>
+      <c r="F146" s="4"/>
+      <c r="G146" s="3"/>
+      <c r="H146" s="2"/>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147" s="6">
+        <v>146</v>
+      </c>
+      <c r="B147" s="2"/>
+      <c r="C147" s="3"/>
+      <c r="D147" s="4"/>
+      <c r="E147" s="5"/>
+      <c r="F147" s="4"/>
+      <c r="G147" s="3"/>
+      <c r="H147" s="2"/>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148" s="6">
+        <v>147</v>
+      </c>
+      <c r="B148" s="2"/>
+      <c r="C148" s="3"/>
+      <c r="D148" s="4"/>
+      <c r="E148" s="5"/>
+      <c r="F148" s="4"/>
+      <c r="G148" s="3"/>
+      <c r="H148" s="2"/>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149" s="6">
+        <v>148</v>
+      </c>
+      <c r="B149" s="2"/>
+      <c r="C149" s="3"/>
+      <c r="D149" s="4"/>
+      <c r="E149" s="5"/>
+      <c r="F149" s="4"/>
+      <c r="G149" s="3"/>
+      <c r="H149" s="2"/>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150" s="6">
+        <v>149</v>
+      </c>
+      <c r="B150" s="2"/>
+      <c r="C150" s="3"/>
+      <c r="D150" s="4"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="4"/>
+      <c r="G150" s="3"/>
+      <c r="H150" s="2"/>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151" s="6">
+        <v>150</v>
+      </c>
+      <c r="B151" s="2"/>
+      <c r="C151" s="3"/>
+      <c r="D151" s="4"/>
+      <c r="E151" s="5"/>
+      <c r="F151" s="4"/>
+      <c r="G151" s="3"/>
+      <c r="H151" s="2"/>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152" s="6">
+        <v>151</v>
+      </c>
+      <c r="B152" s="2"/>
+      <c r="C152" s="3"/>
+      <c r="D152" s="4"/>
+      <c r="E152" s="5"/>
+      <c r="F152" s="4"/>
+      <c r="G152" s="3"/>
+      <c r="H152" s="2"/>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153" s="6">
+        <v>152</v>
+      </c>
+      <c r="B153" s="2"/>
+      <c r="C153" s="3"/>
+      <c r="D153" s="4"/>
+      <c r="E153" s="5"/>
+      <c r="F153" s="4"/>
+      <c r="G153" s="3"/>
+      <c r="H153" s="2"/>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154" s="6">
+        <v>153</v>
+      </c>
+      <c r="B154" s="2"/>
+      <c r="C154" s="3"/>
+      <c r="D154" s="4"/>
+      <c r="E154" s="5"/>
+      <c r="F154" s="4"/>
+      <c r="G154" s="3"/>
+      <c r="H154" s="2"/>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155" s="6">
+        <v>154</v>
+      </c>
+      <c r="B155" s="2"/>
+      <c r="C155" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E155" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F155" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G155" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H155" s="2"/>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156" s="6">
+        <v>155</v>
+      </c>
+      <c r="B156" s="2"/>
+      <c r="C156" s="3"/>
+      <c r="D156" s="4"/>
+      <c r="E156" s="5"/>
+      <c r="F156" s="4"/>
+      <c r="G156" s="3"/>
+      <c r="H156" s="2"/>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157" s="6">
+        <v>156</v>
+      </c>
+      <c r="B157" s="2"/>
+      <c r="C157" s="3"/>
+      <c r="D157" s="4"/>
+      <c r="E157" s="5"/>
+      <c r="F157" s="4"/>
+      <c r="G157" s="3"/>
+      <c r="H157" s="2"/>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158" s="6">
+        <v>157</v>
+      </c>
+      <c r="B158" s="2"/>
+      <c r="C158" s="3"/>
+      <c r="D158" s="4"/>
+      <c r="E158" s="5"/>
+      <c r="F158" s="4"/>
+      <c r="G158" s="3"/>
+      <c r="H158" s="2"/>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159" s="6">
+        <v>158</v>
+      </c>
+      <c r="B159" s="2"/>
+      <c r="C159" s="3"/>
+      <c r="D159" s="4"/>
+      <c r="E159" s="5"/>
+      <c r="F159" s="4"/>
+      <c r="G159" s="3"/>
+      <c r="H159" s="2"/>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160" s="6">
+        <v>159</v>
+      </c>
+      <c r="B160" s="2"/>
+      <c r="C160" s="3"/>
+      <c r="D160" s="4"/>
+      <c r="E160" s="5"/>
+      <c r="F160" s="4"/>
+      <c r="G160" s="3"/>
+      <c r="H160" s="2"/>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161" s="6">
+        <v>160</v>
+      </c>
+      <c r="B161" s="2"/>
+      <c r="C161" s="3"/>
+      <c r="D161" s="4"/>
+      <c r="E161" s="5"/>
+      <c r="F161" s="4"/>
+      <c r="G161" s="3"/>
+      <c r="H161" s="2"/>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162" s="6">
+        <v>161</v>
+      </c>
+      <c r="B162" s="2"/>
+      <c r="C162" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D162" s="4"/>
+      <c r="E162" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F162" s="4"/>
+      <c r="G162" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H162" s="2"/>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163" s="6">
+        <v>162</v>
+      </c>
+      <c r="B163" s="2"/>
+      <c r="C163" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D163" s="4"/>
+      <c r="E163" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F163" s="4"/>
+      <c r="G163" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H163" s="2"/>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164" s="6">
+        <v>163</v>
+      </c>
+      <c r="B164" s="2"/>
+      <c r="C164" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D164" s="4"/>
+      <c r="E164" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F164" s="4"/>
+      <c r="G164" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H164" s="2"/>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165" s="6">
+        <v>164</v>
+      </c>
+      <c r="B165" s="2"/>
+      <c r="C165" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D165" s="4"/>
+      <c r="E165" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F165" s="4"/>
+      <c r="G165" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H165" s="2"/>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" s="6">
+        <v>165</v>
+      </c>
+      <c r="B166" s="2"/>
+      <c r="C166" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D166" s="4"/>
+      <c r="E166" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F166" s="4"/>
+      <c r="G166" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H166" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H166"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="G130" sqref="G130"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="6">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="6">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="6">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="6">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="6">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="6">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="6">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="6">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="6">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="6">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="6">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="6">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="6">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="6">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="3"/>
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="6">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="6">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="6">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="6">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="6">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="2"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="6">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="2"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="6">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="5"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="2"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="6">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="2"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="6">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="2"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="6">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="4"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="2"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="6">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="4"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="2"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="6">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="4"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="2"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="6">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="4"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="2"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="6">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="4"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="2"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="6">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="2"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="6">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="2"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="6">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" s="4"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="2"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="6">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="2"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="6">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" s="4"/>
+      <c r="G55" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H55" s="2"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="6">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" s="4"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="2"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="6">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2"/>
       <c r="C57" s="3"/>
       <c r="D57" s="4"/>
-      <c r="E57" s="5"/>
+      <c r="E57" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F57" s="4"/>
       <c r="G57" s="3"/>
       <c r="H57" s="2"/>
@@ -5452,7 +7674,9 @@
       <c r="D61" s="4"/>
       <c r="E61" s="5"/>
       <c r="F61" s="4"/>
-      <c r="G61" s="3"/>
+      <c r="G61" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="H61" s="2"/>
     </row>
     <row r="62" spans="1:8">
@@ -5472,7 +7696,9 @@
         <v>62</v>
       </c>
       <c r="B63" s="2"/>
-      <c r="C63" s="3"/>
+      <c r="C63" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="D63" s="4"/>
       <c r="E63" s="5"/>
       <c r="F63" s="4"/>
@@ -5486,7 +7712,9 @@
       <c r="B64" s="2"/>
       <c r="C64" s="3"/>
       <c r="D64" s="4"/>
-      <c r="E64" s="5"/>
+      <c r="E64" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F64" s="4"/>
       <c r="G64" s="3"/>
       <c r="H64" s="2"/>
@@ -5498,7 +7726,9 @@
       <c r="B65" s="2"/>
       <c r="C65" s="3"/>
       <c r="D65" s="4"/>
-      <c r="E65" s="5"/>
+      <c r="E65" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F65" s="4"/>
       <c r="G65" s="3"/>
       <c r="H65" s="2"/>
@@ -5510,7 +7740,9 @@
       <c r="B66" s="2"/>
       <c r="C66" s="3"/>
       <c r="D66" s="4"/>
-      <c r="E66" s="5"/>
+      <c r="E66" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F66" s="4"/>
       <c r="G66" s="3"/>
       <c r="H66" s="2"/>
@@ -5522,7 +7754,9 @@
       <c r="B67" s="2"/>
       <c r="C67" s="3"/>
       <c r="D67" s="4"/>
-      <c r="E67" s="5"/>
+      <c r="E67" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F67" s="4"/>
       <c r="G67" s="3"/>
       <c r="H67" s="2"/>
@@ -5534,7 +7768,9 @@
       <c r="B68" s="2"/>
       <c r="C68" s="3"/>
       <c r="D68" s="4"/>
-      <c r="E68" s="5"/>
+      <c r="E68" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F68" s="4"/>
       <c r="G68" s="3"/>
       <c r="H68" s="2"/>
@@ -5544,15 +7780,11 @@
         <v>68</v>
       </c>
       <c r="B69" s="2"/>
-      <c r="C69" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="C69" s="3"/>
       <c r="D69" s="4"/>
       <c r="E69" s="5"/>
       <c r="F69" s="4"/>
-      <c r="G69" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="G69" s="3"/>
       <c r="H69" s="2"/>
     </row>
     <row r="70" spans="1:8">
@@ -5560,15 +7792,11 @@
         <v>69</v>
       </c>
       <c r="B70" s="2"/>
-      <c r="C70" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="C70" s="3"/>
       <c r="D70" s="4"/>
       <c r="E70" s="5"/>
       <c r="F70" s="4"/>
-      <c r="G70" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="G70" s="3"/>
       <c r="H70" s="2"/>
     </row>
     <row r="71" spans="1:8">
@@ -5576,15 +7804,11 @@
         <v>70</v>
       </c>
       <c r="B71" s="2"/>
-      <c r="C71" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="C71" s="3"/>
       <c r="D71" s="4"/>
       <c r="E71" s="5"/>
       <c r="F71" s="4"/>
-      <c r="G71" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="G71" s="3"/>
       <c r="H71" s="2"/>
     </row>
     <row r="72" spans="1:8">
@@ -5596,9 +7820,7 @@
       <c r="D72" s="4"/>
       <c r="E72" s="5"/>
       <c r="F72" s="4"/>
-      <c r="G72" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="G72" s="3"/>
       <c r="H72" s="2"/>
     </row>
     <row r="73" spans="1:8">
@@ -5610,9 +7832,7 @@
       <c r="D73" s="4"/>
       <c r="E73" s="5"/>
       <c r="F73" s="4"/>
-      <c r="G73" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="G73" s="3"/>
       <c r="H73" s="2"/>
     </row>
     <row r="74" spans="1:8">
@@ -5632,11 +7852,11 @@
         <v>74</v>
       </c>
       <c r="B75" s="2"/>
-      <c r="C75" s="3"/>
+      <c r="C75" s="8"/>
       <c r="D75" s="4"/>
-      <c r="E75" s="5"/>
+      <c r="E75" s="8"/>
       <c r="F75" s="4"/>
-      <c r="G75" s="3"/>
+      <c r="G75" s="8"/>
       <c r="H75" s="2"/>
     </row>
     <row r="76" spans="1:8">
@@ -5644,17 +7864,11 @@
         <v>75</v>
       </c>
       <c r="B76" s="2"/>
-      <c r="C76" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="C76" s="3"/>
       <c r="D76" s="4"/>
-      <c r="E76" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="E76" s="5"/>
       <c r="F76" s="4"/>
-      <c r="G76" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G76" s="3"/>
       <c r="H76" s="2"/>
     </row>
     <row r="77" spans="1:8">
@@ -5715,9 +7929,7 @@
       <c r="A80" s="6">
         <v>79</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="B80" s="2"/>
       <c r="C80" s="3" t="s">
         <v>8</v>
       </c>
@@ -5784,9 +7996,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="2"/>
-      <c r="C85" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="C85" s="3"/>
       <c r="D85" s="4"/>
       <c r="E85" s="5"/>
       <c r="F85" s="4"/>
@@ -5799,9 +8009,7 @@
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="3"/>
-      <c r="D86" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="D86" s="4"/>
       <c r="E86" s="5"/>
       <c r="F86" s="4"/>
       <c r="G86" s="3"/>
@@ -5814,9 +8022,7 @@
       <c r="B87" s="2"/>
       <c r="C87" s="3"/>
       <c r="D87" s="4"/>
-      <c r="E87" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="E87" s="5"/>
       <c r="F87" s="4"/>
       <c r="G87" s="3"/>
       <c r="H87" s="2"/>
@@ -5850,11 +8056,21 @@
         <v>89</v>
       </c>
       <c r="B90" s="2"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="3"/>
+      <c r="C90" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="H90" s="2"/>
     </row>
     <row r="91" spans="1:8">
@@ -5866,8 +8082,12 @@
       <c r="D91" s="4"/>
       <c r="E91" s="5"/>
       <c r="F91" s="4"/>
-      <c r="G91" s="3"/>
-      <c r="H91" s="2"/>
+      <c r="G91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="6">
@@ -5878,7 +8098,9 @@
       <c r="D92" s="4"/>
       <c r="E92" s="5"/>
       <c r="F92" s="4"/>
-      <c r="G92" s="3"/>
+      <c r="G92" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="H92" s="2"/>
     </row>
     <row r="93" spans="1:8">
@@ -5890,7 +8112,9 @@
       <c r="D93" s="4"/>
       <c r="E93" s="5"/>
       <c r="F93" s="4"/>
-      <c r="G93" s="3"/>
+      <c r="G93" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="H93" s="2"/>
     </row>
     <row r="94" spans="1:8">
@@ -5944,7 +8168,7 @@
       <c r="D97" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E97" s="5"/>
+      <c r="E97" s="9"/>
       <c r="F97" s="4"/>
       <c r="G97" s="3"/>
       <c r="H97" s="2"/>
@@ -5968,9 +8192,13 @@
         <v>98</v>
       </c>
       <c r="B99" s="2"/>
-      <c r="C99" s="3"/>
+      <c r="C99" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="D99" s="4"/>
-      <c r="E99" s="5"/>
+      <c r="E99" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="F99" s="4"/>
       <c r="G99" s="3"/>
       <c r="H99" s="2"/>
@@ -5980,7 +8208,9 @@
         <v>99</v>
       </c>
       <c r="B100" s="2"/>
-      <c r="C100" s="3"/>
+      <c r="C100" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="D100" s="4"/>
       <c r="E100" s="5"/>
       <c r="F100" s="4"/>
@@ -5992,7 +8222,9 @@
         <v>100</v>
       </c>
       <c r="B101" s="2"/>
-      <c r="C101" s="3"/>
+      <c r="C101" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="D101" s="4"/>
       <c r="E101" s="5"/>
       <c r="F101" s="4"/>
@@ -6031,7 +8263,9 @@
       </c>
       <c r="B104" s="2"/>
       <c r="C104" s="3"/>
-      <c r="D104" s="4"/>
+      <c r="D104" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="E104" s="5"/>
       <c r="F104" s="4"/>
       <c r="G104" s="3"/>
@@ -6058,7 +8292,9 @@
         <v>9</v>
       </c>
       <c r="D106" s="4"/>
-      <c r="E106" s="5"/>
+      <c r="E106" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F106" s="4"/>
       <c r="G106" s="3"/>
       <c r="H106" s="2"/>
@@ -6070,7 +8306,9 @@
       <c r="B107" s="2"/>
       <c r="C107" s="3"/>
       <c r="D107" s="4"/>
-      <c r="E107" s="5"/>
+      <c r="E107" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F107" s="4"/>
       <c r="G107" s="3"/>
       <c r="H107" s="2"/>
@@ -6082,7 +8320,9 @@
       <c r="B108" s="2"/>
       <c r="C108" s="3"/>
       <c r="D108" s="4"/>
-      <c r="E108" s="5"/>
+      <c r="E108" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F108" s="4"/>
       <c r="G108" s="3"/>
       <c r="H108" s="2" t="s">
@@ -6096,7 +8336,9 @@
       <c r="B109" s="2"/>
       <c r="C109" s="3"/>
       <c r="D109" s="4"/>
-      <c r="E109" s="5"/>
+      <c r="E109" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F109" s="4"/>
       <c r="G109" s="3"/>
       <c r="H109" s="2"/>
@@ -6169,11 +8411,15 @@
       </c>
       <c r="B115" s="2"/>
       <c r="C115" s="3"/>
-      <c r="D115" s="4"/>
+      <c r="D115" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="E115" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F115" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="G115" s="3"/>
       <c r="H115" s="2"/>
     </row>
@@ -6184,7 +8430,9 @@
       <c r="B116" s="2"/>
       <c r="C116" s="3"/>
       <c r="D116" s="4"/>
-      <c r="E116" s="5"/>
+      <c r="E116" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F116" s="4"/>
       <c r="G116" s="3"/>
       <c r="H116" s="2"/>
@@ -6196,7 +8444,9 @@
       <c r="B117" s="2"/>
       <c r="C117" s="3"/>
       <c r="D117" s="4"/>
-      <c r="E117" s="5"/>
+      <c r="E117" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F117" s="4"/>
       <c r="G117" s="3"/>
       <c r="H117" s="2"/>
@@ -6208,7 +8458,9 @@
       <c r="B118" s="2"/>
       <c r="C118" s="3"/>
       <c r="D118" s="4"/>
-      <c r="E118" s="5"/>
+      <c r="E118" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F118" s="4"/>
       <c r="G118" s="3"/>
       <c r="H118" s="2"/>
@@ -6233,7 +8485,9 @@
       <c r="C120" s="3"/>
       <c r="D120" s="4"/>
       <c r="E120" s="5"/>
-      <c r="F120" s="4"/>
+      <c r="F120" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="G120" s="3"/>
       <c r="H120" s="2"/>
     </row>
@@ -6246,7 +8500,9 @@
       <c r="D121" s="4"/>
       <c r="E121" s="5"/>
       <c r="F121" s="4"/>
-      <c r="G121" s="3"/>
+      <c r="G121" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="H121" s="2"/>
     </row>
     <row r="122" spans="1:8">
@@ -6258,7 +8514,9 @@
       <c r="D122" s="4"/>
       <c r="E122" s="5"/>
       <c r="F122" s="4"/>
-      <c r="G122" s="3"/>
+      <c r="G122" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="H122" s="2"/>
     </row>
     <row r="123" spans="1:8">
@@ -6270,7 +8528,9 @@
       <c r="D123" s="4"/>
       <c r="E123" s="5"/>
       <c r="F123" s="4"/>
-      <c r="G123" s="3"/>
+      <c r="G123" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="H123" s="2"/>
     </row>
     <row r="124" spans="1:8">
@@ -6278,17 +8538,11 @@
         <v>123</v>
       </c>
       <c r="B124" s="2"/>
-      <c r="C124" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="C124" s="3"/>
       <c r="D124" s="4"/>
-      <c r="E124" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="E124" s="5"/>
       <c r="F124" s="4"/>
-      <c r="G124" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G124" s="3"/>
       <c r="H124" s="2"/>
     </row>
     <row r="125" spans="1:8">
@@ -6296,17 +8550,13 @@
         <v>124</v>
       </c>
       <c r="B125" s="2"/>
-      <c r="C125" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="C125" s="3"/>
       <c r="D125" s="4"/>
-      <c r="E125" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F125" s="4"/>
-      <c r="G125" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="E125" s="5"/>
+      <c r="F125" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G125" s="3"/>
       <c r="H125" s="2"/>
     </row>
     <row r="126" spans="1:8">
@@ -6314,17 +8564,13 @@
         <v>125</v>
       </c>
       <c r="B126" s="2"/>
-      <c r="C126" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="C126" s="3"/>
       <c r="D126" s="4"/>
       <c r="E126" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F126" s="4"/>
-      <c r="G126" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G126" s="3"/>
       <c r="H126" s="2"/>
     </row>
     <row r="127" spans="1:8">
@@ -6332,17 +8578,13 @@
         <v>126</v>
       </c>
       <c r="B127" s="2"/>
-      <c r="C127" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D127" s="4"/>
-      <c r="E127" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="C127" s="3"/>
+      <c r="D127" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E127" s="5"/>
       <c r="F127" s="4"/>
-      <c r="G127" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G127" s="3"/>
       <c r="H127" s="2"/>
     </row>
     <row r="128" spans="1:8">
@@ -6350,17 +8592,11 @@
         <v>127</v>
       </c>
       <c r="B128" s="2"/>
-      <c r="C128" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="C128" s="3"/>
       <c r="D128" s="4"/>
-      <c r="E128" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="E128" s="5"/>
       <c r="F128" s="4"/>
-      <c r="G128" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G128" s="3"/>
       <c r="H128" s="2"/>
     </row>
     <row r="129" spans="1:8">
@@ -6368,7 +8604,9 @@
         <v>128</v>
       </c>
       <c r="B129" s="2"/>
-      <c r="C129" s="3"/>
+      <c r="C129" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="D129" s="4"/>
       <c r="E129" s="5"/>
       <c r="F129" s="4"/>
@@ -6381,7 +8619,9 @@
       </c>
       <c r="B130" s="2"/>
       <c r="C130" s="3"/>
-      <c r="D130" s="4"/>
+      <c r="D130" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="E130" s="5"/>
       <c r="F130" s="4"/>
       <c r="G130" s="3"/>
@@ -6406,7 +8646,9 @@
       <c r="B132" s="2"/>
       <c r="C132" s="3"/>
       <c r="D132" s="4"/>
-      <c r="E132" s="5"/>
+      <c r="E132" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F132" s="4"/>
       <c r="G132" s="3"/>
       <c r="H132" s="2"/>
@@ -6440,19 +8682,11 @@
         <v>134</v>
       </c>
       <c r="B135" s="2"/>
-      <c r="C135" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D135" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="C135" s="3"/>
+      <c r="D135" s="4"/>
       <c r="E135" s="5"/>
-      <c r="F135" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G135" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="F135" s="4"/>
+      <c r="G135" s="3"/>
       <c r="H135" s="2"/>
     </row>
     <row r="136" spans="1:8">
@@ -6496,11 +8730,17 @@
         <v>138</v>
       </c>
       <c r="B139" s="2"/>
-      <c r="C139" s="3"/>
+      <c r="C139" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="D139" s="4"/>
-      <c r="E139" s="5"/>
+      <c r="E139" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="F139" s="4"/>
-      <c r="G139" s="3"/>
+      <c r="G139" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="H139" s="2"/>
     </row>
     <row r="140" spans="1:8">
@@ -6510,7 +8750,9 @@
       <c r="B140" s="2"/>
       <c r="C140" s="3"/>
       <c r="D140" s="4"/>
-      <c r="E140" s="5"/>
+      <c r="E140" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="F140" s="4"/>
       <c r="G140" s="3"/>
       <c r="H140" s="2"/>
@@ -6522,7 +8764,9 @@
       <c r="B141" s="2"/>
       <c r="C141" s="3"/>
       <c r="D141" s="4"/>
-      <c r="E141" s="5"/>
+      <c r="E141" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="F141" s="4"/>
       <c r="G141" s="3"/>
       <c r="H141" s="2"/>
@@ -6534,7 +8778,9 @@
       <c r="B142" s="2"/>
       <c r="C142" s="3"/>
       <c r="D142" s="4"/>
-      <c r="E142" s="5"/>
+      <c r="E142" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="F142" s="4"/>
       <c r="G142" s="3"/>
       <c r="H142" s="2"/>
@@ -6547,15 +8793,11 @@
       <c r="C143" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D143" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="D143" s="4"/>
       <c r="E143" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F143" s="4" t="s">
-        <v>9</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F143" s="4"/>
       <c r="G143" s="3" t="s">
         <v>10</v>
       </c>
@@ -6568,7 +8810,9 @@
       <c r="B144" s="2"/>
       <c r="C144" s="3"/>
       <c r="D144" s="4"/>
-      <c r="E144" s="5"/>
+      <c r="E144" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F144" s="4"/>
       <c r="G144" s="3"/>
       <c r="H144" s="2"/>
@@ -6580,7 +8824,9 @@
       <c r="B145" s="2"/>
       <c r="C145" s="3"/>
       <c r="D145" s="4"/>
-      <c r="E145" s="5"/>
+      <c r="E145" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F145" s="4"/>
       <c r="G145" s="3"/>
       <c r="H145" s="2"/>
@@ -6592,7 +8838,9 @@
       <c r="B146" s="2"/>
       <c r="C146" s="3"/>
       <c r="D146" s="4"/>
-      <c r="E146" s="5"/>
+      <c r="E146" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F146" s="4"/>
       <c r="G146" s="3"/>
       <c r="H146" s="2"/>
@@ -6602,11 +8850,17 @@
         <v>146</v>
       </c>
       <c r="B147" s="2"/>
-      <c r="C147" s="3"/>
+      <c r="C147" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="D147" s="4"/>
-      <c r="E147" s="5"/>
+      <c r="E147" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F147" s="4"/>
-      <c r="G147" s="3"/>
+      <c r="G147" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="H147" s="2"/>
     </row>
     <row r="148" spans="1:8">
@@ -6616,7 +8870,9 @@
       <c r="B148" s="2"/>
       <c r="C148" s="3"/>
       <c r="D148" s="4"/>
-      <c r="E148" s="5"/>
+      <c r="E148" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F148" s="4"/>
       <c r="G148" s="3"/>
       <c r="H148" s="2"/>
@@ -6628,7 +8884,9 @@
       <c r="B149" s="2"/>
       <c r="C149" s="3"/>
       <c r="D149" s="4"/>
-      <c r="E149" s="5"/>
+      <c r="E149" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F149" s="4"/>
       <c r="G149" s="3"/>
       <c r="H149" s="2"/>
@@ -6640,7 +8898,9 @@
       <c r="B150" s="2"/>
       <c r="C150" s="3"/>
       <c r="D150" s="4"/>
-      <c r="E150" s="5"/>
+      <c r="E150" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F150" s="4"/>
       <c r="G150" s="3"/>
       <c r="H150" s="2"/>
@@ -6674,11 +8934,17 @@
         <v>152</v>
       </c>
       <c r="B153" s="2"/>
-      <c r="C153" s="3"/>
+      <c r="C153" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="D153" s="4"/>
-      <c r="E153" s="5"/>
+      <c r="E153" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F153" s="4"/>
-      <c r="G153" s="3"/>
+      <c r="G153" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="H153" s="2"/>
     </row>
     <row r="154" spans="1:8">
@@ -6686,11 +8952,17 @@
         <v>153</v>
       </c>
       <c r="B154" s="2"/>
-      <c r="C154" s="3"/>
+      <c r="C154" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="D154" s="4"/>
-      <c r="E154" s="5"/>
+      <c r="E154" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F154" s="4"/>
-      <c r="G154" s="3"/>
+      <c r="G154" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="H154" s="2"/>
     </row>
     <row r="155" spans="1:8">
@@ -6699,19 +8971,15 @@
       </c>
       <c r="B155" s="2"/>
       <c r="C155" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D155" s="4" t="s">
-        <v>9</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D155" s="4"/>
       <c r="E155" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F155" s="4" t="s">
-        <v>9</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F155" s="4"/>
       <c r="G155" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H155" s="2"/>
     </row>
@@ -6720,11 +8988,17 @@
         <v>155</v>
       </c>
       <c r="B156" s="2"/>
-      <c r="C156" s="3"/>
+      <c r="C156" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="D156" s="4"/>
-      <c r="E156" s="5"/>
+      <c r="E156" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F156" s="4"/>
-      <c r="G156" s="3"/>
+      <c r="G156" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="H156" s="2"/>
     </row>
     <row r="157" spans="1:8">
@@ -6732,11 +9006,17 @@
         <v>156</v>
       </c>
       <c r="B157" s="2"/>
-      <c r="C157" s="3"/>
+      <c r="C157" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="D157" s="4"/>
-      <c r="E157" s="5"/>
+      <c r="E157" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F157" s="4"/>
-      <c r="G157" s="3"/>
+      <c r="G157" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="H157" s="2"/>
     </row>
     <row r="158" spans="1:8">
@@ -6744,11 +9024,17 @@
         <v>157</v>
       </c>
       <c r="B158" s="2"/>
-      <c r="C158" s="3"/>
+      <c r="C158" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="D158" s="4"/>
-      <c r="E158" s="5"/>
+      <c r="E158" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F158" s="4"/>
-      <c r="G158" s="3"/>
+      <c r="G158" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="H158" s="2"/>
     </row>
     <row r="159" spans="1:8">
@@ -6756,11 +9042,17 @@
         <v>158</v>
       </c>
       <c r="B159" s="2"/>
-      <c r="C159" s="3"/>
+      <c r="C159" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="D159" s="4"/>
-      <c r="E159" s="5"/>
+      <c r="E159" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F159" s="4"/>
-      <c r="G159" s="3"/>
+      <c r="G159" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="H159" s="2"/>
     </row>
     <row r="160" spans="1:8">
@@ -6768,11 +9060,17 @@
         <v>159</v>
       </c>
       <c r="B160" s="2"/>
-      <c r="C160" s="3"/>
+      <c r="C160" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="D160" s="4"/>
-      <c r="E160" s="5"/>
+      <c r="E160" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F160" s="4"/>
-      <c r="G160" s="3"/>
+      <c r="G160" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="H160" s="2"/>
     </row>
     <row r="161" spans="1:8">
@@ -6780,11 +9078,17 @@
         <v>160</v>
       </c>
       <c r="B161" s="2"/>
-      <c r="C161" s="3"/>
+      <c r="C161" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="D161" s="4"/>
-      <c r="E161" s="5"/>
+      <c r="E161" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F161" s="4"/>
-      <c r="G161" s="3"/>
+      <c r="G161" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="H161" s="2"/>
     </row>
     <row r="162" spans="1:8">
@@ -6878,8 +9182,7 @@
       <c r="H166" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/TankRunner/Assets/Resources/LD.xlsx
+++ b/TankRunner/Assets/Resources/LD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420" tabRatio="475" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12420" tabRatio="475" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="lv1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="12">
   <si>
     <t>row</t>
   </si>
@@ -1087,7 +1087,7 @@
   <sheetPr/>
   <dimension ref="A1:H166"/>
   <sheetViews>
-    <sheetView topLeftCell="B103" workbookViewId="0">
+    <sheetView topLeftCell="B28" workbookViewId="0">
       <selection activeCell="F103" sqref="F103"/>
     </sheetView>
   </sheetViews>
@@ -2425,8 +2425,8 @@
   <sheetPr/>
   <dimension ref="A1:H166"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="E164" sqref="E164"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="H129" sqref="H129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.90833333333333" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -4117,7 +4117,9 @@
       <c r="E129" s="5"/>
       <c r="F129" s="4"/>
       <c r="G129" s="3"/>
-      <c r="H129" s="2"/>
+      <c r="H129" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="6">
@@ -4635,8 +4637,8 @@
   <sheetPr/>
   <dimension ref="A1:H166"/>
   <sheetViews>
-    <sheetView zoomScale="65" zoomScaleNormal="65" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="H139" sqref="H139"/>
+    <sheetView zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.90833333333333" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -5159,7 +5161,9 @@
       <c r="E40" s="5"/>
       <c r="F40" s="4"/>
       <c r="G40" s="3"/>
-      <c r="H40" s="2"/>
+      <c r="H40" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="6">
@@ -5857,7 +5861,9 @@
       <c r="G92" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H92" s="2"/>
+      <c r="H92" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="6">
@@ -6867,7 +6873,7 @@
   <sheetPr/>
   <dimension ref="A1:H166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+    <sheetView topLeftCell="A82" workbookViewId="0">
       <selection activeCell="G130" sqref="G130"/>
     </sheetView>
   </sheetViews>

--- a/TankRunner/Assets/Resources/LD.xlsx
+++ b/TankRunner/Assets/Resources/LD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420" tabRatio="475" activeTab="1"/>
+    <workbookView windowWidth="24225" windowHeight="12540" tabRatio="475"/>
   </bookViews>
   <sheets>
     <sheet name="lv1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="12">
   <si>
     <t>row</t>
   </si>
@@ -43,6 +43,9 @@
     <t>SideRight</t>
   </si>
   <si>
+    <t>R</t>
+  </si>
+  <si>
     <t>G</t>
   </si>
   <si>
@@ -50,9 +53,6 @@
   </si>
   <si>
     <t>H</t>
-  </si>
-  <si>
-    <t>R</t>
   </si>
 </sst>
 </file>
@@ -1085,10 +1085,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H166"/>
+  <dimension ref="A1:H171"/>
   <sheetViews>
-    <sheetView topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="F103" sqref="F103"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.90833333333333" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1134,557 +1134,544 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="6">
-        <v>6</v>
-      </c>
-    </row>
     <row r="8" spans="1:1">
       <c r="A8" s="6">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="6">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
       <c r="A11" s="6">
-        <v>10</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="6">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="6">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="6">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="6">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>10</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>11</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="6">
-        <v>17</v>
-      </c>
-      <c r="E18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="6">
+        <v>13</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="6">
+        <v>14</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="6">
+        <v>15</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="6">
+        <v>16</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="6">
+        <v>17</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="6">
         <v>18</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="6">
+      <c r="E24" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="6">
         <v>19</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="6">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="6">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="6">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="6">
-        <v>24</v>
+      <c r="E25" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="6">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="6">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="6">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
       <c r="A29" s="6">
-        <v>28</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
       <c r="A30" s="6">
-        <v>29</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
       <c r="A31" s="6">
-        <v>30</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
       <c r="A32" s="6">
-        <v>31</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="6">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="6">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
+        <v>28</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="6">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
+        <v>29</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="6">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>30</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="6">
-        <v>36</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>8</v>
+        <v>31</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="6">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="6">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
       <c r="A40" s="6">
-        <v>39</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="6">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="6">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="6">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
       <c r="A44" s="6">
-        <v>43</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="6">
-        <v>44</v>
+        <v>39</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="6">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="6">
-        <v>46</v>
+        <v>41</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="6">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="6">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>43</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
       <c r="A50" s="6">
-        <v>49</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
       <c r="A52" s="6">
-        <v>51</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
       <c r="A53" s="6">
-        <v>52</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="6">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="6">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>49</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
       <c r="A56" s="6">
-        <v>55</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="6">
-        <v>56</v>
+        <v>51</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="6">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="6">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="6">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" s="6">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>55</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
       <c r="A62" s="6">
-        <v>61</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" s="6">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>57</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
       <c r="A64" s="6">
-        <v>63</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="6">
+        <v>61</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="6">
+        <v>63</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="6">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="6">
+    <row r="71" spans="1:5">
+      <c r="A71" s="6">
         <v>65</v>
       </c>
-      <c r="E66" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="6">
+      <c r="E71" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="6">
         <v>66</v>
       </c>
-      <c r="D67" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="6">
+      <c r="D72" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="6">
         <v>67</v>
       </c>
-      <c r="E68" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="6">
-        <v>68</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="6">
-        <v>69</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="6">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="6">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="6">
-        <v>72</v>
+      <c r="E73" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="6">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:5">
       <c r="A75" s="6">
-        <v>74</v>
+        <v>69</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="6">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
       <c r="A77" s="6">
-        <v>76</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
       <c r="A78" s="6">
-        <v>77</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="6">
+        <v>73</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="6">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="6">
+        <v>76</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="6">
+        <v>77</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="6">
         <v>78</v>
       </c>
-      <c r="E79" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="6">
+      <c r="E84" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="6">
         <v>79</v>
       </c>
-      <c r="F80" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
-      <c r="A81" s="6">
+      <c r="F85" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="6">
         <v>80</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
-      <c r="A82" s="6">
+      <c r="G86" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="6">
         <v>81</v>
       </c>
-      <c r="G82" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="A83" s="6">
-        <v>82</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="6">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" s="6">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="6">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" s="6">
-        <v>86</v>
+      <c r="G87" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="6">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G88" s="3" t="s">
         <v>9</v>
@@ -1692,725 +1679,759 @@
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="6">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
       <c r="A90" s="6">
-        <v>89</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="6">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
       <c r="A92" s="6">
-        <v>91</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G92" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="6">
-        <v>92</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>87</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
       <c r="A94" s="6">
-        <v>93</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F94" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="6">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E95" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
       <c r="A96" s="6">
-        <v>95</v>
-      </c>
-      <c r="E96" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="6">
-        <v>96</v>
+        <v>91</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="6">
+        <v>92</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="6">
+        <v>93</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="6">
+        <v>94</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="6">
+        <v>95</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="6">
+        <v>96</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="6">
         <v>97</v>
       </c>
-      <c r="E98" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" s="6">
+      <c r="E103" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="6">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
-      <c r="A100" s="6">
+    <row r="105" spans="1:1">
+      <c r="A105" s="6">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
-      <c r="A101" s="6">
+    <row r="106" spans="1:1">
+      <c r="A106" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
-      <c r="A102" s="6">
+    <row r="107" spans="1:1">
+      <c r="A107" s="6">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
-      <c r="A103" s="6">
+    <row r="108" spans="1:1">
+      <c r="A108" s="6">
         <v>102</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" s="6">
-        <v>103</v>
-      </c>
-      <c r="E104" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
-      <c r="A105" s="6">
-        <v>104</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G105" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="6">
-        <v>105</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
-      <c r="A107" s="6">
-        <v>106</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G107" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108" s="6">
-        <v>107</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="6">
+        <v>103</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="6">
+        <v>104</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="6">
+        <v>105</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="6">
+        <v>106</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="6">
+        <v>107</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="6">
         <v>108</v>
       </c>
-      <c r="E109" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110" s="6">
-        <v>109</v>
-      </c>
-      <c r="F110" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
-      <c r="A111" s="6">
-        <v>110</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G111" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112" s="6">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="6">
-        <v>112</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
-      <c r="A114" s="6">
-        <v>113</v>
-      </c>
-      <c r="G114" s="3" t="s">
-        <v>8</v>
+      <c r="E114" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="6">
+        <v>109</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="6">
+        <v>110</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="6">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="6">
+        <v>112</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="6">
+        <v>113</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="6">
         <v>114</v>
       </c>
-      <c r="F115" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116" s="6">
-        <v>115</v>
-      </c>
-      <c r="E116" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
-      <c r="A117" s="6">
-        <v>116</v>
-      </c>
-      <c r="D117" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
-      <c r="A118" s="6">
-        <v>117</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G118" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="A119" s="6">
-        <v>118</v>
-      </c>
-      <c r="D119" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
-      <c r="A120" s="6">
-        <v>119</v>
-      </c>
-      <c r="E120" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G120" s="3" t="s">
+      <c r="F120" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="6">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="6">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
       <c r="A123" s="6">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="6">
+        <v>118</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="6">
+        <v>119</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="6">
+        <v>120</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="6">
+        <v>121</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="6">
+        <v>122</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="6">
         <v>123</v>
       </c>
-      <c r="D124" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
-      <c r="A125" s="6">
-        <v>124</v>
-      </c>
-      <c r="E125" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126" s="6">
-        <v>125</v>
-      </c>
-      <c r="F126" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7">
-      <c r="A127" s="6">
-        <v>126</v>
-      </c>
-      <c r="G127" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7">
-      <c r="A128" s="6">
-        <v>127</v>
-      </c>
-      <c r="G128" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129" s="6">
-        <v>128</v>
-      </c>
-      <c r="F129" s="4" t="s">
-        <v>8</v>
+      <c r="D129" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="6">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131" s="6">
-        <v>130</v>
-      </c>
-      <c r="E131" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
+        <v>125</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
       <c r="A132" s="6">
-        <v>131</v>
-      </c>
-      <c r="F132" s="4" t="s">
-        <v>8</v>
+        <v>126</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="6">
+        <v>127</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="6">
+        <v>128</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="6">
+        <v>129</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="6">
+        <v>130</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="6">
+        <v>131</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="6">
         <v>132</v>
       </c>
-      <c r="G133" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7">
-      <c r="A134" s="6">
+      <c r="G138" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="6">
         <v>133</v>
       </c>
-      <c r="G134" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135" s="6">
+      <c r="G139" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="6">
         <v>134</v>
       </c>
-      <c r="F135" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1">
-      <c r="A136" s="6">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7">
-      <c r="A137" s="6">
-        <v>136</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D137" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E137" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F137" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G137" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
-      <c r="A138" s="6">
-        <v>137</v>
-      </c>
-      <c r="E138" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1">
-      <c r="A139" s="6">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7">
-      <c r="A140" s="6">
-        <v>139</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D140" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="F140" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G140" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="6">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="6">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E142" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
       <c r="A143" s="6">
-        <v>142</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D143" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F143" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G143" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7">
+        <v>137</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
       <c r="A144" s="6">
-        <v>143</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D144" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F144" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G144" s="3" t="s">
-        <v>9</v>
+        <v>138</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="6">
+        <v>139</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="6">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="6">
+        <v>141</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="6">
+        <v>142</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="6">
+        <v>143</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="6">
         <v>144</v>
       </c>
-      <c r="C145" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D145" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E145" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F145" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G145" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7">
-      <c r="A146" s="6">
+      <c r="C150" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E150" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F150" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="6">
         <v>145</v>
       </c>
-      <c r="C146" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D146" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E146" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F146" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G146" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
-      <c r="A147" s="6">
+      <c r="C151" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F151" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="6">
         <v>146</v>
       </c>
-      <c r="E147" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
-      <c r="A148" s="6">
+      <c r="E152" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="6">
         <v>147</v>
       </c>
-      <c r="E148" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
-      <c r="A149" s="6">
+      <c r="E153" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="6">
         <v>148</v>
       </c>
-      <c r="E149" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
-      <c r="A150" s="6">
+      <c r="E154" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="6">
         <v>149</v>
       </c>
-      <c r="D150" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
-      <c r="A151" s="6">
+      <c r="D155" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="6">
         <v>150</v>
       </c>
-      <c r="C151" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
-      <c r="A152" s="6">
+      <c r="C156" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="6">
         <v>151</v>
       </c>
-      <c r="C152" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
-      <c r="A153" s="6">
+      <c r="C157" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="6">
         <v>152</v>
       </c>
-      <c r="C153" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
-      <c r="A154" s="6">
+      <c r="C158" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="6">
         <v>153</v>
       </c>
-      <c r="D154" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5">
-      <c r="A155" s="6">
+      <c r="D159" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="6">
         <v>154</v>
       </c>
-      <c r="E155" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
-      <c r="A156" s="6">
+      <c r="E160" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" s="6">
         <v>155</v>
       </c>
-      <c r="F156" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7">
-      <c r="A157" s="6">
+      <c r="F161" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="6">
         <v>156</v>
       </c>
-      <c r="G157" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7">
-      <c r="A158" s="6">
+      <c r="G162" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="6">
         <v>157</v>
       </c>
-      <c r="G158" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7">
-      <c r="A159" s="6">
+      <c r="G163" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="6">
         <v>158</v>
       </c>
-      <c r="G159" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
-      <c r="A160" s="6">
+      <c r="G164" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" s="6">
         <v>159</v>
       </c>
-      <c r="F160" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5">
-      <c r="A161" s="6">
-        <v>160</v>
-      </c>
-      <c r="E161" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5">
-      <c r="A162" s="6">
-        <v>161</v>
-      </c>
-      <c r="E162" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5">
-      <c r="A163" s="6">
-        <v>162</v>
-      </c>
-      <c r="E163" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
-      <c r="A164" s="6">
-        <v>163</v>
-      </c>
-      <c r="E164" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5">
-      <c r="A165" s="6">
-        <v>164</v>
-      </c>
-      <c r="E165" s="5" t="s">
-        <v>8</v>
+      <c r="F165" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="6">
+        <v>160</v>
+      </c>
+      <c r="E166" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="6">
+        <v>161</v>
+      </c>
+      <c r="E167" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="6">
+        <v>162</v>
+      </c>
+      <c r="E168" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="6">
+        <v>163</v>
+      </c>
+      <c r="E169" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="6">
+        <v>164</v>
+      </c>
+      <c r="E170" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="6">
         <v>165</v>
       </c>
-      <c r="E166" s="5" t="s">
-        <v>8</v>
+      <c r="E171" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2425,8 +2446,8 @@
   <sheetPr/>
   <dimension ref="A1:H166"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="H129" sqref="H129"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B138" sqref="B138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.90833333333333" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2645,7 +2666,7 @@
       <c r="C17" s="3"/>
       <c r="D17" s="4"/>
       <c r="E17" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="3"/>
@@ -2669,13 +2690,13 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
       <c r="F19" s="4"/>
       <c r="G19" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H19" s="2"/>
     </row>
@@ -2685,13 +2706,13 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
       <c r="F20" s="4"/>
       <c r="G20" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H20" s="2"/>
     </row>
@@ -2701,13 +2722,13 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
       <c r="F21" s="4"/>
       <c r="G21" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H21" s="2"/>
     </row>
@@ -2757,7 +2778,7 @@
       <c r="E25" s="5"/>
       <c r="F25" s="4"/>
       <c r="G25" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H25" s="2"/>
     </row>
@@ -2771,7 +2792,7 @@
       <c r="E26" s="5"/>
       <c r="F26" s="4"/>
       <c r="G26" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H26" s="2"/>
     </row>
@@ -2785,7 +2806,7 @@
       <c r="E27" s="5"/>
       <c r="F27" s="4"/>
       <c r="G27" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H27" s="2"/>
     </row>
@@ -2893,7 +2914,7 @@
       <c r="C36" s="3"/>
       <c r="D36" s="4"/>
       <c r="E36" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="3"/>
@@ -2917,13 +2938,13 @@
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="5"/>
       <c r="F38" s="4"/>
       <c r="G38" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H38" s="2"/>
     </row>
@@ -2933,13 +2954,13 @@
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="5"/>
       <c r="F39" s="4"/>
       <c r="G39" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H39" s="2"/>
     </row>
@@ -2949,13 +2970,13 @@
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="5"/>
       <c r="F40" s="4"/>
       <c r="G40" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H40" s="2"/>
     </row>
@@ -3001,7 +3022,7 @@
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="5"/>
@@ -3015,7 +3036,7 @@
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="5"/>
@@ -3029,7 +3050,7 @@
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="5"/>
@@ -3057,7 +3078,7 @@
       <c r="C48" s="3"/>
       <c r="D48" s="4"/>
       <c r="E48" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="3"/>
@@ -3071,7 +3092,7 @@
       <c r="C49" s="3"/>
       <c r="D49" s="4"/>
       <c r="E49" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="3"/>
@@ -3085,7 +3106,7 @@
       <c r="C50" s="3"/>
       <c r="D50" s="4"/>
       <c r="E50" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="3"/>
@@ -3099,7 +3120,7 @@
       <c r="C51" s="3"/>
       <c r="D51" s="4"/>
       <c r="E51" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F51" s="4"/>
       <c r="G51" s="3"/>
@@ -3113,7 +3134,7 @@
       <c r="C52" s="3"/>
       <c r="D52" s="4"/>
       <c r="E52" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F52" s="4"/>
       <c r="G52" s="3"/>
@@ -3211,7 +3232,7 @@
       <c r="C60" s="3"/>
       <c r="D60" s="4"/>
       <c r="E60" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="3"/>
@@ -3321,7 +3342,7 @@
       <c r="C69" s="3"/>
       <c r="D69" s="4"/>
       <c r="E69" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F69" s="4"/>
       <c r="G69" s="3"/>
@@ -3345,7 +3366,7 @@
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="5"/>
@@ -3375,7 +3396,7 @@
       <c r="E73" s="5"/>
       <c r="F73" s="4"/>
       <c r="G73" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H73" s="2"/>
     </row>
@@ -3411,7 +3432,7 @@
       <c r="C76" s="3"/>
       <c r="D76" s="4"/>
       <c r="E76" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F76" s="4"/>
       <c r="G76" s="3"/>
@@ -3425,7 +3446,7 @@
       <c r="C77" s="3"/>
       <c r="D77" s="4"/>
       <c r="E77" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F77" s="4"/>
       <c r="G77" s="3"/>
@@ -3439,7 +3460,7 @@
       <c r="C78" s="3"/>
       <c r="D78" s="4"/>
       <c r="E78" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F78" s="4"/>
       <c r="G78" s="3"/>
@@ -3453,7 +3474,7 @@
       <c r="C79" s="3"/>
       <c r="D79" s="4"/>
       <c r="E79" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F79" s="4"/>
       <c r="G79" s="3"/>
@@ -3467,7 +3488,7 @@
       <c r="C80" s="3"/>
       <c r="D80" s="4"/>
       <c r="E80" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F80" s="4"/>
       <c r="G80" s="3"/>
@@ -3527,7 +3548,7 @@
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="5"/>
@@ -3567,7 +3588,7 @@
       <c r="C88" s="3"/>
       <c r="D88" s="4"/>
       <c r="E88" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" s="4"/>
       <c r="G88" s="3"/>
@@ -3643,7 +3664,7 @@
       <c r="E94" s="5"/>
       <c r="F94" s="4"/>
       <c r="G94" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H94" s="2"/>
     </row>
@@ -3656,7 +3677,7 @@
       <c r="D95" s="4"/>
       <c r="E95" s="5"/>
       <c r="F95" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G95" s="3"/>
       <c r="H95" s="2"/>
@@ -3669,7 +3690,7 @@
       <c r="C96" s="3"/>
       <c r="D96" s="4"/>
       <c r="E96" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F96" s="4"/>
       <c r="G96" s="3"/>
@@ -3682,7 +3703,7 @@
       <c r="B97" s="2"/>
       <c r="C97" s="3"/>
       <c r="D97" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E97" s="5"/>
       <c r="F97" s="4"/>
@@ -3695,7 +3716,7 @@
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="5"/>
@@ -3709,7 +3730,7 @@
       </c>
       <c r="B99" s="2"/>
       <c r="C99" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="5"/>
@@ -3723,7 +3744,7 @@
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="5"/>
@@ -3738,7 +3759,7 @@
       <c r="B101" s="2"/>
       <c r="C101" s="3"/>
       <c r="D101" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E101" s="5"/>
       <c r="F101" s="4"/>
@@ -3765,7 +3786,7 @@
       <c r="C103" s="3"/>
       <c r="D103" s="4"/>
       <c r="E103" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F103" s="4"/>
       <c r="G103" s="3"/>
@@ -3779,7 +3800,7 @@
       <c r="C104" s="3"/>
       <c r="D104" s="4"/>
       <c r="E104" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F104" s="4"/>
       <c r="G104" s="3"/>
@@ -3793,7 +3814,7 @@
       <c r="C105" s="3"/>
       <c r="D105" s="4"/>
       <c r="E105" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F105" s="4"/>
       <c r="G105" s="3"/>
@@ -3805,7 +3826,7 @@
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" s="4"/>
       <c r="E106" s="5"/>
@@ -3835,7 +3856,7 @@
       <c r="E108" s="5"/>
       <c r="F108" s="4"/>
       <c r="G108" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H108" s="2"/>
     </row>
@@ -3881,17 +3902,17 @@
       </c>
       <c r="B112" s="2"/>
       <c r="C112" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" s="5"/>
       <c r="F112" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H112" s="2"/>
     </row>
@@ -3903,7 +3924,7 @@
       <c r="C113" s="3"/>
       <c r="D113" s="4"/>
       <c r="E113" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F113" s="4"/>
       <c r="G113" s="3"/>
@@ -3917,7 +3938,7 @@
       <c r="C114" s="3"/>
       <c r="D114" s="4"/>
       <c r="E114" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F114" s="4"/>
       <c r="G114" s="3"/>
@@ -3931,7 +3952,7 @@
       <c r="C115" s="3"/>
       <c r="D115" s="4"/>
       <c r="E115" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F115" s="4"/>
       <c r="G115" s="3"/>
@@ -3967,17 +3988,17 @@
       </c>
       <c r="B118" s="2"/>
       <c r="C118" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" s="5"/>
       <c r="F118" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H118" s="2"/>
     </row>
@@ -4049,7 +4070,7 @@
       <c r="C124" s="3"/>
       <c r="D124" s="4"/>
       <c r="E124" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F124" s="4"/>
       <c r="G124" s="3"/>
@@ -4064,7 +4085,7 @@
       <c r="D125" s="4"/>
       <c r="E125" s="5"/>
       <c r="F125" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G125" s="3"/>
       <c r="H125" s="2"/>
@@ -4079,7 +4100,7 @@
       <c r="E126" s="5"/>
       <c r="F126" s="4"/>
       <c r="G126" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H126" s="2"/>
     </row>
@@ -4118,7 +4139,7 @@
       <c r="F129" s="4"/>
       <c r="G129" s="3"/>
       <c r="H129" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4155,7 +4176,7 @@
       <c r="E132" s="5"/>
       <c r="F132" s="4"/>
       <c r="G132" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H132" s="2"/>
     </row>
@@ -4169,7 +4190,7 @@
       <c r="E133" s="5"/>
       <c r="F133" s="4"/>
       <c r="G133" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H133" s="2"/>
     </row>
@@ -4183,7 +4204,7 @@
       <c r="E134" s="5"/>
       <c r="F134" s="4"/>
       <c r="G134" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H134" s="2"/>
     </row>
@@ -4205,12 +4226,12 @@
       </c>
       <c r="B136" s="2"/>
       <c r="C136" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" s="4"/>
       <c r="E136" s="5"/>
       <c r="F136" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G136" s="3"/>
       <c r="H136" s="2"/>
@@ -4221,11 +4242,11 @@
       </c>
       <c r="B137" s="2"/>
       <c r="C137" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" s="4"/>
       <c r="E137" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F137" s="4"/>
       <c r="G137" s="3"/>
@@ -4237,7 +4258,7 @@
       </c>
       <c r="B138" s="2"/>
       <c r="C138" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" s="4"/>
       <c r="E138" s="5"/>
@@ -4252,7 +4273,7 @@
       <c r="B139" s="2"/>
       <c r="C139" s="3"/>
       <c r="D139" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E139" s="5"/>
       <c r="F139" s="4"/>
@@ -4277,7 +4298,7 @@
       </c>
       <c r="B141" s="2"/>
       <c r="C141" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" s="4"/>
       <c r="E141" s="5"/>
@@ -4291,7 +4312,7 @@
       </c>
       <c r="B142" s="2"/>
       <c r="C142" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" s="4"/>
       <c r="E142" s="5"/>
@@ -4305,12 +4326,12 @@
       </c>
       <c r="B143" s="2"/>
       <c r="C143" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" s="4"/>
       <c r="E143" s="5"/>
       <c r="F143" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G143" s="3"/>
       <c r="H143" s="2"/>
@@ -4321,11 +4342,11 @@
       </c>
       <c r="B144" s="2"/>
       <c r="C144" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" s="4"/>
       <c r="E144" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F144" s="4"/>
       <c r="G144" s="3"/>
@@ -4337,10 +4358,10 @@
       </c>
       <c r="B145" s="2"/>
       <c r="C145" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" s="5"/>
       <c r="F145" s="4"/>
@@ -4353,7 +4374,7 @@
       </c>
       <c r="B146" s="2"/>
       <c r="C146" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" s="4"/>
       <c r="E146" s="5"/>
@@ -4368,7 +4389,7 @@
       <c r="B147" s="2"/>
       <c r="C147" s="3"/>
       <c r="D147" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E147" s="5"/>
       <c r="F147" s="4"/>
@@ -4383,7 +4404,7 @@
       <c r="C148" s="3"/>
       <c r="D148" s="4"/>
       <c r="E148" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F148" s="4"/>
       <c r="G148" s="3"/>
@@ -4397,7 +4418,7 @@
       <c r="C149" s="3"/>
       <c r="D149" s="4"/>
       <c r="E149" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F149" s="4"/>
       <c r="G149" s="3"/>
@@ -4411,7 +4432,7 @@
       <c r="C150" s="3"/>
       <c r="D150" s="4"/>
       <c r="E150" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F150" s="4"/>
       <c r="G150" s="3"/>
@@ -4425,7 +4446,7 @@
       <c r="C151" s="3"/>
       <c r="D151" s="4"/>
       <c r="E151" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F151" s="4"/>
       <c r="G151" s="3"/>
@@ -4473,13 +4494,13 @@
       </c>
       <c r="B155" s="2"/>
       <c r="C155" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D155" s="4"/>
       <c r="E155" s="5"/>
       <c r="F155" s="4"/>
       <c r="G155" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H155" s="2"/>
     </row>
@@ -4527,7 +4548,7 @@
       <c r="C159" s="3"/>
       <c r="D159" s="4"/>
       <c r="E159" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F159" s="4"/>
       <c r="G159" s="3"/>
@@ -4541,7 +4562,7 @@
       <c r="C160" s="3"/>
       <c r="D160" s="4"/>
       <c r="E160" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F160" s="4"/>
       <c r="G160" s="3"/>
@@ -4555,7 +4576,7 @@
       <c r="C161" s="3"/>
       <c r="D161" s="4"/>
       <c r="E161" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F161" s="4"/>
       <c r="G161" s="3"/>
@@ -4569,7 +4590,7 @@
       <c r="C162" s="3"/>
       <c r="D162" s="4"/>
       <c r="E162" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F162" s="4"/>
       <c r="G162" s="3"/>
@@ -4595,7 +4616,7 @@
       <c r="C164" s="3"/>
       <c r="D164" s="4"/>
       <c r="E164" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F164" s="4"/>
       <c r="G164" s="3"/>
@@ -4855,11 +4876,11 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="3"/>
@@ -4933,7 +4954,7 @@
       <c r="C23" s="3"/>
       <c r="D23" s="4"/>
       <c r="E23" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="3"/>
@@ -4947,7 +4968,7 @@
       <c r="C24" s="3"/>
       <c r="D24" s="4"/>
       <c r="E24" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="3"/>
@@ -4959,15 +4980,15 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H25" s="2"/>
     </row>
@@ -5027,7 +5048,7 @@
       <c r="C30" s="3"/>
       <c r="D30" s="4"/>
       <c r="E30" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="3"/>
@@ -5041,7 +5062,7 @@
       <c r="C31" s="3"/>
       <c r="D31" s="4"/>
       <c r="E31" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="3"/>
@@ -5055,7 +5076,7 @@
       <c r="C32" s="3"/>
       <c r="D32" s="4"/>
       <c r="E32" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="3"/>
@@ -5104,13 +5125,13 @@
       <c r="B36" s="2"/>
       <c r="C36" s="3"/>
       <c r="D36" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="2"/>
@@ -5162,7 +5183,7 @@
       <c r="F40" s="4"/>
       <c r="G40" s="3"/>
       <c r="H40" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -5207,13 +5228,13 @@
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="5"/>
       <c r="F44" s="4"/>
       <c r="G44" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H44" s="2"/>
     </row>
@@ -5223,12 +5244,12 @@
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="5"/>
       <c r="F45" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="2"/>
@@ -5239,11 +5260,11 @@
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="3"/>
@@ -5257,7 +5278,7 @@
       <c r="C47" s="3"/>
       <c r="D47" s="4"/>
       <c r="E47" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="3"/>
@@ -5271,7 +5292,7 @@
       <c r="C48" s="3"/>
       <c r="D48" s="4"/>
       <c r="E48" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="3"/>
@@ -5285,7 +5306,7 @@
       <c r="C49" s="3"/>
       <c r="D49" s="4"/>
       <c r="E49" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="3"/>
@@ -5299,7 +5320,7 @@
       <c r="C50" s="3"/>
       <c r="D50" s="4"/>
       <c r="E50" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="3"/>
@@ -5337,7 +5358,7 @@
       <c r="C53" s="3"/>
       <c r="D53" s="4"/>
       <c r="E53" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="3"/>
@@ -5361,13 +5382,13 @@
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="5"/>
       <c r="F55" s="4"/>
       <c r="G55" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H55" s="2"/>
     </row>
@@ -5377,7 +5398,7 @@
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="5"/>
@@ -5391,7 +5412,7 @@
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="5"/>
@@ -5405,7 +5426,7 @@
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="5"/>
@@ -5419,7 +5440,7 @@
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="5"/>
@@ -5433,11 +5454,11 @@
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="3"/>
@@ -5545,13 +5566,13 @@
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="5"/>
       <c r="F69" s="4"/>
       <c r="G69" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H69" s="2"/>
     </row>
@@ -5561,13 +5582,13 @@
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="5"/>
       <c r="F70" s="4"/>
       <c r="G70" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H70" s="2"/>
     </row>
@@ -5577,13 +5598,13 @@
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="5"/>
       <c r="F71" s="4"/>
       <c r="G71" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H71" s="2"/>
     </row>
@@ -5597,7 +5618,7 @@
       <c r="E72" s="5"/>
       <c r="F72" s="4"/>
       <c r="G72" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H72" s="2"/>
     </row>
@@ -5611,7 +5632,7 @@
       <c r="E73" s="5"/>
       <c r="F73" s="4"/>
       <c r="G73" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H73" s="2"/>
     </row>
@@ -5659,7 +5680,7 @@
       <c r="C77" s="3"/>
       <c r="D77" s="4"/>
       <c r="E77" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F77" s="4"/>
       <c r="G77" s="3"/>
@@ -5673,7 +5694,7 @@
       <c r="C78" s="3"/>
       <c r="D78" s="4"/>
       <c r="E78" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F78" s="4"/>
       <c r="G78" s="3"/>
@@ -5687,7 +5708,7 @@
       <c r="C79" s="3"/>
       <c r="D79" s="4"/>
       <c r="E79" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F79" s="4"/>
       <c r="G79" s="3"/>
@@ -5701,7 +5722,7 @@
       <c r="C80" s="3"/>
       <c r="D80" s="4"/>
       <c r="E80" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F80" s="4"/>
       <c r="G80" s="3"/>
@@ -5761,7 +5782,7 @@
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="5"/>
@@ -5776,7 +5797,7 @@
       <c r="B86" s="2"/>
       <c r="C86" s="3"/>
       <c r="D86" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" s="5"/>
       <c r="F86" s="4"/>
@@ -5791,7 +5812,7 @@
       <c r="C87" s="3"/>
       <c r="D87" s="4"/>
       <c r="E87" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F87" s="4"/>
       <c r="G87" s="3"/>
@@ -5831,7 +5852,7 @@
       <c r="E90" s="5"/>
       <c r="F90" s="4"/>
       <c r="G90" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H90" s="2"/>
     </row>
@@ -5845,7 +5866,7 @@
       <c r="E91" s="5"/>
       <c r="F91" s="4"/>
       <c r="G91" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H91" s="2"/>
     </row>
@@ -5859,10 +5880,10 @@
       <c r="E92" s="5"/>
       <c r="F92" s="4"/>
       <c r="G92" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H92" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="H92" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -5875,7 +5896,7 @@
       <c r="E93" s="5"/>
       <c r="F93" s="4"/>
       <c r="G93" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H93" s="2"/>
     </row>
@@ -5889,7 +5910,7 @@
       <c r="E94" s="5"/>
       <c r="F94" s="4"/>
       <c r="G94" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H94" s="2"/>
     </row>
@@ -5902,7 +5923,7 @@
       <c r="D95" s="4"/>
       <c r="E95" s="5"/>
       <c r="F95" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G95" s="3"/>
       <c r="H95" s="2"/>
@@ -5915,7 +5936,7 @@
       <c r="C96" s="3"/>
       <c r="D96" s="4"/>
       <c r="E96" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F96" s="4"/>
       <c r="G96" s="3"/>
@@ -5928,7 +5949,7 @@
       <c r="B97" s="2"/>
       <c r="C97" s="3"/>
       <c r="D97" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E97" s="5"/>
       <c r="F97" s="4"/>
@@ -5941,7 +5962,7 @@
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="5"/>
@@ -5955,11 +5976,11 @@
       </c>
       <c r="B99" s="2"/>
       <c r="C99" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F99" s="4"/>
       <c r="G99" s="3"/>
@@ -5971,7 +5992,7 @@
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="5"/>
@@ -5985,7 +6006,7 @@
       </c>
       <c r="B101" s="2"/>
       <c r="C101" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="5"/>
@@ -6014,7 +6035,7 @@
       <c r="D103" s="4"/>
       <c r="E103" s="5"/>
       <c r="F103" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G103" s="3"/>
       <c r="H103" s="2"/>
@@ -6026,7 +6047,7 @@
       <c r="B104" s="2"/>
       <c r="C104" s="3"/>
       <c r="D104" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E104" s="5"/>
       <c r="F104" s="4"/>
@@ -6051,11 +6072,11 @@
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" s="4"/>
       <c r="E106" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F106" s="4"/>
       <c r="G106" s="3"/>
@@ -6069,7 +6090,7 @@
       <c r="C107" s="3"/>
       <c r="D107" s="4"/>
       <c r="E107" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F107" s="4"/>
       <c r="G107" s="3"/>
@@ -6083,7 +6104,7 @@
       <c r="C108" s="3"/>
       <c r="D108" s="4"/>
       <c r="E108" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F108" s="4"/>
       <c r="G108" s="3"/>
@@ -6097,7 +6118,7 @@
       <c r="C109" s="3"/>
       <c r="D109" s="4"/>
       <c r="E109" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F109" s="4"/>
       <c r="G109" s="3"/>
@@ -6133,7 +6154,7 @@
       </c>
       <c r="B112" s="2"/>
       <c r="C112" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D112" s="4"/>
       <c r="E112" s="5"/>
@@ -6173,7 +6194,7 @@
       <c r="C115" s="3"/>
       <c r="D115" s="4"/>
       <c r="E115" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" s="4"/>
       <c r="G115" s="3"/>
@@ -6283,7 +6304,7 @@
       <c r="C124" s="3"/>
       <c r="D124" s="4"/>
       <c r="E124" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F124" s="4"/>
       <c r="G124" s="3"/>
@@ -6297,7 +6318,7 @@
       <c r="C125" s="3"/>
       <c r="D125" s="4"/>
       <c r="E125" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F125" s="4"/>
       <c r="G125" s="3"/>
@@ -6311,7 +6332,7 @@
       <c r="C126" s="3"/>
       <c r="D126" s="4"/>
       <c r="E126" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F126" s="4"/>
       <c r="G126" s="3"/>
@@ -6325,7 +6346,7 @@
       <c r="C127" s="3"/>
       <c r="D127" s="4"/>
       <c r="E127" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F127" s="4"/>
       <c r="G127" s="3"/>
@@ -6339,7 +6360,7 @@
       <c r="C128" s="3"/>
       <c r="D128" s="4"/>
       <c r="E128" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F128" s="4"/>
       <c r="G128" s="3"/>
@@ -6423,17 +6444,17 @@
       </c>
       <c r="B135" s="2"/>
       <c r="C135" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" s="5"/>
       <c r="F135" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H135" s="2"/>
     </row>
@@ -6484,7 +6505,7 @@
       <c r="F139" s="4"/>
       <c r="G139" s="3"/>
       <c r="H139" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -6529,19 +6550,19 @@
       </c>
       <c r="B143" s="2"/>
       <c r="C143" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H143" s="2"/>
     </row>
@@ -6683,19 +6704,19 @@
       </c>
       <c r="B155" s="2"/>
       <c r="C155" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H155" s="2"/>
     </row>
@@ -6777,15 +6798,15 @@
       </c>
       <c r="B162" s="2"/>
       <c r="C162" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" s="4"/>
       <c r="E162" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F162" s="4"/>
       <c r="G162" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H162" s="2"/>
     </row>
@@ -6795,15 +6816,15 @@
       </c>
       <c r="B163" s="2"/>
       <c r="C163" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" s="4"/>
       <c r="E163" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F163" s="4"/>
       <c r="G163" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H163" s="2"/>
     </row>
@@ -6813,15 +6834,15 @@
       </c>
       <c r="B164" s="2"/>
       <c r="C164" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" s="4"/>
       <c r="E164" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F164" s="4"/>
       <c r="G164" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H164" s="2"/>
     </row>
@@ -6831,15 +6852,15 @@
       </c>
       <c r="B165" s="2"/>
       <c r="C165" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" s="4"/>
       <c r="E165" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F165" s="4"/>
       <c r="G165" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H165" s="2"/>
     </row>
@@ -6849,15 +6870,15 @@
       </c>
       <c r="B166" s="2"/>
       <c r="C166" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" s="4"/>
       <c r="E166" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F166" s="4"/>
       <c r="G166" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H166" s="2"/>
     </row>
@@ -7091,15 +7112,15 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H17" s="2"/>
     </row>
@@ -7171,7 +7192,7 @@
       <c r="C23" s="3"/>
       <c r="D23" s="4"/>
       <c r="E23" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="3"/>
@@ -7185,7 +7206,7 @@
       <c r="C24" s="3"/>
       <c r="D24" s="4"/>
       <c r="E24" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="3"/>
@@ -7199,7 +7220,7 @@
       <c r="C25" s="3"/>
       <c r="D25" s="4"/>
       <c r="E25" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="3"/>
@@ -7261,7 +7282,7 @@
       <c r="C30" s="3"/>
       <c r="D30" s="4"/>
       <c r="E30" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="3"/>
@@ -7275,7 +7296,7 @@
       <c r="C31" s="3"/>
       <c r="D31" s="4"/>
       <c r="E31" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="3"/>
@@ -7289,7 +7310,7 @@
       <c r="C32" s="3"/>
       <c r="D32" s="4"/>
       <c r="E32" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="3"/>
@@ -7336,17 +7357,17 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="2"/>
@@ -7405,7 +7426,7 @@
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="5"/>
@@ -7432,7 +7453,7 @@
       <c r="B43" s="2"/>
       <c r="C43" s="3"/>
       <c r="D43" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="4"/>
@@ -7445,7 +7466,7 @@
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="5"/>
@@ -7459,7 +7480,7 @@
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="5"/>
@@ -7473,11 +7494,11 @@
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="3"/>
@@ -7491,7 +7512,7 @@
       <c r="C47" s="3"/>
       <c r="D47" s="4"/>
       <c r="E47" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="3"/>
@@ -7505,7 +7526,7 @@
       <c r="C48" s="3"/>
       <c r="D48" s="4"/>
       <c r="E48" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="3"/>
@@ -7519,7 +7540,7 @@
       <c r="C49" s="3"/>
       <c r="D49" s="4"/>
       <c r="E49" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="3"/>
@@ -7533,7 +7554,7 @@
       <c r="C50" s="3"/>
       <c r="D50" s="4"/>
       <c r="E50" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="3"/>
@@ -7571,7 +7592,7 @@
       <c r="C53" s="3"/>
       <c r="D53" s="4"/>
       <c r="E53" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="3"/>
@@ -7597,11 +7618,11 @@
       <c r="C55" s="3"/>
       <c r="D55" s="4"/>
       <c r="E55" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F55" s="4"/>
       <c r="G55" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H55" s="2"/>
     </row>
@@ -7613,7 +7634,7 @@
       <c r="C56" s="3"/>
       <c r="D56" s="4"/>
       <c r="E56" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="3"/>
@@ -7627,7 +7648,7 @@
       <c r="C57" s="3"/>
       <c r="D57" s="4"/>
       <c r="E57" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F57" s="4"/>
       <c r="G57" s="3"/>
@@ -7665,7 +7686,7 @@
       <c r="C60" s="3"/>
       <c r="D60" s="4"/>
       <c r="E60" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="3"/>
@@ -7681,7 +7702,7 @@
       <c r="E61" s="5"/>
       <c r="F61" s="4"/>
       <c r="G61" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H61" s="2"/>
     </row>
@@ -7703,7 +7724,7 @@
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="5"/>
@@ -7719,7 +7740,7 @@
       <c r="C64" s="3"/>
       <c r="D64" s="4"/>
       <c r="E64" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F64" s="4"/>
       <c r="G64" s="3"/>
@@ -7733,7 +7754,7 @@
       <c r="C65" s="3"/>
       <c r="D65" s="4"/>
       <c r="E65" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F65" s="4"/>
       <c r="G65" s="3"/>
@@ -7747,7 +7768,7 @@
       <c r="C66" s="3"/>
       <c r="D66" s="4"/>
       <c r="E66" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F66" s="4"/>
       <c r="G66" s="3"/>
@@ -7761,7 +7782,7 @@
       <c r="C67" s="3"/>
       <c r="D67" s="4"/>
       <c r="E67" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F67" s="4"/>
       <c r="G67" s="3"/>
@@ -7775,7 +7796,7 @@
       <c r="C68" s="3"/>
       <c r="D68" s="4"/>
       <c r="E68" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F68" s="4"/>
       <c r="G68" s="3"/>
@@ -7883,15 +7904,15 @@
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F77" s="4"/>
       <c r="G77" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H77" s="2"/>
     </row>
@@ -7901,15 +7922,15 @@
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" s="4"/>
       <c r="E78" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F78" s="4"/>
       <c r="G78" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H78" s="2"/>
     </row>
@@ -7919,15 +7940,15 @@
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" s="4"/>
       <c r="E79" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F79" s="4"/>
       <c r="G79" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H79" s="2"/>
     </row>
@@ -7937,15 +7958,15 @@
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F80" s="4"/>
       <c r="G80" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H80" s="2"/>
     </row>
@@ -8063,19 +8084,19 @@
       </c>
       <c r="B90" s="2"/>
       <c r="C90" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H90" s="2"/>
     </row>
@@ -8089,10 +8110,10 @@
       <c r="E91" s="5"/>
       <c r="F91" s="4"/>
       <c r="G91" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H91" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="H91" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -8105,7 +8126,7 @@
       <c r="E92" s="5"/>
       <c r="F92" s="4"/>
       <c r="G92" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H92" s="2"/>
     </row>
@@ -8119,7 +8140,7 @@
       <c r="E93" s="5"/>
       <c r="F93" s="4"/>
       <c r="G93" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H93" s="2"/>
     </row>
@@ -8133,7 +8154,7 @@
       <c r="E94" s="5"/>
       <c r="F94" s="4"/>
       <c r="G94" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H94" s="2"/>
     </row>
@@ -8146,7 +8167,7 @@
       <c r="D95" s="4"/>
       <c r="E95" s="5"/>
       <c r="F95" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G95" s="3"/>
       <c r="H95" s="2"/>
@@ -8159,7 +8180,7 @@
       <c r="C96" s="3"/>
       <c r="D96" s="4"/>
       <c r="E96" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F96" s="4"/>
       <c r="G96" s="3"/>
@@ -8172,7 +8193,7 @@
       <c r="B97" s="2"/>
       <c r="C97" s="3"/>
       <c r="D97" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E97" s="9"/>
       <c r="F97" s="4"/>
@@ -8185,7 +8206,7 @@
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="5"/>
@@ -8199,11 +8220,11 @@
       </c>
       <c r="B99" s="2"/>
       <c r="C99" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F99" s="4"/>
       <c r="G99" s="3"/>
@@ -8215,7 +8236,7 @@
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="5"/>
@@ -8229,7 +8250,7 @@
       </c>
       <c r="B101" s="2"/>
       <c r="C101" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="5"/>
@@ -8258,7 +8279,7 @@
       <c r="D103" s="4"/>
       <c r="E103" s="5"/>
       <c r="F103" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G103" s="3"/>
       <c r="H103" s="2"/>
@@ -8270,7 +8291,7 @@
       <c r="B104" s="2"/>
       <c r="C104" s="3"/>
       <c r="D104" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E104" s="5"/>
       <c r="F104" s="4"/>
@@ -8295,11 +8316,11 @@
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" s="4"/>
       <c r="E106" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F106" s="4"/>
       <c r="G106" s="3"/>
@@ -8313,7 +8334,7 @@
       <c r="C107" s="3"/>
       <c r="D107" s="4"/>
       <c r="E107" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F107" s="4"/>
       <c r="G107" s="3"/>
@@ -8327,12 +8348,12 @@
       <c r="C108" s="3"/>
       <c r="D108" s="4"/>
       <c r="E108" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F108" s="4"/>
       <c r="G108" s="3"/>
       <c r="H108" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -8343,7 +8364,7 @@
       <c r="C109" s="3"/>
       <c r="D109" s="4"/>
       <c r="E109" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F109" s="4"/>
       <c r="G109" s="3"/>
@@ -8379,7 +8400,7 @@
       </c>
       <c r="B112" s="2"/>
       <c r="C112" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D112" s="4"/>
       <c r="E112" s="5"/>
@@ -8418,13 +8439,13 @@
       <c r="B115" s="2"/>
       <c r="C115" s="3"/>
       <c r="D115" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G115" s="3"/>
       <c r="H115" s="2"/>
@@ -8437,7 +8458,7 @@
       <c r="C116" s="3"/>
       <c r="D116" s="4"/>
       <c r="E116" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F116" s="4"/>
       <c r="G116" s="3"/>
@@ -8451,7 +8472,7 @@
       <c r="C117" s="3"/>
       <c r="D117" s="4"/>
       <c r="E117" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F117" s="4"/>
       <c r="G117" s="3"/>
@@ -8465,7 +8486,7 @@
       <c r="C118" s="3"/>
       <c r="D118" s="4"/>
       <c r="E118" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F118" s="4"/>
       <c r="G118" s="3"/>
@@ -8492,7 +8513,7 @@
       <c r="D120" s="4"/>
       <c r="E120" s="5"/>
       <c r="F120" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G120" s="3"/>
       <c r="H120" s="2"/>
@@ -8507,7 +8528,7 @@
       <c r="E121" s="5"/>
       <c r="F121" s="4"/>
       <c r="G121" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H121" s="2"/>
     </row>
@@ -8521,7 +8542,7 @@
       <c r="E122" s="5"/>
       <c r="F122" s="4"/>
       <c r="G122" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H122" s="2"/>
     </row>
@@ -8535,7 +8556,7 @@
       <c r="E123" s="5"/>
       <c r="F123" s="4"/>
       <c r="G123" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H123" s="2"/>
     </row>
@@ -8560,7 +8581,7 @@
       <c r="D125" s="4"/>
       <c r="E125" s="5"/>
       <c r="F125" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G125" s="3"/>
       <c r="H125" s="2"/>
@@ -8573,7 +8594,7 @@
       <c r="C126" s="3"/>
       <c r="D126" s="4"/>
       <c r="E126" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F126" s="4"/>
       <c r="G126" s="3"/>
@@ -8586,7 +8607,7 @@
       <c r="B127" s="2"/>
       <c r="C127" s="3"/>
       <c r="D127" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E127" s="5"/>
       <c r="F127" s="4"/>
@@ -8611,7 +8632,7 @@
       </c>
       <c r="B129" s="2"/>
       <c r="C129" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" s="4"/>
       <c r="E129" s="5"/>
@@ -8626,7 +8647,7 @@
       <c r="B130" s="2"/>
       <c r="C130" s="3"/>
       <c r="D130" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E130" s="5"/>
       <c r="F130" s="4"/>
@@ -8653,7 +8674,7 @@
       <c r="C132" s="3"/>
       <c r="D132" s="4"/>
       <c r="E132" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F132" s="4"/>
       <c r="G132" s="3"/>
@@ -8737,15 +8758,15 @@
       </c>
       <c r="B139" s="2"/>
       <c r="C139" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D139" s="4"/>
       <c r="E139" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F139" s="4"/>
       <c r="G139" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H139" s="2"/>
     </row>
@@ -8757,7 +8778,7 @@
       <c r="C140" s="3"/>
       <c r="D140" s="4"/>
       <c r="E140" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F140" s="4"/>
       <c r="G140" s="3"/>
@@ -8771,7 +8792,7 @@
       <c r="C141" s="3"/>
       <c r="D141" s="4"/>
       <c r="E141" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F141" s="4"/>
       <c r="G141" s="3"/>
@@ -8785,7 +8806,7 @@
       <c r="C142" s="3"/>
       <c r="D142" s="4"/>
       <c r="E142" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F142" s="4"/>
       <c r="G142" s="3"/>
@@ -8797,15 +8818,15 @@
       </c>
       <c r="B143" s="2"/>
       <c r="C143" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D143" s="4"/>
       <c r="E143" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F143" s="4"/>
       <c r="G143" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H143" s="2"/>
     </row>
@@ -8817,7 +8838,7 @@
       <c r="C144" s="3"/>
       <c r="D144" s="4"/>
       <c r="E144" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F144" s="4"/>
       <c r="G144" s="3"/>
@@ -8831,7 +8852,7 @@
       <c r="C145" s="3"/>
       <c r="D145" s="4"/>
       <c r="E145" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F145" s="4"/>
       <c r="G145" s="3"/>
@@ -8845,7 +8866,7 @@
       <c r="C146" s="3"/>
       <c r="D146" s="4"/>
       <c r="E146" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F146" s="4"/>
       <c r="G146" s="3"/>
@@ -8857,15 +8878,15 @@
       </c>
       <c r="B147" s="2"/>
       <c r="C147" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D147" s="4"/>
       <c r="E147" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F147" s="4"/>
       <c r="G147" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H147" s="2"/>
     </row>
@@ -8877,7 +8898,7 @@
       <c r="C148" s="3"/>
       <c r="D148" s="4"/>
       <c r="E148" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F148" s="4"/>
       <c r="G148" s="3"/>
@@ -8891,7 +8912,7 @@
       <c r="C149" s="3"/>
       <c r="D149" s="4"/>
       <c r="E149" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F149" s="4"/>
       <c r="G149" s="3"/>
@@ -8905,7 +8926,7 @@
       <c r="C150" s="3"/>
       <c r="D150" s="4"/>
       <c r="E150" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F150" s="4"/>
       <c r="G150" s="3"/>
@@ -8941,15 +8962,15 @@
       </c>
       <c r="B153" s="2"/>
       <c r="C153" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" s="4"/>
       <c r="E153" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F153" s="4"/>
       <c r="G153" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H153" s="2"/>
     </row>
@@ -8959,15 +8980,15 @@
       </c>
       <c r="B154" s="2"/>
       <c r="C154" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" s="4"/>
       <c r="E154" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F154" s="4"/>
       <c r="G154" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H154" s="2"/>
     </row>
@@ -8977,15 +8998,15 @@
       </c>
       <c r="B155" s="2"/>
       <c r="C155" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" s="4"/>
       <c r="E155" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F155" s="4"/>
       <c r="G155" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H155" s="2"/>
     </row>
@@ -8995,15 +9016,15 @@
       </c>
       <c r="B156" s="2"/>
       <c r="C156" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" s="4"/>
       <c r="E156" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F156" s="4"/>
       <c r="G156" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H156" s="2"/>
     </row>
@@ -9013,15 +9034,15 @@
       </c>
       <c r="B157" s="2"/>
       <c r="C157" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" s="4"/>
       <c r="E157" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F157" s="4"/>
       <c r="G157" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H157" s="2"/>
     </row>
@@ -9031,15 +9052,15 @@
       </c>
       <c r="B158" s="2"/>
       <c r="C158" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" s="4"/>
       <c r="E158" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F158" s="4"/>
       <c r="G158" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H158" s="2"/>
     </row>
@@ -9049,15 +9070,15 @@
       </c>
       <c r="B159" s="2"/>
       <c r="C159" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" s="4"/>
       <c r="E159" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F159" s="4"/>
       <c r="G159" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H159" s="2"/>
     </row>
@@ -9067,15 +9088,15 @@
       </c>
       <c r="B160" s="2"/>
       <c r="C160" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" s="4"/>
       <c r="E160" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F160" s="4"/>
       <c r="G160" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H160" s="2"/>
     </row>
@@ -9085,15 +9106,15 @@
       </c>
       <c r="B161" s="2"/>
       <c r="C161" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" s="4"/>
       <c r="E161" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F161" s="4"/>
       <c r="G161" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H161" s="2"/>
     </row>
@@ -9103,15 +9124,15 @@
       </c>
       <c r="B162" s="2"/>
       <c r="C162" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" s="4"/>
       <c r="E162" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F162" s="4"/>
       <c r="G162" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H162" s="2"/>
     </row>
@@ -9121,15 +9142,15 @@
       </c>
       <c r="B163" s="2"/>
       <c r="C163" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" s="4"/>
       <c r="E163" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F163" s="4"/>
       <c r="G163" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H163" s="2"/>
     </row>
@@ -9139,15 +9160,15 @@
       </c>
       <c r="B164" s="2"/>
       <c r="C164" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" s="4"/>
       <c r="E164" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F164" s="4"/>
       <c r="G164" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H164" s="2"/>
     </row>
@@ -9157,15 +9178,15 @@
       </c>
       <c r="B165" s="2"/>
       <c r="C165" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" s="4"/>
       <c r="E165" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F165" s="4"/>
       <c r="G165" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H165" s="2"/>
     </row>
@@ -9175,15 +9196,15 @@
       </c>
       <c r="B166" s="2"/>
       <c r="C166" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" s="4"/>
       <c r="E166" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F166" s="4"/>
       <c r="G166" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H166" s="2"/>
     </row>

--- a/TankRunner/Assets/Resources/LD.xlsx
+++ b/TankRunner/Assets/Resources/LD.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="15">
   <si>
     <t>row</t>
   </si>
@@ -41,6 +41,15 @@
   </si>
   <si>
     <t>SideRight</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
   </si>
   <si>
     <t>R</t>
@@ -1087,8 +1096,8 @@
   <sheetPr/>
   <dimension ref="A1:H171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51:G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.90833333333333" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1149,19 +1158,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:3">
       <c r="A11" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
+      <c r="C11" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="6">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
+      <c r="E12" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="6">
         <v>7</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -1179,10 +1197,10 @@
         <v>10</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1190,7 +1208,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1198,7 +1216,7 @@
         <v>12</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1206,7 +1224,7 @@
         <v>13</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1214,7 +1232,7 @@
         <v>14</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1222,7 +1240,7 @@
         <v>15</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1230,7 +1248,7 @@
         <v>16</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1238,7 +1256,7 @@
         <v>17</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1246,7 +1264,7 @@
         <v>18</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1254,7 +1272,7 @@
         <v>19</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:1">
@@ -1302,7 +1320,7 @@
         <v>28</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1310,7 +1328,7 @@
         <v>29</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1318,7 +1336,7 @@
         <v>30</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1326,7 +1344,7 @@
         <v>31</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -1354,7 +1372,7 @@
         <v>36</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:1">
@@ -1372,10 +1390,10 @@
         <v>39</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:1">
@@ -1388,7 +1406,7 @@
         <v>41</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:1">
@@ -1401,7 +1419,7 @@
         <v>43</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:1">
@@ -1409,19 +1427,28 @@
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:3">
       <c r="A51" s="6">
         <v>45</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="C51" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="6">
         <v>46</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="E52" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="6">
         <v>47</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:1">
@@ -1434,7 +1461,7 @@
         <v>49</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:1">
@@ -1447,7 +1474,7 @@
         <v>51</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1455,7 +1482,7 @@
         <v>52</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:1">
@@ -1473,10 +1500,10 @@
         <v>55</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:1">
@@ -1489,7 +1516,7 @@
         <v>57</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:1">
@@ -1512,10 +1539,10 @@
         <v>61</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:1">
@@ -1528,10 +1555,10 @@
         <v>63</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:1">
@@ -1544,7 +1571,7 @@
         <v>65</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1552,13 +1579,13 @@
         <v>66</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1566,7 +1593,7 @@
         <v>67</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1574,7 +1601,7 @@
         <v>68</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1582,7 +1609,7 @@
         <v>69</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:1">
@@ -1605,7 +1632,7 @@
         <v>73</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:1">
@@ -1623,7 +1650,7 @@
         <v>76</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1631,7 +1658,7 @@
         <v>77</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1639,7 +1666,7 @@
         <v>78</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -1647,7 +1674,7 @@
         <v>79</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -1655,7 +1682,7 @@
         <v>80</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -1663,7 +1690,7 @@
         <v>81</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -1671,10 +1698,10 @@
         <v>82</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" spans="1:1">
@@ -1702,13 +1729,13 @@
         <v>87</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="94" spans="1:1">
@@ -1721,16 +1748,16 @@
         <v>89</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="96" spans="1:1">
@@ -1743,19 +1770,19 @@
         <v>91</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -1763,7 +1790,7 @@
         <v>92</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -1771,19 +1798,19 @@
         <v>93</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -1791,19 +1818,19 @@
         <v>94</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -1811,7 +1838,7 @@
         <v>95</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -1819,7 +1846,7 @@
         <v>96</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -1827,7 +1854,7 @@
         <v>97</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" spans="1:1">
@@ -1860,7 +1887,7 @@
         <v>103</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -1868,10 +1895,10 @@
         <v>104</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1879,7 +1906,7 @@
         <v>105</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -1887,10 +1914,10 @@
         <v>106</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -1898,7 +1925,7 @@
         <v>107</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -1906,7 +1933,7 @@
         <v>108</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -1914,7 +1941,7 @@
         <v>109</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -1922,10 +1949,10 @@
         <v>110</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" spans="1:1">
@@ -1938,7 +1965,7 @@
         <v>112</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -1946,7 +1973,7 @@
         <v>113</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -1954,7 +1981,7 @@
         <v>114</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -1962,7 +1989,7 @@
         <v>115</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -1970,7 +1997,7 @@
         <v>116</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -1978,10 +2005,10 @@
         <v>117</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -1989,7 +2016,7 @@
         <v>118</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -1997,10 +2024,10 @@
         <v>119</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2008,7 +2035,7 @@
         <v>120</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2016,7 +2043,7 @@
         <v>121</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2024,7 +2051,7 @@
         <v>122</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2032,7 +2059,7 @@
         <v>123</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2040,7 +2067,7 @@
         <v>124</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2048,7 +2075,7 @@
         <v>125</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -2056,7 +2083,7 @@
         <v>126</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -2064,7 +2091,7 @@
         <v>127</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -2072,7 +2099,7 @@
         <v>128</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2080,7 +2107,7 @@
         <v>129</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2088,7 +2115,7 @@
         <v>130</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -2096,7 +2123,7 @@
         <v>131</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -2104,7 +2131,7 @@
         <v>132</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -2112,7 +2139,7 @@
         <v>133</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -2120,7 +2147,7 @@
         <v>134</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="141" spans="1:1">
@@ -2133,19 +2160,19 @@
         <v>136</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2153,7 +2180,7 @@
         <v>137</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="144" spans="1:1">
@@ -2166,16 +2193,16 @@
         <v>139</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="146" spans="1:1">
@@ -2188,16 +2215,16 @@
         <v>141</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -2205,16 +2232,16 @@
         <v>142</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -2222,16 +2249,16 @@
         <v>143</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -2239,19 +2266,19 @@
         <v>144</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -2259,19 +2286,19 @@
         <v>145</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -2279,7 +2306,7 @@
         <v>146</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -2287,7 +2314,7 @@
         <v>147</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -2295,7 +2322,7 @@
         <v>148</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2303,7 +2330,7 @@
         <v>149</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2311,7 +2338,7 @@
         <v>150</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2319,7 +2346,7 @@
         <v>151</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2327,7 +2354,7 @@
         <v>152</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2335,7 +2362,7 @@
         <v>153</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -2343,7 +2370,7 @@
         <v>154</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -2351,7 +2378,7 @@
         <v>155</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -2359,7 +2386,7 @@
         <v>156</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -2367,7 +2394,7 @@
         <v>157</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -2375,7 +2402,7 @@
         <v>158</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -2383,7 +2410,7 @@
         <v>159</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -2391,7 +2418,7 @@
         <v>160</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -2399,7 +2426,7 @@
         <v>161</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -2407,7 +2434,7 @@
         <v>162</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -2415,7 +2442,7 @@
         <v>163</v>
       </c>
       <c r="E169" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -2423,7 +2450,7 @@
         <v>164</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -2431,7 +2458,7 @@
         <v>165</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2666,7 +2693,7 @@
       <c r="C17" s="3"/>
       <c r="D17" s="4"/>
       <c r="E17" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="3"/>
@@ -2690,13 +2717,13 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
       <c r="F19" s="4"/>
       <c r="G19" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H19" s="2"/>
     </row>
@@ -2706,13 +2733,13 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
       <c r="F20" s="4"/>
       <c r="G20" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H20" s="2"/>
     </row>
@@ -2722,13 +2749,13 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
       <c r="F21" s="4"/>
       <c r="G21" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H21" s="2"/>
     </row>
@@ -2778,7 +2805,7 @@
       <c r="E25" s="5"/>
       <c r="F25" s="4"/>
       <c r="G25" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H25" s="2"/>
     </row>
@@ -2792,7 +2819,7 @@
       <c r="E26" s="5"/>
       <c r="F26" s="4"/>
       <c r="G26" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H26" s="2"/>
     </row>
@@ -2806,7 +2833,7 @@
       <c r="E27" s="5"/>
       <c r="F27" s="4"/>
       <c r="G27" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H27" s="2"/>
     </row>
@@ -2914,7 +2941,7 @@
       <c r="C36" s="3"/>
       <c r="D36" s="4"/>
       <c r="E36" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="3"/>
@@ -2938,13 +2965,13 @@
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="5"/>
       <c r="F38" s="4"/>
       <c r="G38" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H38" s="2"/>
     </row>
@@ -2954,13 +2981,13 @@
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="5"/>
       <c r="F39" s="4"/>
       <c r="G39" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H39" s="2"/>
     </row>
@@ -2970,13 +2997,13 @@
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="5"/>
       <c r="F40" s="4"/>
       <c r="G40" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H40" s="2"/>
     </row>
@@ -3022,7 +3049,7 @@
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="5"/>
@@ -3036,7 +3063,7 @@
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="5"/>
@@ -3050,7 +3077,7 @@
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="5"/>
@@ -3078,7 +3105,7 @@
       <c r="C48" s="3"/>
       <c r="D48" s="4"/>
       <c r="E48" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="3"/>
@@ -3092,7 +3119,7 @@
       <c r="C49" s="3"/>
       <c r="D49" s="4"/>
       <c r="E49" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="3"/>
@@ -3106,7 +3133,7 @@
       <c r="C50" s="3"/>
       <c r="D50" s="4"/>
       <c r="E50" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="3"/>
@@ -3120,7 +3147,7 @@
       <c r="C51" s="3"/>
       <c r="D51" s="4"/>
       <c r="E51" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F51" s="4"/>
       <c r="G51" s="3"/>
@@ -3134,7 +3161,7 @@
       <c r="C52" s="3"/>
       <c r="D52" s="4"/>
       <c r="E52" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F52" s="4"/>
       <c r="G52" s="3"/>
@@ -3232,7 +3259,7 @@
       <c r="C60" s="3"/>
       <c r="D60" s="4"/>
       <c r="E60" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="3"/>
@@ -3342,7 +3369,7 @@
       <c r="C69" s="3"/>
       <c r="D69" s="4"/>
       <c r="E69" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F69" s="4"/>
       <c r="G69" s="3"/>
@@ -3366,7 +3393,7 @@
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="5"/>
@@ -3396,7 +3423,7 @@
       <c r="E73" s="5"/>
       <c r="F73" s="4"/>
       <c r="G73" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H73" s="2"/>
     </row>
@@ -3432,7 +3459,7 @@
       <c r="C76" s="3"/>
       <c r="D76" s="4"/>
       <c r="E76" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F76" s="4"/>
       <c r="G76" s="3"/>
@@ -3446,7 +3473,7 @@
       <c r="C77" s="3"/>
       <c r="D77" s="4"/>
       <c r="E77" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F77" s="4"/>
       <c r="G77" s="3"/>
@@ -3460,7 +3487,7 @@
       <c r="C78" s="3"/>
       <c r="D78" s="4"/>
       <c r="E78" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F78" s="4"/>
       <c r="G78" s="3"/>
@@ -3474,7 +3501,7 @@
       <c r="C79" s="3"/>
       <c r="D79" s="4"/>
       <c r="E79" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F79" s="4"/>
       <c r="G79" s="3"/>
@@ -3488,7 +3515,7 @@
       <c r="C80" s="3"/>
       <c r="D80" s="4"/>
       <c r="E80" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F80" s="4"/>
       <c r="G80" s="3"/>
@@ -3548,7 +3575,7 @@
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="5"/>
@@ -3588,7 +3615,7 @@
       <c r="C88" s="3"/>
       <c r="D88" s="4"/>
       <c r="E88" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F88" s="4"/>
       <c r="G88" s="3"/>
@@ -3664,7 +3691,7 @@
       <c r="E94" s="5"/>
       <c r="F94" s="4"/>
       <c r="G94" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H94" s="2"/>
     </row>
@@ -3677,7 +3704,7 @@
       <c r="D95" s="4"/>
       <c r="E95" s="5"/>
       <c r="F95" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G95" s="3"/>
       <c r="H95" s="2"/>
@@ -3690,7 +3717,7 @@
       <c r="C96" s="3"/>
       <c r="D96" s="4"/>
       <c r="E96" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F96" s="4"/>
       <c r="G96" s="3"/>
@@ -3703,7 +3730,7 @@
       <c r="B97" s="2"/>
       <c r="C97" s="3"/>
       <c r="D97" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E97" s="5"/>
       <c r="F97" s="4"/>
@@ -3716,7 +3743,7 @@
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="5"/>
@@ -3730,7 +3757,7 @@
       </c>
       <c r="B99" s="2"/>
       <c r="C99" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="5"/>
@@ -3744,7 +3771,7 @@
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="5"/>
@@ -3759,7 +3786,7 @@
       <c r="B101" s="2"/>
       <c r="C101" s="3"/>
       <c r="D101" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E101" s="5"/>
       <c r="F101" s="4"/>
@@ -3786,7 +3813,7 @@
       <c r="C103" s="3"/>
       <c r="D103" s="4"/>
       <c r="E103" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F103" s="4"/>
       <c r="G103" s="3"/>
@@ -3800,7 +3827,7 @@
       <c r="C104" s="3"/>
       <c r="D104" s="4"/>
       <c r="E104" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F104" s="4"/>
       <c r="G104" s="3"/>
@@ -3814,7 +3841,7 @@
       <c r="C105" s="3"/>
       <c r="D105" s="4"/>
       <c r="E105" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F105" s="4"/>
       <c r="G105" s="3"/>
@@ -3826,7 +3853,7 @@
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D106" s="4"/>
       <c r="E106" s="5"/>
@@ -3856,7 +3883,7 @@
       <c r="E108" s="5"/>
       <c r="F108" s="4"/>
       <c r="G108" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H108" s="2"/>
     </row>
@@ -3902,17 +3929,17 @@
       </c>
       <c r="B112" s="2"/>
       <c r="C112" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E112" s="5"/>
       <c r="F112" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H112" s="2"/>
     </row>
@@ -3924,7 +3951,7 @@
       <c r="C113" s="3"/>
       <c r="D113" s="4"/>
       <c r="E113" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F113" s="4"/>
       <c r="G113" s="3"/>
@@ -3938,7 +3965,7 @@
       <c r="C114" s="3"/>
       <c r="D114" s="4"/>
       <c r="E114" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F114" s="4"/>
       <c r="G114" s="3"/>
@@ -3952,7 +3979,7 @@
       <c r="C115" s="3"/>
       <c r="D115" s="4"/>
       <c r="E115" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F115" s="4"/>
       <c r="G115" s="3"/>
@@ -3988,17 +4015,17 @@
       </c>
       <c r="B118" s="2"/>
       <c r="C118" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E118" s="5"/>
       <c r="F118" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H118" s="2"/>
     </row>
@@ -4070,7 +4097,7 @@
       <c r="C124" s="3"/>
       <c r="D124" s="4"/>
       <c r="E124" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F124" s="4"/>
       <c r="G124" s="3"/>
@@ -4085,7 +4112,7 @@
       <c r="D125" s="4"/>
       <c r="E125" s="5"/>
       <c r="F125" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G125" s="3"/>
       <c r="H125" s="2"/>
@@ -4100,7 +4127,7 @@
       <c r="E126" s="5"/>
       <c r="F126" s="4"/>
       <c r="G126" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H126" s="2"/>
     </row>
@@ -4139,7 +4166,7 @@
       <c r="F129" s="4"/>
       <c r="G129" s="3"/>
       <c r="H129" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4176,7 +4203,7 @@
       <c r="E132" s="5"/>
       <c r="F132" s="4"/>
       <c r="G132" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H132" s="2"/>
     </row>
@@ -4190,7 +4217,7 @@
       <c r="E133" s="5"/>
       <c r="F133" s="4"/>
       <c r="G133" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H133" s="2"/>
     </row>
@@ -4204,7 +4231,7 @@
       <c r="E134" s="5"/>
       <c r="F134" s="4"/>
       <c r="G134" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H134" s="2"/>
     </row>
@@ -4226,12 +4253,12 @@
       </c>
       <c r="B136" s="2"/>
       <c r="C136" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D136" s="4"/>
       <c r="E136" s="5"/>
       <c r="F136" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G136" s="3"/>
       <c r="H136" s="2"/>
@@ -4242,11 +4269,11 @@
       </c>
       <c r="B137" s="2"/>
       <c r="C137" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D137" s="4"/>
       <c r="E137" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F137" s="4"/>
       <c r="G137" s="3"/>
@@ -4258,7 +4285,7 @@
       </c>
       <c r="B138" s="2"/>
       <c r="C138" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D138" s="4"/>
       <c r="E138" s="5"/>
@@ -4273,7 +4300,7 @@
       <c r="B139" s="2"/>
       <c r="C139" s="3"/>
       <c r="D139" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E139" s="5"/>
       <c r="F139" s="4"/>
@@ -4298,7 +4325,7 @@
       </c>
       <c r="B141" s="2"/>
       <c r="C141" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D141" s="4"/>
       <c r="E141" s="5"/>
@@ -4312,7 +4339,7 @@
       </c>
       <c r="B142" s="2"/>
       <c r="C142" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D142" s="4"/>
       <c r="E142" s="5"/>
@@ -4326,12 +4353,12 @@
       </c>
       <c r="B143" s="2"/>
       <c r="C143" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D143" s="4"/>
       <c r="E143" s="5"/>
       <c r="F143" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G143" s="3"/>
       <c r="H143" s="2"/>
@@ -4342,11 +4369,11 @@
       </c>
       <c r="B144" s="2"/>
       <c r="C144" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D144" s="4"/>
       <c r="E144" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F144" s="4"/>
       <c r="G144" s="3"/>
@@ -4358,10 +4385,10 @@
       </c>
       <c r="B145" s="2"/>
       <c r="C145" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E145" s="5"/>
       <c r="F145" s="4"/>
@@ -4374,7 +4401,7 @@
       </c>
       <c r="B146" s="2"/>
       <c r="C146" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D146" s="4"/>
       <c r="E146" s="5"/>
@@ -4389,7 +4416,7 @@
       <c r="B147" s="2"/>
       <c r="C147" s="3"/>
       <c r="D147" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E147" s="5"/>
       <c r="F147" s="4"/>
@@ -4404,7 +4431,7 @@
       <c r="C148" s="3"/>
       <c r="D148" s="4"/>
       <c r="E148" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F148" s="4"/>
       <c r="G148" s="3"/>
@@ -4418,7 +4445,7 @@
       <c r="C149" s="3"/>
       <c r="D149" s="4"/>
       <c r="E149" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F149" s="4"/>
       <c r="G149" s="3"/>
@@ -4432,7 +4459,7 @@
       <c r="C150" s="3"/>
       <c r="D150" s="4"/>
       <c r="E150" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F150" s="4"/>
       <c r="G150" s="3"/>
@@ -4446,7 +4473,7 @@
       <c r="C151" s="3"/>
       <c r="D151" s="4"/>
       <c r="E151" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F151" s="4"/>
       <c r="G151" s="3"/>
@@ -4494,13 +4521,13 @@
       </c>
       <c r="B155" s="2"/>
       <c r="C155" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D155" s="4"/>
       <c r="E155" s="5"/>
       <c r="F155" s="4"/>
       <c r="G155" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H155" s="2"/>
     </row>
@@ -4548,7 +4575,7 @@
       <c r="C159" s="3"/>
       <c r="D159" s="4"/>
       <c r="E159" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F159" s="4"/>
       <c r="G159" s="3"/>
@@ -4562,7 +4589,7 @@
       <c r="C160" s="3"/>
       <c r="D160" s="4"/>
       <c r="E160" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F160" s="4"/>
       <c r="G160" s="3"/>
@@ -4576,7 +4603,7 @@
       <c r="C161" s="3"/>
       <c r="D161" s="4"/>
       <c r="E161" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F161" s="4"/>
       <c r="G161" s="3"/>
@@ -4590,7 +4617,7 @@
       <c r="C162" s="3"/>
       <c r="D162" s="4"/>
       <c r="E162" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F162" s="4"/>
       <c r="G162" s="3"/>
@@ -4616,7 +4643,7 @@
       <c r="C164" s="3"/>
       <c r="D164" s="4"/>
       <c r="E164" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F164" s="4"/>
       <c r="G164" s="3"/>
@@ -4876,11 +4903,11 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="3"/>
@@ -4954,7 +4981,7 @@
       <c r="C23" s="3"/>
       <c r="D23" s="4"/>
       <c r="E23" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="3"/>
@@ -4968,7 +4995,7 @@
       <c r="C24" s="3"/>
       <c r="D24" s="4"/>
       <c r="E24" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="3"/>
@@ -4980,15 +5007,15 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H25" s="2"/>
     </row>
@@ -5048,7 +5075,7 @@
       <c r="C30" s="3"/>
       <c r="D30" s="4"/>
       <c r="E30" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="3"/>
@@ -5062,7 +5089,7 @@
       <c r="C31" s="3"/>
       <c r="D31" s="4"/>
       <c r="E31" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="3"/>
@@ -5076,7 +5103,7 @@
       <c r="C32" s="3"/>
       <c r="D32" s="4"/>
       <c r="E32" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="3"/>
@@ -5125,13 +5152,13 @@
       <c r="B36" s="2"/>
       <c r="C36" s="3"/>
       <c r="D36" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="2"/>
@@ -5183,7 +5210,7 @@
       <c r="F40" s="4"/>
       <c r="G40" s="3"/>
       <c r="H40" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -5228,13 +5255,13 @@
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="5"/>
       <c r="F44" s="4"/>
       <c r="G44" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H44" s="2"/>
     </row>
@@ -5244,12 +5271,12 @@
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="5"/>
       <c r="F45" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="2"/>
@@ -5260,11 +5287,11 @@
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="3"/>
@@ -5278,7 +5305,7 @@
       <c r="C47" s="3"/>
       <c r="D47" s="4"/>
       <c r="E47" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="3"/>
@@ -5292,7 +5319,7 @@
       <c r="C48" s="3"/>
       <c r="D48" s="4"/>
       <c r="E48" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="3"/>
@@ -5306,7 +5333,7 @@
       <c r="C49" s="3"/>
       <c r="D49" s="4"/>
       <c r="E49" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="3"/>
@@ -5320,7 +5347,7 @@
       <c r="C50" s="3"/>
       <c r="D50" s="4"/>
       <c r="E50" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="3"/>
@@ -5358,7 +5385,7 @@
       <c r="C53" s="3"/>
       <c r="D53" s="4"/>
       <c r="E53" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="3"/>
@@ -5382,13 +5409,13 @@
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="5"/>
       <c r="F55" s="4"/>
       <c r="G55" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H55" s="2"/>
     </row>
@@ -5398,7 +5425,7 @@
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="5"/>
@@ -5412,7 +5439,7 @@
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="5"/>
@@ -5426,7 +5453,7 @@
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="5"/>
@@ -5440,7 +5467,7 @@
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="5"/>
@@ -5454,11 +5481,11 @@
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="3"/>
@@ -5566,13 +5593,13 @@
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="5"/>
       <c r="F69" s="4"/>
       <c r="G69" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H69" s="2"/>
     </row>
@@ -5582,13 +5609,13 @@
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="5"/>
       <c r="F70" s="4"/>
       <c r="G70" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H70" s="2"/>
     </row>
@@ -5598,13 +5625,13 @@
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="5"/>
       <c r="F71" s="4"/>
       <c r="G71" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H71" s="2"/>
     </row>
@@ -5618,7 +5645,7 @@
       <c r="E72" s="5"/>
       <c r="F72" s="4"/>
       <c r="G72" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H72" s="2"/>
     </row>
@@ -5632,7 +5659,7 @@
       <c r="E73" s="5"/>
       <c r="F73" s="4"/>
       <c r="G73" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H73" s="2"/>
     </row>
@@ -5680,7 +5707,7 @@
       <c r="C77" s="3"/>
       <c r="D77" s="4"/>
       <c r="E77" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F77" s="4"/>
       <c r="G77" s="3"/>
@@ -5694,7 +5721,7 @@
       <c r="C78" s="3"/>
       <c r="D78" s="4"/>
       <c r="E78" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F78" s="4"/>
       <c r="G78" s="3"/>
@@ -5708,7 +5735,7 @@
       <c r="C79" s="3"/>
       <c r="D79" s="4"/>
       <c r="E79" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F79" s="4"/>
       <c r="G79" s="3"/>
@@ -5722,7 +5749,7 @@
       <c r="C80" s="3"/>
       <c r="D80" s="4"/>
       <c r="E80" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F80" s="4"/>
       <c r="G80" s="3"/>
@@ -5782,7 +5809,7 @@
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="5"/>
@@ -5797,7 +5824,7 @@
       <c r="B86" s="2"/>
       <c r="C86" s="3"/>
       <c r="D86" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E86" s="5"/>
       <c r="F86" s="4"/>
@@ -5812,7 +5839,7 @@
       <c r="C87" s="3"/>
       <c r="D87" s="4"/>
       <c r="E87" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F87" s="4"/>
       <c r="G87" s="3"/>
@@ -5852,7 +5879,7 @@
       <c r="E90" s="5"/>
       <c r="F90" s="4"/>
       <c r="G90" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H90" s="2"/>
     </row>
@@ -5866,7 +5893,7 @@
       <c r="E91" s="5"/>
       <c r="F91" s="4"/>
       <c r="G91" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H91" s="2"/>
     </row>
@@ -5880,10 +5907,10 @@
       <c r="E92" s="5"/>
       <c r="F92" s="4"/>
       <c r="G92" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -5896,7 +5923,7 @@
       <c r="E93" s="5"/>
       <c r="F93" s="4"/>
       <c r="G93" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H93" s="2"/>
     </row>
@@ -5910,7 +5937,7 @@
       <c r="E94" s="5"/>
       <c r="F94" s="4"/>
       <c r="G94" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H94" s="2"/>
     </row>
@@ -5923,7 +5950,7 @@
       <c r="D95" s="4"/>
       <c r="E95" s="5"/>
       <c r="F95" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G95" s="3"/>
       <c r="H95" s="2"/>
@@ -5936,7 +5963,7 @@
       <c r="C96" s="3"/>
       <c r="D96" s="4"/>
       <c r="E96" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F96" s="4"/>
       <c r="G96" s="3"/>
@@ -5949,7 +5976,7 @@
       <c r="B97" s="2"/>
       <c r="C97" s="3"/>
       <c r="D97" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E97" s="5"/>
       <c r="F97" s="4"/>
@@ -5962,7 +5989,7 @@
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="5"/>
@@ -5976,11 +6003,11 @@
       </c>
       <c r="B99" s="2"/>
       <c r="C99" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F99" s="4"/>
       <c r="G99" s="3"/>
@@ -5992,7 +6019,7 @@
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="5"/>
@@ -6006,7 +6033,7 @@
       </c>
       <c r="B101" s="2"/>
       <c r="C101" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="5"/>
@@ -6035,7 +6062,7 @@
       <c r="D103" s="4"/>
       <c r="E103" s="5"/>
       <c r="F103" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G103" s="3"/>
       <c r="H103" s="2"/>
@@ -6047,7 +6074,7 @@
       <c r="B104" s="2"/>
       <c r="C104" s="3"/>
       <c r="D104" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E104" s="5"/>
       <c r="F104" s="4"/>
@@ -6072,11 +6099,11 @@
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D106" s="4"/>
       <c r="E106" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F106" s="4"/>
       <c r="G106" s="3"/>
@@ -6090,7 +6117,7 @@
       <c r="C107" s="3"/>
       <c r="D107" s="4"/>
       <c r="E107" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F107" s="4"/>
       <c r="G107" s="3"/>
@@ -6104,7 +6131,7 @@
       <c r="C108" s="3"/>
       <c r="D108" s="4"/>
       <c r="E108" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F108" s="4"/>
       <c r="G108" s="3"/>
@@ -6118,7 +6145,7 @@
       <c r="C109" s="3"/>
       <c r="D109" s="4"/>
       <c r="E109" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F109" s="4"/>
       <c r="G109" s="3"/>
@@ -6154,7 +6181,7 @@
       </c>
       <c r="B112" s="2"/>
       <c r="C112" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D112" s="4"/>
       <c r="E112" s="5"/>
@@ -6194,7 +6221,7 @@
       <c r="C115" s="3"/>
       <c r="D115" s="4"/>
       <c r="E115" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F115" s="4"/>
       <c r="G115" s="3"/>
@@ -6304,7 +6331,7 @@
       <c r="C124" s="3"/>
       <c r="D124" s="4"/>
       <c r="E124" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F124" s="4"/>
       <c r="G124" s="3"/>
@@ -6318,7 +6345,7 @@
       <c r="C125" s="3"/>
       <c r="D125" s="4"/>
       <c r="E125" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F125" s="4"/>
       <c r="G125" s="3"/>
@@ -6332,7 +6359,7 @@
       <c r="C126" s="3"/>
       <c r="D126" s="4"/>
       <c r="E126" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F126" s="4"/>
       <c r="G126" s="3"/>
@@ -6346,7 +6373,7 @@
       <c r="C127" s="3"/>
       <c r="D127" s="4"/>
       <c r="E127" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F127" s="4"/>
       <c r="G127" s="3"/>
@@ -6360,7 +6387,7 @@
       <c r="C128" s="3"/>
       <c r="D128" s="4"/>
       <c r="E128" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F128" s="4"/>
       <c r="G128" s="3"/>
@@ -6444,17 +6471,17 @@
       </c>
       <c r="B135" s="2"/>
       <c r="C135" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E135" s="5"/>
       <c r="F135" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H135" s="2"/>
     </row>
@@ -6505,7 +6532,7 @@
       <c r="F139" s="4"/>
       <c r="G139" s="3"/>
       <c r="H139" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -6550,19 +6577,19 @@
       </c>
       <c r="B143" s="2"/>
       <c r="C143" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H143" s="2"/>
     </row>
@@ -6704,19 +6731,19 @@
       </c>
       <c r="B155" s="2"/>
       <c r="C155" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H155" s="2"/>
     </row>
@@ -6798,15 +6825,15 @@
       </c>
       <c r="B162" s="2"/>
       <c r="C162" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D162" s="4"/>
       <c r="E162" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F162" s="4"/>
       <c r="G162" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H162" s="2"/>
     </row>
@@ -6816,15 +6843,15 @@
       </c>
       <c r="B163" s="2"/>
       <c r="C163" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D163" s="4"/>
       <c r="E163" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F163" s="4"/>
       <c r="G163" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H163" s="2"/>
     </row>
@@ -6834,15 +6861,15 @@
       </c>
       <c r="B164" s="2"/>
       <c r="C164" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D164" s="4"/>
       <c r="E164" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F164" s="4"/>
       <c r="G164" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H164" s="2"/>
     </row>
@@ -6852,15 +6879,15 @@
       </c>
       <c r="B165" s="2"/>
       <c r="C165" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D165" s="4"/>
       <c r="E165" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F165" s="4"/>
       <c r="G165" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H165" s="2"/>
     </row>
@@ -6870,15 +6897,15 @@
       </c>
       <c r="B166" s="2"/>
       <c r="C166" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D166" s="4"/>
       <c r="E166" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F166" s="4"/>
       <c r="G166" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H166" s="2"/>
     </row>
@@ -7112,15 +7139,15 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H17" s="2"/>
     </row>
@@ -7192,7 +7219,7 @@
       <c r="C23" s="3"/>
       <c r="D23" s="4"/>
       <c r="E23" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="3"/>
@@ -7206,7 +7233,7 @@
       <c r="C24" s="3"/>
       <c r="D24" s="4"/>
       <c r="E24" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="3"/>
@@ -7220,7 +7247,7 @@
       <c r="C25" s="3"/>
       <c r="D25" s="4"/>
       <c r="E25" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="3"/>
@@ -7282,7 +7309,7 @@
       <c r="C30" s="3"/>
       <c r="D30" s="4"/>
       <c r="E30" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="3"/>
@@ -7296,7 +7323,7 @@
       <c r="C31" s="3"/>
       <c r="D31" s="4"/>
       <c r="E31" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="3"/>
@@ -7310,7 +7337,7 @@
       <c r="C32" s="3"/>
       <c r="D32" s="4"/>
       <c r="E32" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="3"/>
@@ -7357,17 +7384,17 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="2"/>
@@ -7426,7 +7453,7 @@
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="5"/>
@@ -7453,7 +7480,7 @@
       <c r="B43" s="2"/>
       <c r="C43" s="3"/>
       <c r="D43" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="4"/>
@@ -7466,7 +7493,7 @@
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="5"/>
@@ -7480,7 +7507,7 @@
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="5"/>
@@ -7494,11 +7521,11 @@
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="3"/>
@@ -7512,7 +7539,7 @@
       <c r="C47" s="3"/>
       <c r="D47" s="4"/>
       <c r="E47" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="3"/>
@@ -7526,7 +7553,7 @@
       <c r="C48" s="3"/>
       <c r="D48" s="4"/>
       <c r="E48" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="3"/>
@@ -7540,7 +7567,7 @@
       <c r="C49" s="3"/>
       <c r="D49" s="4"/>
       <c r="E49" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="3"/>
@@ -7554,7 +7581,7 @@
       <c r="C50" s="3"/>
       <c r="D50" s="4"/>
       <c r="E50" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="3"/>
@@ -7592,7 +7619,7 @@
       <c r="C53" s="3"/>
       <c r="D53" s="4"/>
       <c r="E53" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="3"/>
@@ -7618,11 +7645,11 @@
       <c r="C55" s="3"/>
       <c r="D55" s="4"/>
       <c r="E55" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F55" s="4"/>
       <c r="G55" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H55" s="2"/>
     </row>
@@ -7634,7 +7661,7 @@
       <c r="C56" s="3"/>
       <c r="D56" s="4"/>
       <c r="E56" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="3"/>
@@ -7648,7 +7675,7 @@
       <c r="C57" s="3"/>
       <c r="D57" s="4"/>
       <c r="E57" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F57" s="4"/>
       <c r="G57" s="3"/>
@@ -7686,7 +7713,7 @@
       <c r="C60" s="3"/>
       <c r="D60" s="4"/>
       <c r="E60" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="3"/>
@@ -7702,7 +7729,7 @@
       <c r="E61" s="5"/>
       <c r="F61" s="4"/>
       <c r="G61" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H61" s="2"/>
     </row>
@@ -7724,7 +7751,7 @@
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="5"/>
@@ -7740,7 +7767,7 @@
       <c r="C64" s="3"/>
       <c r="D64" s="4"/>
       <c r="E64" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F64" s="4"/>
       <c r="G64" s="3"/>
@@ -7754,7 +7781,7 @@
       <c r="C65" s="3"/>
       <c r="D65" s="4"/>
       <c r="E65" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F65" s="4"/>
       <c r="G65" s="3"/>
@@ -7768,7 +7795,7 @@
       <c r="C66" s="3"/>
       <c r="D66" s="4"/>
       <c r="E66" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F66" s="4"/>
       <c r="G66" s="3"/>
@@ -7782,7 +7809,7 @@
       <c r="C67" s="3"/>
       <c r="D67" s="4"/>
       <c r="E67" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F67" s="4"/>
       <c r="G67" s="3"/>
@@ -7796,7 +7823,7 @@
       <c r="C68" s="3"/>
       <c r="D68" s="4"/>
       <c r="E68" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F68" s="4"/>
       <c r="G68" s="3"/>
@@ -7904,15 +7931,15 @@
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F77" s="4"/>
       <c r="G77" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H77" s="2"/>
     </row>
@@ -7922,15 +7949,15 @@
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D78" s="4"/>
       <c r="E78" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F78" s="4"/>
       <c r="G78" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H78" s="2"/>
     </row>
@@ -7940,15 +7967,15 @@
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D79" s="4"/>
       <c r="E79" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F79" s="4"/>
       <c r="G79" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H79" s="2"/>
     </row>
@@ -7958,15 +7985,15 @@
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F80" s="4"/>
       <c r="G80" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H80" s="2"/>
     </row>
@@ -8084,19 +8111,19 @@
       </c>
       <c r="B90" s="2"/>
       <c r="C90" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H90" s="2"/>
     </row>
@@ -8110,10 +8137,10 @@
       <c r="E91" s="5"/>
       <c r="F91" s="4"/>
       <c r="G91" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -8126,7 +8153,7 @@
       <c r="E92" s="5"/>
       <c r="F92" s="4"/>
       <c r="G92" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H92" s="2"/>
     </row>
@@ -8140,7 +8167,7 @@
       <c r="E93" s="5"/>
       <c r="F93" s="4"/>
       <c r="G93" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H93" s="2"/>
     </row>
@@ -8154,7 +8181,7 @@
       <c r="E94" s="5"/>
       <c r="F94" s="4"/>
       <c r="G94" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H94" s="2"/>
     </row>
@@ -8167,7 +8194,7 @@
       <c r="D95" s="4"/>
       <c r="E95" s="5"/>
       <c r="F95" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G95" s="3"/>
       <c r="H95" s="2"/>
@@ -8180,7 +8207,7 @@
       <c r="C96" s="3"/>
       <c r="D96" s="4"/>
       <c r="E96" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F96" s="4"/>
       <c r="G96" s="3"/>
@@ -8193,7 +8220,7 @@
       <c r="B97" s="2"/>
       <c r="C97" s="3"/>
       <c r="D97" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E97" s="9"/>
       <c r="F97" s="4"/>
@@ -8206,7 +8233,7 @@
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="5"/>
@@ -8220,11 +8247,11 @@
       </c>
       <c r="B99" s="2"/>
       <c r="C99" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F99" s="4"/>
       <c r="G99" s="3"/>
@@ -8236,7 +8263,7 @@
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="5"/>
@@ -8250,7 +8277,7 @@
       </c>
       <c r="B101" s="2"/>
       <c r="C101" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="5"/>
@@ -8279,7 +8306,7 @@
       <c r="D103" s="4"/>
       <c r="E103" s="5"/>
       <c r="F103" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G103" s="3"/>
       <c r="H103" s="2"/>
@@ -8291,7 +8318,7 @@
       <c r="B104" s="2"/>
       <c r="C104" s="3"/>
       <c r="D104" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E104" s="5"/>
       <c r="F104" s="4"/>
@@ -8316,11 +8343,11 @@
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D106" s="4"/>
       <c r="E106" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F106" s="4"/>
       <c r="G106" s="3"/>
@@ -8334,7 +8361,7 @@
       <c r="C107" s="3"/>
       <c r="D107" s="4"/>
       <c r="E107" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F107" s="4"/>
       <c r="G107" s="3"/>
@@ -8348,12 +8375,12 @@
       <c r="C108" s="3"/>
       <c r="D108" s="4"/>
       <c r="E108" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F108" s="4"/>
       <c r="G108" s="3"/>
       <c r="H108" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -8364,7 +8391,7 @@
       <c r="C109" s="3"/>
       <c r="D109" s="4"/>
       <c r="E109" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F109" s="4"/>
       <c r="G109" s="3"/>
@@ -8400,7 +8427,7 @@
       </c>
       <c r="B112" s="2"/>
       <c r="C112" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D112" s="4"/>
       <c r="E112" s="5"/>
@@ -8439,13 +8466,13 @@
       <c r="B115" s="2"/>
       <c r="C115" s="3"/>
       <c r="D115" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G115" s="3"/>
       <c r="H115" s="2"/>
@@ -8458,7 +8485,7 @@
       <c r="C116" s="3"/>
       <c r="D116" s="4"/>
       <c r="E116" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F116" s="4"/>
       <c r="G116" s="3"/>
@@ -8472,7 +8499,7 @@
       <c r="C117" s="3"/>
       <c r="D117" s="4"/>
       <c r="E117" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F117" s="4"/>
       <c r="G117" s="3"/>
@@ -8486,7 +8513,7 @@
       <c r="C118" s="3"/>
       <c r="D118" s="4"/>
       <c r="E118" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F118" s="4"/>
       <c r="G118" s="3"/>
@@ -8513,7 +8540,7 @@
       <c r="D120" s="4"/>
       <c r="E120" s="5"/>
       <c r="F120" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G120" s="3"/>
       <c r="H120" s="2"/>
@@ -8528,7 +8555,7 @@
       <c r="E121" s="5"/>
       <c r="F121" s="4"/>
       <c r="G121" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H121" s="2"/>
     </row>
@@ -8542,7 +8569,7 @@
       <c r="E122" s="5"/>
       <c r="F122" s="4"/>
       <c r="G122" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H122" s="2"/>
     </row>
@@ -8556,7 +8583,7 @@
       <c r="E123" s="5"/>
       <c r="F123" s="4"/>
       <c r="G123" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H123" s="2"/>
     </row>
@@ -8581,7 +8608,7 @@
       <c r="D125" s="4"/>
       <c r="E125" s="5"/>
       <c r="F125" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G125" s="3"/>
       <c r="H125" s="2"/>
@@ -8594,7 +8621,7 @@
       <c r="C126" s="3"/>
       <c r="D126" s="4"/>
       <c r="E126" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F126" s="4"/>
       <c r="G126" s="3"/>
@@ -8607,7 +8634,7 @@
       <c r="B127" s="2"/>
       <c r="C127" s="3"/>
       <c r="D127" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E127" s="5"/>
       <c r="F127" s="4"/>
@@ -8632,7 +8659,7 @@
       </c>
       <c r="B129" s="2"/>
       <c r="C129" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D129" s="4"/>
       <c r="E129" s="5"/>
@@ -8647,7 +8674,7 @@
       <c r="B130" s="2"/>
       <c r="C130" s="3"/>
       <c r="D130" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E130" s="5"/>
       <c r="F130" s="4"/>
@@ -8674,7 +8701,7 @@
       <c r="C132" s="3"/>
       <c r="D132" s="4"/>
       <c r="E132" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F132" s="4"/>
       <c r="G132" s="3"/>
@@ -8758,15 +8785,15 @@
       </c>
       <c r="B139" s="2"/>
       <c r="C139" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D139" s="4"/>
       <c r="E139" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F139" s="4"/>
       <c r="G139" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H139" s="2"/>
     </row>
@@ -8778,7 +8805,7 @@
       <c r="C140" s="3"/>
       <c r="D140" s="4"/>
       <c r="E140" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F140" s="4"/>
       <c r="G140" s="3"/>
@@ -8792,7 +8819,7 @@
       <c r="C141" s="3"/>
       <c r="D141" s="4"/>
       <c r="E141" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F141" s="4"/>
       <c r="G141" s="3"/>
@@ -8806,7 +8833,7 @@
       <c r="C142" s="3"/>
       <c r="D142" s="4"/>
       <c r="E142" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F142" s="4"/>
       <c r="G142" s="3"/>
@@ -8818,15 +8845,15 @@
       </c>
       <c r="B143" s="2"/>
       <c r="C143" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D143" s="4"/>
       <c r="E143" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F143" s="4"/>
       <c r="G143" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H143" s="2"/>
     </row>
@@ -8838,7 +8865,7 @@
       <c r="C144" s="3"/>
       <c r="D144" s="4"/>
       <c r="E144" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F144" s="4"/>
       <c r="G144" s="3"/>
@@ -8852,7 +8879,7 @@
       <c r="C145" s="3"/>
       <c r="D145" s="4"/>
       <c r="E145" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F145" s="4"/>
       <c r="G145" s="3"/>
@@ -8866,7 +8893,7 @@
       <c r="C146" s="3"/>
       <c r="D146" s="4"/>
       <c r="E146" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F146" s="4"/>
       <c r="G146" s="3"/>
@@ -8878,15 +8905,15 @@
       </c>
       <c r="B147" s="2"/>
       <c r="C147" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D147" s="4"/>
       <c r="E147" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F147" s="4"/>
       <c r="G147" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H147" s="2"/>
     </row>
@@ -8898,7 +8925,7 @@
       <c r="C148" s="3"/>
       <c r="D148" s="4"/>
       <c r="E148" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F148" s="4"/>
       <c r="G148" s="3"/>
@@ -8912,7 +8939,7 @@
       <c r="C149" s="3"/>
       <c r="D149" s="4"/>
       <c r="E149" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F149" s="4"/>
       <c r="G149" s="3"/>
@@ -8926,7 +8953,7 @@
       <c r="C150" s="3"/>
       <c r="D150" s="4"/>
       <c r="E150" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F150" s="4"/>
       <c r="G150" s="3"/>
@@ -8962,15 +8989,15 @@
       </c>
       <c r="B153" s="2"/>
       <c r="C153" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D153" s="4"/>
       <c r="E153" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F153" s="4"/>
       <c r="G153" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H153" s="2"/>
     </row>
@@ -8980,15 +9007,15 @@
       </c>
       <c r="B154" s="2"/>
       <c r="C154" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D154" s="4"/>
       <c r="E154" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F154" s="4"/>
       <c r="G154" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H154" s="2"/>
     </row>
@@ -8998,15 +9025,15 @@
       </c>
       <c r="B155" s="2"/>
       <c r="C155" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D155" s="4"/>
       <c r="E155" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F155" s="4"/>
       <c r="G155" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H155" s="2"/>
     </row>
@@ -9016,15 +9043,15 @@
       </c>
       <c r="B156" s="2"/>
       <c r="C156" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D156" s="4"/>
       <c r="E156" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F156" s="4"/>
       <c r="G156" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H156" s="2"/>
     </row>
@@ -9034,15 +9061,15 @@
       </c>
       <c r="B157" s="2"/>
       <c r="C157" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D157" s="4"/>
       <c r="E157" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F157" s="4"/>
       <c r="G157" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H157" s="2"/>
     </row>
@@ -9052,15 +9079,15 @@
       </c>
       <c r="B158" s="2"/>
       <c r="C158" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D158" s="4"/>
       <c r="E158" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F158" s="4"/>
       <c r="G158" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H158" s="2"/>
     </row>
@@ -9070,15 +9097,15 @@
       </c>
       <c r="B159" s="2"/>
       <c r="C159" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D159" s="4"/>
       <c r="E159" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F159" s="4"/>
       <c r="G159" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H159" s="2"/>
     </row>
@@ -9088,15 +9115,15 @@
       </c>
       <c r="B160" s="2"/>
       <c r="C160" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D160" s="4"/>
       <c r="E160" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F160" s="4"/>
       <c r="G160" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H160" s="2"/>
     </row>
@@ -9106,15 +9133,15 @@
       </c>
       <c r="B161" s="2"/>
       <c r="C161" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D161" s="4"/>
       <c r="E161" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F161" s="4"/>
       <c r="G161" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H161" s="2"/>
     </row>
@@ -9124,15 +9151,15 @@
       </c>
       <c r="B162" s="2"/>
       <c r="C162" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D162" s="4"/>
       <c r="E162" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F162" s="4"/>
       <c r="G162" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H162" s="2"/>
     </row>
@@ -9142,15 +9169,15 @@
       </c>
       <c r="B163" s="2"/>
       <c r="C163" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D163" s="4"/>
       <c r="E163" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F163" s="4"/>
       <c r="G163" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H163" s="2"/>
     </row>
@@ -9160,15 +9187,15 @@
       </c>
       <c r="B164" s="2"/>
       <c r="C164" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D164" s="4"/>
       <c r="E164" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F164" s="4"/>
       <c r="G164" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H164" s="2"/>
     </row>
@@ -9178,15 +9205,15 @@
       </c>
       <c r="B165" s="2"/>
       <c r="C165" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D165" s="4"/>
       <c r="E165" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F165" s="4"/>
       <c r="G165" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H165" s="2"/>
     </row>
@@ -9196,15 +9223,15 @@
       </c>
       <c r="B166" s="2"/>
       <c r="C166" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D166" s="4"/>
       <c r="E166" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F166" s="4"/>
       <c r="G166" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H166" s="2"/>
     </row>

--- a/TankRunner/Assets/Resources/LD.xlsx
+++ b/TankRunner/Assets/Resources/LD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540" tabRatio="475"/>
+    <workbookView windowWidth="28800" windowHeight="12420" tabRatio="475" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="lv1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="14">
   <si>
     <t>row</t>
   </si>
@@ -43,10 +43,13 @@
     <t>SideRight</t>
   </si>
   <si>
-    <t>P1</t>
+    <t>G</t>
   </si>
   <si>
-    <t>P2</t>
+    <t>T</t>
+  </si>
+  <si>
+    <t>H</t>
   </si>
   <si>
     <t>P3</t>
@@ -55,13 +58,7 @@
     <t>R</t>
   </si>
   <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>H</t>
+    <t>P1</t>
   </si>
 </sst>
 </file>
@@ -1096,8 +1093,8 @@
   <sheetPr/>
   <dimension ref="A1:H171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51:G53"/>
+    <sheetView topLeftCell="B104" workbookViewId="0">
+      <selection activeCell="E146" sqref="E146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.90833333333333" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1162,24 +1159,16 @@
       <c r="A11" s="6">
         <v>5</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:1">
       <c r="A12" s="6">
         <v>6</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+    </row>
+    <row r="13" spans="1:1">
       <c r="A13" s="6">
         <v>7</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -1196,59 +1185,43 @@
       <c r="A16" s="6">
         <v>10</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="E16" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="6">
         <v>11</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="6">
         <v>12</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="6">
         <v>13</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="6">
         <v>14</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="6">
         <v>15</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:1">
       <c r="A22" s="6">
         <v>16</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1256,7 +1229,7 @@
         <v>17</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1264,7 +1237,7 @@
         <v>18</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1272,7 +1245,7 @@
         <v>19</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:1">
@@ -1320,7 +1293,7 @@
         <v>28</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1328,7 +1301,7 @@
         <v>29</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1336,7 +1309,7 @@
         <v>30</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1344,7 +1317,7 @@
         <v>31</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -1372,7 +1345,7 @@
         <v>36</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:1">
@@ -1390,10 +1363,10 @@
         <v>39</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:1">
@@ -1406,7 +1379,7 @@
         <v>41</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:1">
@@ -1419,7 +1392,7 @@
         <v>43</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:1">
@@ -1431,24 +1404,16 @@
       <c r="A51" s="6">
         <v>45</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="C51" s="2"/>
+    </row>
+    <row r="52" spans="1:1">
       <c r="A52" s="6">
         <v>46</v>
       </c>
-      <c r="E52" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+    </row>
+    <row r="53" spans="1:1">
       <c r="A53" s="6">
         <v>47</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:1">
@@ -1461,7 +1426,7 @@
         <v>49</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:1">
@@ -1474,7 +1439,7 @@
         <v>51</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1482,7 +1447,7 @@
         <v>52</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:1">
@@ -1500,10 +1465,10 @@
         <v>55</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:1">
@@ -1516,7 +1481,7 @@
         <v>57</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:1">
@@ -1539,10 +1504,10 @@
         <v>61</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:1">
@@ -1555,10 +1520,10 @@
         <v>63</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:1">
@@ -1571,7 +1536,7 @@
         <v>65</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1579,13 +1544,13 @@
         <v>66</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1593,7 +1558,7 @@
         <v>67</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1601,7 +1566,7 @@
         <v>68</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1609,7 +1574,7 @@
         <v>69</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:1">
@@ -1632,7 +1597,7 @@
         <v>73</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:1">
@@ -1650,7 +1615,7 @@
         <v>76</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1658,7 +1623,7 @@
         <v>77</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1666,7 +1631,7 @@
         <v>78</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -1674,7 +1639,7 @@
         <v>79</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -1682,7 +1647,7 @@
         <v>80</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -1690,7 +1655,7 @@
         <v>81</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -1698,10 +1663,10 @@
         <v>82</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89" spans="1:1">
@@ -1729,13 +1694,13 @@
         <v>87</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:1">
@@ -1748,16 +1713,16 @@
         <v>89</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" spans="1:1">
@@ -1770,19 +1735,19 @@
         <v>91</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -1790,7 +1755,7 @@
         <v>92</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -1798,19 +1763,19 @@
         <v>93</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -1818,19 +1783,19 @@
         <v>94</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -1838,7 +1803,7 @@
         <v>95</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -1846,7 +1811,7 @@
         <v>96</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -1854,7 +1819,7 @@
         <v>97</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="104" spans="1:1">
@@ -1887,7 +1852,7 @@
         <v>103</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -1895,10 +1860,10 @@
         <v>104</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1906,7 +1871,7 @@
         <v>105</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -1914,10 +1879,10 @@
         <v>106</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -1925,7 +1890,7 @@
         <v>107</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -1933,7 +1898,7 @@
         <v>108</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -1941,7 +1906,7 @@
         <v>109</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -1949,10 +1914,10 @@
         <v>110</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="117" spans="1:1">
@@ -1965,7 +1930,7 @@
         <v>112</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -1973,7 +1938,7 @@
         <v>113</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -1981,7 +1946,7 @@
         <v>114</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -1989,7 +1954,7 @@
         <v>115</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -1997,7 +1962,7 @@
         <v>116</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -2005,10 +1970,10 @@
         <v>117</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2016,7 +1981,7 @@
         <v>118</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -2024,10 +1989,10 @@
         <v>119</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2035,7 +2000,7 @@
         <v>120</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2043,7 +2008,7 @@
         <v>121</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2051,7 +2016,7 @@
         <v>122</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2059,7 +2024,7 @@
         <v>123</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2067,7 +2032,7 @@
         <v>124</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2075,7 +2040,7 @@
         <v>125</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -2083,7 +2048,7 @@
         <v>126</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -2091,7 +2056,7 @@
         <v>127</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -2099,7 +2064,7 @@
         <v>128</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2107,7 +2072,7 @@
         <v>129</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2115,7 +2080,7 @@
         <v>130</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -2123,7 +2088,7 @@
         <v>131</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -2131,7 +2096,7 @@
         <v>132</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -2139,7 +2104,7 @@
         <v>133</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -2147,7 +2112,7 @@
         <v>134</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="141" spans="1:1">
@@ -2160,19 +2125,19 @@
         <v>136</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2180,7 +2145,7 @@
         <v>137</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="144" spans="1:1">
@@ -2193,16 +2158,16 @@
         <v>139</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="146" spans="1:1">
@@ -2215,16 +2180,16 @@
         <v>141</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -2232,16 +2197,16 @@
         <v>142</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -2249,16 +2214,16 @@
         <v>143</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -2266,19 +2231,19 @@
         <v>144</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -2286,19 +2251,19 @@
         <v>145</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -2306,7 +2271,7 @@
         <v>146</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -2314,7 +2279,7 @@
         <v>147</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -2322,7 +2287,7 @@
         <v>148</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2330,7 +2295,7 @@
         <v>149</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2338,7 +2303,7 @@
         <v>150</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2346,7 +2311,7 @@
         <v>151</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2354,7 +2319,7 @@
         <v>152</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2362,7 +2327,7 @@
         <v>153</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -2370,7 +2335,7 @@
         <v>154</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -2378,7 +2343,7 @@
         <v>155</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -2386,7 +2351,7 @@
         <v>156</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -2394,7 +2359,7 @@
         <v>157</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -2402,7 +2367,7 @@
         <v>158</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -2410,7 +2375,7 @@
         <v>159</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -2418,7 +2383,7 @@
         <v>160</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -2426,7 +2391,7 @@
         <v>161</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -2434,7 +2399,7 @@
         <v>162</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -2442,7 +2407,7 @@
         <v>163</v>
       </c>
       <c r="E169" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -2450,7 +2415,7 @@
         <v>164</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -2458,7 +2423,7 @@
         <v>165</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2473,8 +2438,8 @@
   <sheetPr/>
   <dimension ref="A1:H166"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B138" sqref="B138"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="E155" sqref="E155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.90833333333333" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2693,7 +2658,7 @@
       <c r="C17" s="3"/>
       <c r="D17" s="4"/>
       <c r="E17" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="3"/>
@@ -2717,13 +2682,13 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
       <c r="F19" s="4"/>
       <c r="G19" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H19" s="2"/>
     </row>
@@ -2733,13 +2698,13 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
       <c r="F20" s="4"/>
       <c r="G20" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H20" s="2"/>
     </row>
@@ -2749,13 +2714,13 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
       <c r="F21" s="4"/>
       <c r="G21" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H21" s="2"/>
     </row>
@@ -2805,7 +2770,7 @@
       <c r="E25" s="5"/>
       <c r="F25" s="4"/>
       <c r="G25" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H25" s="2"/>
     </row>
@@ -2819,7 +2784,7 @@
       <c r="E26" s="5"/>
       <c r="F26" s="4"/>
       <c r="G26" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H26" s="2"/>
     </row>
@@ -2833,7 +2798,7 @@
       <c r="E27" s="5"/>
       <c r="F27" s="4"/>
       <c r="G27" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H27" s="2"/>
     </row>
@@ -2941,7 +2906,7 @@
       <c r="C36" s="3"/>
       <c r="D36" s="4"/>
       <c r="E36" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="3"/>
@@ -2965,13 +2930,13 @@
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="5"/>
       <c r="F38" s="4"/>
       <c r="G38" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H38" s="2"/>
     </row>
@@ -2981,13 +2946,13 @@
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="5"/>
       <c r="F39" s="4"/>
       <c r="G39" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H39" s="2"/>
     </row>
@@ -2997,13 +2962,13 @@
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="5"/>
       <c r="F40" s="4"/>
       <c r="G40" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H40" s="2"/>
     </row>
@@ -3049,7 +3014,7 @@
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="5"/>
@@ -3063,7 +3028,7 @@
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="5"/>
@@ -3077,7 +3042,7 @@
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="5"/>
@@ -3105,7 +3070,7 @@
       <c r="C48" s="3"/>
       <c r="D48" s="4"/>
       <c r="E48" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="3"/>
@@ -3119,7 +3084,7 @@
       <c r="C49" s="3"/>
       <c r="D49" s="4"/>
       <c r="E49" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="3"/>
@@ -3133,7 +3098,7 @@
       <c r="C50" s="3"/>
       <c r="D50" s="4"/>
       <c r="E50" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="3"/>
@@ -3147,7 +3112,7 @@
       <c r="C51" s="3"/>
       <c r="D51" s="4"/>
       <c r="E51" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F51" s="4"/>
       <c r="G51" s="3"/>
@@ -3161,7 +3126,7 @@
       <c r="C52" s="3"/>
       <c r="D52" s="4"/>
       <c r="E52" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F52" s="4"/>
       <c r="G52" s="3"/>
@@ -3259,7 +3224,7 @@
       <c r="C60" s="3"/>
       <c r="D60" s="4"/>
       <c r="E60" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="3"/>
@@ -3369,7 +3334,7 @@
       <c r="C69" s="3"/>
       <c r="D69" s="4"/>
       <c r="E69" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F69" s="4"/>
       <c r="G69" s="3"/>
@@ -3393,7 +3358,7 @@
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="5"/>
@@ -3423,7 +3388,7 @@
       <c r="E73" s="5"/>
       <c r="F73" s="4"/>
       <c r="G73" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H73" s="2"/>
     </row>
@@ -3459,7 +3424,7 @@
       <c r="C76" s="3"/>
       <c r="D76" s="4"/>
       <c r="E76" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F76" s="4"/>
       <c r="G76" s="3"/>
@@ -3473,7 +3438,7 @@
       <c r="C77" s="3"/>
       <c r="D77" s="4"/>
       <c r="E77" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F77" s="4"/>
       <c r="G77" s="3"/>
@@ -3487,7 +3452,7 @@
       <c r="C78" s="3"/>
       <c r="D78" s="4"/>
       <c r="E78" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F78" s="4"/>
       <c r="G78" s="3"/>
@@ -3501,7 +3466,7 @@
       <c r="C79" s="3"/>
       <c r="D79" s="4"/>
       <c r="E79" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F79" s="4"/>
       <c r="G79" s="3"/>
@@ -3515,7 +3480,7 @@
       <c r="C80" s="3"/>
       <c r="D80" s="4"/>
       <c r="E80" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F80" s="4"/>
       <c r="G80" s="3"/>
@@ -3575,7 +3540,7 @@
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="5"/>
@@ -3615,7 +3580,7 @@
       <c r="C88" s="3"/>
       <c r="D88" s="4"/>
       <c r="E88" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F88" s="4"/>
       <c r="G88" s="3"/>
@@ -3691,7 +3656,7 @@
       <c r="E94" s="5"/>
       <c r="F94" s="4"/>
       <c r="G94" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H94" s="2"/>
     </row>
@@ -3704,7 +3669,7 @@
       <c r="D95" s="4"/>
       <c r="E95" s="5"/>
       <c r="F95" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G95" s="3"/>
       <c r="H95" s="2"/>
@@ -3717,7 +3682,7 @@
       <c r="C96" s="3"/>
       <c r="D96" s="4"/>
       <c r="E96" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F96" s="4"/>
       <c r="G96" s="3"/>
@@ -3730,7 +3695,7 @@
       <c r="B97" s="2"/>
       <c r="C97" s="3"/>
       <c r="D97" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E97" s="5"/>
       <c r="F97" s="4"/>
@@ -3743,7 +3708,7 @@
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="5"/>
@@ -3757,7 +3722,7 @@
       </c>
       <c r="B99" s="2"/>
       <c r="C99" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="5"/>
@@ -3771,7 +3736,7 @@
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="5"/>
@@ -3786,7 +3751,7 @@
       <c r="B101" s="2"/>
       <c r="C101" s="3"/>
       <c r="D101" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E101" s="5"/>
       <c r="F101" s="4"/>
@@ -3813,7 +3778,7 @@
       <c r="C103" s="3"/>
       <c r="D103" s="4"/>
       <c r="E103" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F103" s="4"/>
       <c r="G103" s="3"/>
@@ -3827,7 +3792,7 @@
       <c r="C104" s="3"/>
       <c r="D104" s="4"/>
       <c r="E104" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F104" s="4"/>
       <c r="G104" s="3"/>
@@ -3841,7 +3806,7 @@
       <c r="C105" s="3"/>
       <c r="D105" s="4"/>
       <c r="E105" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F105" s="4"/>
       <c r="G105" s="3"/>
@@ -3853,7 +3818,7 @@
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D106" s="4"/>
       <c r="E106" s="5"/>
@@ -3883,7 +3848,7 @@
       <c r="E108" s="5"/>
       <c r="F108" s="4"/>
       <c r="G108" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H108" s="2"/>
     </row>
@@ -3929,17 +3894,17 @@
       </c>
       <c r="B112" s="2"/>
       <c r="C112" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E112" s="5"/>
       <c r="F112" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H112" s="2"/>
     </row>
@@ -3951,7 +3916,7 @@
       <c r="C113" s="3"/>
       <c r="D113" s="4"/>
       <c r="E113" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F113" s="4"/>
       <c r="G113" s="3"/>
@@ -3965,7 +3930,7 @@
       <c r="C114" s="3"/>
       <c r="D114" s="4"/>
       <c r="E114" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F114" s="4"/>
       <c r="G114" s="3"/>
@@ -3979,7 +3944,7 @@
       <c r="C115" s="3"/>
       <c r="D115" s="4"/>
       <c r="E115" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F115" s="4"/>
       <c r="G115" s="3"/>
@@ -4015,17 +3980,19 @@
       </c>
       <c r="B118" s="2"/>
       <c r="C118" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E118" s="5"/>
+        <v>9</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="F118" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H118" s="2"/>
     </row>
@@ -4097,7 +4064,7 @@
       <c r="C124" s="3"/>
       <c r="D124" s="4"/>
       <c r="E124" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F124" s="4"/>
       <c r="G124" s="3"/>
@@ -4112,7 +4079,7 @@
       <c r="D125" s="4"/>
       <c r="E125" s="5"/>
       <c r="F125" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G125" s="3"/>
       <c r="H125" s="2"/>
@@ -4127,7 +4094,7 @@
       <c r="E126" s="5"/>
       <c r="F126" s="4"/>
       <c r="G126" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H126" s="2"/>
     </row>
@@ -4164,10 +4131,10 @@
       <c r="D129" s="4"/>
       <c r="E129" s="5"/>
       <c r="F129" s="4"/>
-      <c r="G129" s="3"/>
-      <c r="H129" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="G129" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H129" s="2"/>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="6">
@@ -4203,7 +4170,7 @@
       <c r="E132" s="5"/>
       <c r="F132" s="4"/>
       <c r="G132" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H132" s="2"/>
     </row>
@@ -4217,7 +4184,7 @@
       <c r="E133" s="5"/>
       <c r="F133" s="4"/>
       <c r="G133" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H133" s="2"/>
     </row>
@@ -4231,7 +4198,7 @@
       <c r="E134" s="5"/>
       <c r="F134" s="4"/>
       <c r="G134" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H134" s="2"/>
     </row>
@@ -4253,12 +4220,12 @@
       </c>
       <c r="B136" s="2"/>
       <c r="C136" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D136" s="4"/>
       <c r="E136" s="5"/>
       <c r="F136" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G136" s="3"/>
       <c r="H136" s="2"/>
@@ -4269,11 +4236,11 @@
       </c>
       <c r="B137" s="2"/>
       <c r="C137" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D137" s="4"/>
       <c r="E137" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F137" s="4"/>
       <c r="G137" s="3"/>
@@ -4285,7 +4252,7 @@
       </c>
       <c r="B138" s="2"/>
       <c r="C138" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D138" s="4"/>
       <c r="E138" s="5"/>
@@ -4300,7 +4267,7 @@
       <c r="B139" s="2"/>
       <c r="C139" s="3"/>
       <c r="D139" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E139" s="5"/>
       <c r="F139" s="4"/>
@@ -4325,7 +4292,7 @@
       </c>
       <c r="B141" s="2"/>
       <c r="C141" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D141" s="4"/>
       <c r="E141" s="5"/>
@@ -4339,7 +4306,7 @@
       </c>
       <c r="B142" s="2"/>
       <c r="C142" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D142" s="4"/>
       <c r="E142" s="5"/>
@@ -4353,12 +4320,12 @@
       </c>
       <c r="B143" s="2"/>
       <c r="C143" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D143" s="4"/>
       <c r="E143" s="5"/>
       <c r="F143" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G143" s="3"/>
       <c r="H143" s="2"/>
@@ -4369,11 +4336,11 @@
       </c>
       <c r="B144" s="2"/>
       <c r="C144" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D144" s="4"/>
       <c r="E144" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F144" s="4"/>
       <c r="G144" s="3"/>
@@ -4385,10 +4352,10 @@
       </c>
       <c r="B145" s="2"/>
       <c r="C145" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E145" s="5"/>
       <c r="F145" s="4"/>
@@ -4401,7 +4368,7 @@
       </c>
       <c r="B146" s="2"/>
       <c r="C146" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D146" s="4"/>
       <c r="E146" s="5"/>
@@ -4416,7 +4383,7 @@
       <c r="B147" s="2"/>
       <c r="C147" s="3"/>
       <c r="D147" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E147" s="5"/>
       <c r="F147" s="4"/>
@@ -4431,7 +4398,7 @@
       <c r="C148" s="3"/>
       <c r="D148" s="4"/>
       <c r="E148" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F148" s="4"/>
       <c r="G148" s="3"/>
@@ -4445,7 +4412,7 @@
       <c r="C149" s="3"/>
       <c r="D149" s="4"/>
       <c r="E149" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F149" s="4"/>
       <c r="G149" s="3"/>
@@ -4459,7 +4426,7 @@
       <c r="C150" s="3"/>
       <c r="D150" s="4"/>
       <c r="E150" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F150" s="4"/>
       <c r="G150" s="3"/>
@@ -4473,7 +4440,7 @@
       <c r="C151" s="3"/>
       <c r="D151" s="4"/>
       <c r="E151" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F151" s="4"/>
       <c r="G151" s="3"/>
@@ -4521,13 +4488,13 @@
       </c>
       <c r="B155" s="2"/>
       <c r="C155" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D155" s="4"/>
       <c r="E155" s="5"/>
       <c r="F155" s="4"/>
       <c r="G155" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H155" s="2"/>
     </row>
@@ -4575,7 +4542,7 @@
       <c r="C159" s="3"/>
       <c r="D159" s="4"/>
       <c r="E159" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F159" s="4"/>
       <c r="G159" s="3"/>
@@ -4589,7 +4556,7 @@
       <c r="C160" s="3"/>
       <c r="D160" s="4"/>
       <c r="E160" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F160" s="4"/>
       <c r="G160" s="3"/>
@@ -4603,7 +4570,7 @@
       <c r="C161" s="3"/>
       <c r="D161" s="4"/>
       <c r="E161" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F161" s="4"/>
       <c r="G161" s="3"/>
@@ -4617,7 +4584,7 @@
       <c r="C162" s="3"/>
       <c r="D162" s="4"/>
       <c r="E162" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F162" s="4"/>
       <c r="G162" s="3"/>
@@ -4643,7 +4610,7 @@
       <c r="C164" s="3"/>
       <c r="D164" s="4"/>
       <c r="E164" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F164" s="4"/>
       <c r="G164" s="3"/>
@@ -4685,8 +4652,8 @@
   <sheetPr/>
   <dimension ref="A1:H166"/>
   <sheetViews>
-    <sheetView zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="G149" sqref="G149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.90833333333333" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -4903,11 +4870,11 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="3"/>
@@ -4981,7 +4948,7 @@
       <c r="C23" s="3"/>
       <c r="D23" s="4"/>
       <c r="E23" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="3"/>
@@ -4995,7 +4962,7 @@
       <c r="C24" s="3"/>
       <c r="D24" s="4"/>
       <c r="E24" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="3"/>
@@ -5007,15 +4974,15 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H25" s="2"/>
     </row>
@@ -5075,7 +5042,7 @@
       <c r="C30" s="3"/>
       <c r="D30" s="4"/>
       <c r="E30" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="3"/>
@@ -5089,7 +5056,7 @@
       <c r="C31" s="3"/>
       <c r="D31" s="4"/>
       <c r="E31" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="3"/>
@@ -5103,7 +5070,7 @@
       <c r="C32" s="3"/>
       <c r="D32" s="4"/>
       <c r="E32" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="3"/>
@@ -5152,13 +5119,13 @@
       <c r="B36" s="2"/>
       <c r="C36" s="3"/>
       <c r="D36" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="2"/>
@@ -5208,10 +5175,10 @@
       <c r="D40" s="4"/>
       <c r="E40" s="5"/>
       <c r="F40" s="4"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="G40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" s="2"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="6">
@@ -5255,13 +5222,13 @@
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="5"/>
       <c r="F44" s="4"/>
       <c r="G44" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H44" s="2"/>
     </row>
@@ -5271,12 +5238,12 @@
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="5"/>
       <c r="F45" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="2"/>
@@ -5287,11 +5254,11 @@
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="3"/>
@@ -5305,7 +5272,7 @@
       <c r="C47" s="3"/>
       <c r="D47" s="4"/>
       <c r="E47" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="3"/>
@@ -5319,7 +5286,7 @@
       <c r="C48" s="3"/>
       <c r="D48" s="4"/>
       <c r="E48" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="3"/>
@@ -5333,7 +5300,7 @@
       <c r="C49" s="3"/>
       <c r="D49" s="4"/>
       <c r="E49" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="3"/>
@@ -5347,7 +5314,7 @@
       <c r="C50" s="3"/>
       <c r="D50" s="4"/>
       <c r="E50" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="3"/>
@@ -5385,7 +5352,7 @@
       <c r="C53" s="3"/>
       <c r="D53" s="4"/>
       <c r="E53" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="3"/>
@@ -5409,13 +5376,13 @@
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="5"/>
       <c r="F55" s="4"/>
       <c r="G55" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H55" s="2"/>
     </row>
@@ -5425,7 +5392,7 @@
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="5"/>
@@ -5439,7 +5406,7 @@
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="5"/>
@@ -5453,7 +5420,7 @@
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="5"/>
@@ -5467,7 +5434,7 @@
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="5"/>
@@ -5481,11 +5448,11 @@
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="3"/>
@@ -5534,7 +5501,9 @@
       <c r="B64" s="2"/>
       <c r="C64" s="3"/>
       <c r="D64" s="4"/>
-      <c r="E64" s="5"/>
+      <c r="E64" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="F64" s="4"/>
       <c r="G64" s="3"/>
       <c r="H64" s="2"/>
@@ -5593,13 +5562,13 @@
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="5"/>
       <c r="F69" s="4"/>
       <c r="G69" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H69" s="2"/>
     </row>
@@ -5609,13 +5578,15 @@
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="4"/>
+      <c r="E70" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D70" s="4"/>
-      <c r="E70" s="5"/>
       <c r="F70" s="4"/>
       <c r="G70" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H70" s="2"/>
     </row>
@@ -5625,13 +5596,13 @@
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="5"/>
       <c r="F71" s="4"/>
       <c r="G71" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H71" s="2"/>
     </row>
@@ -5645,7 +5616,7 @@
       <c r="E72" s="5"/>
       <c r="F72" s="4"/>
       <c r="G72" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H72" s="2"/>
     </row>
@@ -5659,7 +5630,7 @@
       <c r="E73" s="5"/>
       <c r="F73" s="4"/>
       <c r="G73" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H73" s="2"/>
     </row>
@@ -5707,7 +5678,7 @@
       <c r="C77" s="3"/>
       <c r="D77" s="4"/>
       <c r="E77" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F77" s="4"/>
       <c r="G77" s="3"/>
@@ -5721,7 +5692,7 @@
       <c r="C78" s="3"/>
       <c r="D78" s="4"/>
       <c r="E78" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F78" s="4"/>
       <c r="G78" s="3"/>
@@ -5735,7 +5706,7 @@
       <c r="C79" s="3"/>
       <c r="D79" s="4"/>
       <c r="E79" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F79" s="4"/>
       <c r="G79" s="3"/>
@@ -5749,7 +5720,7 @@
       <c r="C80" s="3"/>
       <c r="D80" s="4"/>
       <c r="E80" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F80" s="4"/>
       <c r="G80" s="3"/>
@@ -5809,7 +5780,7 @@
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="5"/>
@@ -5824,7 +5795,7 @@
       <c r="B86" s="2"/>
       <c r="C86" s="3"/>
       <c r="D86" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E86" s="5"/>
       <c r="F86" s="4"/>
@@ -5839,7 +5810,7 @@
       <c r="C87" s="3"/>
       <c r="D87" s="4"/>
       <c r="E87" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F87" s="4"/>
       <c r="G87" s="3"/>
@@ -5879,7 +5850,7 @@
       <c r="E90" s="5"/>
       <c r="F90" s="4"/>
       <c r="G90" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H90" s="2"/>
     </row>
@@ -5893,7 +5864,7 @@
       <c r="E91" s="5"/>
       <c r="F91" s="4"/>
       <c r="G91" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H91" s="2"/>
     </row>
@@ -5902,16 +5873,16 @@
         <v>91</v>
       </c>
       <c r="B92" s="2"/>
-      <c r="C92" s="3"/>
+      <c r="C92" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="D92" s="4"/>
       <c r="E92" s="5"/>
       <c r="F92" s="4"/>
       <c r="G92" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H92" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="H92" s="2"/>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="6">
@@ -5923,7 +5894,7 @@
       <c r="E93" s="5"/>
       <c r="F93" s="4"/>
       <c r="G93" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H93" s="2"/>
     </row>
@@ -5937,7 +5908,7 @@
       <c r="E94" s="5"/>
       <c r="F94" s="4"/>
       <c r="G94" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H94" s="2"/>
     </row>
@@ -5950,7 +5921,7 @@
       <c r="D95" s="4"/>
       <c r="E95" s="5"/>
       <c r="F95" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G95" s="3"/>
       <c r="H95" s="2"/>
@@ -5963,7 +5934,7 @@
       <c r="C96" s="3"/>
       <c r="D96" s="4"/>
       <c r="E96" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F96" s="4"/>
       <c r="G96" s="3"/>
@@ -5976,7 +5947,7 @@
       <c r="B97" s="2"/>
       <c r="C97" s="3"/>
       <c r="D97" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E97" s="5"/>
       <c r="F97" s="4"/>
@@ -5989,7 +5960,7 @@
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="5"/>
@@ -6003,11 +5974,11 @@
       </c>
       <c r="B99" s="2"/>
       <c r="C99" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F99" s="4"/>
       <c r="G99" s="3"/>
@@ -6019,7 +5990,7 @@
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="5"/>
@@ -6033,7 +6004,7 @@
       </c>
       <c r="B101" s="2"/>
       <c r="C101" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="5"/>
@@ -6062,7 +6033,7 @@
       <c r="D103" s="4"/>
       <c r="E103" s="5"/>
       <c r="F103" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G103" s="3"/>
       <c r="H103" s="2"/>
@@ -6074,7 +6045,7 @@
       <c r="B104" s="2"/>
       <c r="C104" s="3"/>
       <c r="D104" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E104" s="5"/>
       <c r="F104" s="4"/>
@@ -6099,11 +6070,11 @@
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D106" s="4"/>
       <c r="E106" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F106" s="4"/>
       <c r="G106" s="3"/>
@@ -6117,7 +6088,7 @@
       <c r="C107" s="3"/>
       <c r="D107" s="4"/>
       <c r="E107" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F107" s="4"/>
       <c r="G107" s="3"/>
@@ -6131,7 +6102,7 @@
       <c r="C108" s="3"/>
       <c r="D108" s="4"/>
       <c r="E108" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F108" s="4"/>
       <c r="G108" s="3"/>
@@ -6145,7 +6116,7 @@
       <c r="C109" s="3"/>
       <c r="D109" s="4"/>
       <c r="E109" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F109" s="4"/>
       <c r="G109" s="3"/>
@@ -6181,7 +6152,7 @@
       </c>
       <c r="B112" s="2"/>
       <c r="C112" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D112" s="4"/>
       <c r="E112" s="5"/>
@@ -6221,7 +6192,7 @@
       <c r="C115" s="3"/>
       <c r="D115" s="4"/>
       <c r="E115" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F115" s="4"/>
       <c r="G115" s="3"/>
@@ -6331,7 +6302,7 @@
       <c r="C124" s="3"/>
       <c r="D124" s="4"/>
       <c r="E124" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F124" s="4"/>
       <c r="G124" s="3"/>
@@ -6345,7 +6316,7 @@
       <c r="C125" s="3"/>
       <c r="D125" s="4"/>
       <c r="E125" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F125" s="4"/>
       <c r="G125" s="3"/>
@@ -6359,7 +6330,7 @@
       <c r="C126" s="3"/>
       <c r="D126" s="4"/>
       <c r="E126" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F126" s="4"/>
       <c r="G126" s="3"/>
@@ -6373,7 +6344,7 @@
       <c r="C127" s="3"/>
       <c r="D127" s="4"/>
       <c r="E127" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F127" s="4"/>
       <c r="G127" s="3"/>
@@ -6387,7 +6358,7 @@
       <c r="C128" s="3"/>
       <c r="D128" s="4"/>
       <c r="E128" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F128" s="4"/>
       <c r="G128" s="3"/>
@@ -6436,7 +6407,9 @@
       <c r="B132" s="2"/>
       <c r="C132" s="3"/>
       <c r="D132" s="4"/>
-      <c r="E132" s="10"/>
+      <c r="E132" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="F132" s="4"/>
       <c r="G132" s="3"/>
       <c r="H132" s="2"/>
@@ -6471,17 +6444,17 @@
       </c>
       <c r="B135" s="2"/>
       <c r="C135" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E135" s="5"/>
       <c r="F135" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H135" s="2"/>
     </row>
@@ -6530,10 +6503,10 @@
       <c r="D139" s="4"/>
       <c r="E139" s="5"/>
       <c r="F139" s="4"/>
-      <c r="G139" s="3"/>
-      <c r="H139" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="G139" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H139" s="2"/>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="6">
@@ -6577,19 +6550,19 @@
       </c>
       <c r="B143" s="2"/>
       <c r="C143" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H143" s="2"/>
     </row>
@@ -6660,9 +6633,13 @@
       <c r="B149" s="2"/>
       <c r="C149" s="3"/>
       <c r="D149" s="4"/>
-      <c r="E149" s="5"/>
+      <c r="E149" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="F149" s="4"/>
-      <c r="G149" s="3"/>
+      <c r="G149" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="H149" s="2"/>
     </row>
     <row r="150" spans="1:8">
@@ -6731,19 +6708,19 @@
       </c>
       <c r="B155" s="2"/>
       <c r="C155" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H155" s="2"/>
     </row>
@@ -6825,15 +6802,15 @@
       </c>
       <c r="B162" s="2"/>
       <c r="C162" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D162" s="4"/>
       <c r="E162" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F162" s="4"/>
       <c r="G162" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H162" s="2"/>
     </row>
@@ -6843,15 +6820,15 @@
       </c>
       <c r="B163" s="2"/>
       <c r="C163" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D163" s="4"/>
       <c r="E163" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F163" s="4"/>
       <c r="G163" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H163" s="2"/>
     </row>
@@ -6861,15 +6838,15 @@
       </c>
       <c r="B164" s="2"/>
       <c r="C164" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D164" s="4"/>
       <c r="E164" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F164" s="4"/>
       <c r="G164" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H164" s="2"/>
     </row>
@@ -6879,15 +6856,15 @@
       </c>
       <c r="B165" s="2"/>
       <c r="C165" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D165" s="4"/>
       <c r="E165" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F165" s="4"/>
       <c r="G165" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H165" s="2"/>
     </row>
@@ -6897,15 +6874,15 @@
       </c>
       <c r="B166" s="2"/>
       <c r="C166" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D166" s="4"/>
       <c r="E166" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F166" s="4"/>
       <c r="G166" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H166" s="2"/>
     </row>
@@ -7139,15 +7116,15 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H17" s="2"/>
     </row>
@@ -7219,7 +7196,7 @@
       <c r="C23" s="3"/>
       <c r="D23" s="4"/>
       <c r="E23" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="3"/>
@@ -7233,7 +7210,7 @@
       <c r="C24" s="3"/>
       <c r="D24" s="4"/>
       <c r="E24" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="3"/>
@@ -7247,7 +7224,7 @@
       <c r="C25" s="3"/>
       <c r="D25" s="4"/>
       <c r="E25" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="3"/>
@@ -7309,7 +7286,7 @@
       <c r="C30" s="3"/>
       <c r="D30" s="4"/>
       <c r="E30" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="3"/>
@@ -7323,7 +7300,7 @@
       <c r="C31" s="3"/>
       <c r="D31" s="4"/>
       <c r="E31" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="3"/>
@@ -7337,7 +7314,7 @@
       <c r="C32" s="3"/>
       <c r="D32" s="4"/>
       <c r="E32" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="3"/>
@@ -7384,17 +7361,17 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="2"/>
@@ -7453,7 +7430,7 @@
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="5"/>
@@ -7480,7 +7457,7 @@
       <c r="B43" s="2"/>
       <c r="C43" s="3"/>
       <c r="D43" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="4"/>
@@ -7493,7 +7470,7 @@
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="5"/>
@@ -7507,7 +7484,7 @@
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="5"/>
@@ -7521,11 +7498,11 @@
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="3"/>
@@ -7539,7 +7516,7 @@
       <c r="C47" s="3"/>
       <c r="D47" s="4"/>
       <c r="E47" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="3"/>
@@ -7553,7 +7530,7 @@
       <c r="C48" s="3"/>
       <c r="D48" s="4"/>
       <c r="E48" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="3"/>
@@ -7567,7 +7544,7 @@
       <c r="C49" s="3"/>
       <c r="D49" s="4"/>
       <c r="E49" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="3"/>
@@ -7581,7 +7558,7 @@
       <c r="C50" s="3"/>
       <c r="D50" s="4"/>
       <c r="E50" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="3"/>
@@ -7619,7 +7596,7 @@
       <c r="C53" s="3"/>
       <c r="D53" s="4"/>
       <c r="E53" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="3"/>
@@ -7645,11 +7622,11 @@
       <c r="C55" s="3"/>
       <c r="D55" s="4"/>
       <c r="E55" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F55" s="4"/>
       <c r="G55" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H55" s="2"/>
     </row>
@@ -7661,7 +7638,7 @@
       <c r="C56" s="3"/>
       <c r="D56" s="4"/>
       <c r="E56" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="3"/>
@@ -7675,7 +7652,7 @@
       <c r="C57" s="3"/>
       <c r="D57" s="4"/>
       <c r="E57" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F57" s="4"/>
       <c r="G57" s="3"/>
@@ -7713,7 +7690,7 @@
       <c r="C60" s="3"/>
       <c r="D60" s="4"/>
       <c r="E60" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="3"/>
@@ -7729,7 +7706,7 @@
       <c r="E61" s="5"/>
       <c r="F61" s="4"/>
       <c r="G61" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H61" s="2"/>
     </row>
@@ -7751,7 +7728,7 @@
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="5"/>
@@ -7767,7 +7744,7 @@
       <c r="C64" s="3"/>
       <c r="D64" s="4"/>
       <c r="E64" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F64" s="4"/>
       <c r="G64" s="3"/>
@@ -7781,7 +7758,7 @@
       <c r="C65" s="3"/>
       <c r="D65" s="4"/>
       <c r="E65" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F65" s="4"/>
       <c r="G65" s="3"/>
@@ -7795,7 +7772,7 @@
       <c r="C66" s="3"/>
       <c r="D66" s="4"/>
       <c r="E66" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F66" s="4"/>
       <c r="G66" s="3"/>
@@ -7809,7 +7786,7 @@
       <c r="C67" s="3"/>
       <c r="D67" s="4"/>
       <c r="E67" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F67" s="4"/>
       <c r="G67" s="3"/>
@@ -7823,7 +7800,7 @@
       <c r="C68" s="3"/>
       <c r="D68" s="4"/>
       <c r="E68" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F68" s="4"/>
       <c r="G68" s="3"/>
@@ -7931,15 +7908,15 @@
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F77" s="4"/>
       <c r="G77" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H77" s="2"/>
     </row>
@@ -7949,15 +7926,15 @@
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D78" s="4"/>
       <c r="E78" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F78" s="4"/>
       <c r="G78" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H78" s="2"/>
     </row>
@@ -7967,15 +7944,15 @@
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D79" s="4"/>
       <c r="E79" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F79" s="4"/>
       <c r="G79" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H79" s="2"/>
     </row>
@@ -7985,15 +7962,15 @@
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F80" s="4"/>
       <c r="G80" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H80" s="2"/>
     </row>
@@ -8111,19 +8088,19 @@
       </c>
       <c r="B90" s="2"/>
       <c r="C90" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H90" s="2"/>
     </row>
@@ -8137,10 +8114,10 @@
       <c r="E91" s="5"/>
       <c r="F91" s="4"/>
       <c r="G91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H91" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="H91" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -8153,7 +8130,7 @@
       <c r="E92" s="5"/>
       <c r="F92" s="4"/>
       <c r="G92" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H92" s="2"/>
     </row>
@@ -8167,7 +8144,7 @@
       <c r="E93" s="5"/>
       <c r="F93" s="4"/>
       <c r="G93" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H93" s="2"/>
     </row>
@@ -8181,7 +8158,7 @@
       <c r="E94" s="5"/>
       <c r="F94" s="4"/>
       <c r="G94" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H94" s="2"/>
     </row>
@@ -8194,7 +8171,7 @@
       <c r="D95" s="4"/>
       <c r="E95" s="5"/>
       <c r="F95" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G95" s="3"/>
       <c r="H95" s="2"/>
@@ -8207,7 +8184,7 @@
       <c r="C96" s="3"/>
       <c r="D96" s="4"/>
       <c r="E96" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F96" s="4"/>
       <c r="G96" s="3"/>
@@ -8220,7 +8197,7 @@
       <c r="B97" s="2"/>
       <c r="C97" s="3"/>
       <c r="D97" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E97" s="9"/>
       <c r="F97" s="4"/>
@@ -8233,7 +8210,7 @@
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="5"/>
@@ -8247,11 +8224,11 @@
       </c>
       <c r="B99" s="2"/>
       <c r="C99" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F99" s="4"/>
       <c r="G99" s="3"/>
@@ -8263,7 +8240,7 @@
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="5"/>
@@ -8277,7 +8254,7 @@
       </c>
       <c r="B101" s="2"/>
       <c r="C101" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="5"/>
@@ -8306,7 +8283,7 @@
       <c r="D103" s="4"/>
       <c r="E103" s="5"/>
       <c r="F103" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G103" s="3"/>
       <c r="H103" s="2"/>
@@ -8318,7 +8295,7 @@
       <c r="B104" s="2"/>
       <c r="C104" s="3"/>
       <c r="D104" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E104" s="5"/>
       <c r="F104" s="4"/>
@@ -8343,11 +8320,11 @@
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D106" s="4"/>
       <c r="E106" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F106" s="4"/>
       <c r="G106" s="3"/>
@@ -8361,7 +8338,7 @@
       <c r="C107" s="3"/>
       <c r="D107" s="4"/>
       <c r="E107" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F107" s="4"/>
       <c r="G107" s="3"/>
@@ -8375,12 +8352,12 @@
       <c r="C108" s="3"/>
       <c r="D108" s="4"/>
       <c r="E108" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F108" s="4"/>
       <c r="G108" s="3"/>
       <c r="H108" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -8391,7 +8368,7 @@
       <c r="C109" s="3"/>
       <c r="D109" s="4"/>
       <c r="E109" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F109" s="4"/>
       <c r="G109" s="3"/>
@@ -8427,7 +8404,7 @@
       </c>
       <c r="B112" s="2"/>
       <c r="C112" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D112" s="4"/>
       <c r="E112" s="5"/>
@@ -8466,13 +8443,13 @@
       <c r="B115" s="2"/>
       <c r="C115" s="3"/>
       <c r="D115" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G115" s="3"/>
       <c r="H115" s="2"/>
@@ -8485,7 +8462,7 @@
       <c r="C116" s="3"/>
       <c r="D116" s="4"/>
       <c r="E116" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F116" s="4"/>
       <c r="G116" s="3"/>
@@ -8499,7 +8476,7 @@
       <c r="C117" s="3"/>
       <c r="D117" s="4"/>
       <c r="E117" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F117" s="4"/>
       <c r="G117" s="3"/>
@@ -8513,7 +8490,7 @@
       <c r="C118" s="3"/>
       <c r="D118" s="4"/>
       <c r="E118" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F118" s="4"/>
       <c r="G118" s="3"/>
@@ -8540,7 +8517,7 @@
       <c r="D120" s="4"/>
       <c r="E120" s="5"/>
       <c r="F120" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G120" s="3"/>
       <c r="H120" s="2"/>
@@ -8555,7 +8532,7 @@
       <c r="E121" s="5"/>
       <c r="F121" s="4"/>
       <c r="G121" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H121" s="2"/>
     </row>
@@ -8569,7 +8546,7 @@
       <c r="E122" s="5"/>
       <c r="F122" s="4"/>
       <c r="G122" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H122" s="2"/>
     </row>
@@ -8583,7 +8560,7 @@
       <c r="E123" s="5"/>
       <c r="F123" s="4"/>
       <c r="G123" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H123" s="2"/>
     </row>
@@ -8608,7 +8585,7 @@
       <c r="D125" s="4"/>
       <c r="E125" s="5"/>
       <c r="F125" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G125" s="3"/>
       <c r="H125" s="2"/>
@@ -8621,7 +8598,7 @@
       <c r="C126" s="3"/>
       <c r="D126" s="4"/>
       <c r="E126" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F126" s="4"/>
       <c r="G126" s="3"/>
@@ -8634,7 +8611,7 @@
       <c r="B127" s="2"/>
       <c r="C127" s="3"/>
       <c r="D127" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E127" s="5"/>
       <c r="F127" s="4"/>
@@ -8659,7 +8636,7 @@
       </c>
       <c r="B129" s="2"/>
       <c r="C129" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D129" s="4"/>
       <c r="E129" s="5"/>
@@ -8674,7 +8651,7 @@
       <c r="B130" s="2"/>
       <c r="C130" s="3"/>
       <c r="D130" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E130" s="5"/>
       <c r="F130" s="4"/>
@@ -8701,7 +8678,7 @@
       <c r="C132" s="3"/>
       <c r="D132" s="4"/>
       <c r="E132" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F132" s="4"/>
       <c r="G132" s="3"/>
@@ -8785,15 +8762,15 @@
       </c>
       <c r="B139" s="2"/>
       <c r="C139" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D139" s="4"/>
       <c r="E139" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F139" s="4"/>
       <c r="G139" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H139" s="2"/>
     </row>
@@ -8805,7 +8782,7 @@
       <c r="C140" s="3"/>
       <c r="D140" s="4"/>
       <c r="E140" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F140" s="4"/>
       <c r="G140" s="3"/>
@@ -8819,7 +8796,7 @@
       <c r="C141" s="3"/>
       <c r="D141" s="4"/>
       <c r="E141" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F141" s="4"/>
       <c r="G141" s="3"/>
@@ -8833,7 +8810,7 @@
       <c r="C142" s="3"/>
       <c r="D142" s="4"/>
       <c r="E142" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F142" s="4"/>
       <c r="G142" s="3"/>
@@ -8845,15 +8822,15 @@
       </c>
       <c r="B143" s="2"/>
       <c r="C143" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D143" s="4"/>
       <c r="E143" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F143" s="4"/>
       <c r="G143" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H143" s="2"/>
     </row>
@@ -8865,7 +8842,7 @@
       <c r="C144" s="3"/>
       <c r="D144" s="4"/>
       <c r="E144" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F144" s="4"/>
       <c r="G144" s="3"/>
@@ -8879,7 +8856,7 @@
       <c r="C145" s="3"/>
       <c r="D145" s="4"/>
       <c r="E145" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F145" s="4"/>
       <c r="G145" s="3"/>
@@ -8893,7 +8870,7 @@
       <c r="C146" s="3"/>
       <c r="D146" s="4"/>
       <c r="E146" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F146" s="4"/>
       <c r="G146" s="3"/>
@@ -8905,15 +8882,15 @@
       </c>
       <c r="B147" s="2"/>
       <c r="C147" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D147" s="4"/>
       <c r="E147" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F147" s="4"/>
       <c r="G147" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H147" s="2"/>
     </row>
@@ -8925,7 +8902,7 @@
       <c r="C148" s="3"/>
       <c r="D148" s="4"/>
       <c r="E148" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F148" s="4"/>
       <c r="G148" s="3"/>
@@ -8939,7 +8916,7 @@
       <c r="C149" s="3"/>
       <c r="D149" s="4"/>
       <c r="E149" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F149" s="4"/>
       <c r="G149" s="3"/>
@@ -8953,7 +8930,7 @@
       <c r="C150" s="3"/>
       <c r="D150" s="4"/>
       <c r="E150" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F150" s="4"/>
       <c r="G150" s="3"/>
@@ -8989,15 +8966,15 @@
       </c>
       <c r="B153" s="2"/>
       <c r="C153" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D153" s="4"/>
       <c r="E153" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F153" s="4"/>
       <c r="G153" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H153" s="2"/>
     </row>
@@ -9007,15 +8984,15 @@
       </c>
       <c r="B154" s="2"/>
       <c r="C154" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D154" s="4"/>
       <c r="E154" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F154" s="4"/>
       <c r="G154" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H154" s="2"/>
     </row>
@@ -9025,15 +9002,15 @@
       </c>
       <c r="B155" s="2"/>
       <c r="C155" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D155" s="4"/>
       <c r="E155" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F155" s="4"/>
       <c r="G155" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H155" s="2"/>
     </row>
@@ -9043,15 +9020,15 @@
       </c>
       <c r="B156" s="2"/>
       <c r="C156" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D156" s="4"/>
       <c r="E156" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F156" s="4"/>
       <c r="G156" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H156" s="2"/>
     </row>
@@ -9061,15 +9038,15 @@
       </c>
       <c r="B157" s="2"/>
       <c r="C157" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D157" s="4"/>
       <c r="E157" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F157" s="4"/>
       <c r="G157" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H157" s="2"/>
     </row>
@@ -9079,15 +9056,15 @@
       </c>
       <c r="B158" s="2"/>
       <c r="C158" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D158" s="4"/>
       <c r="E158" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F158" s="4"/>
       <c r="G158" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H158" s="2"/>
     </row>
@@ -9097,15 +9074,15 @@
       </c>
       <c r="B159" s="2"/>
       <c r="C159" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D159" s="4"/>
       <c r="E159" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F159" s="4"/>
       <c r="G159" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H159" s="2"/>
     </row>
@@ -9115,15 +9092,15 @@
       </c>
       <c r="B160" s="2"/>
       <c r="C160" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D160" s="4"/>
       <c r="E160" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F160" s="4"/>
       <c r="G160" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H160" s="2"/>
     </row>
@@ -9133,15 +9110,15 @@
       </c>
       <c r="B161" s="2"/>
       <c r="C161" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D161" s="4"/>
       <c r="E161" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F161" s="4"/>
       <c r="G161" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H161" s="2"/>
     </row>
@@ -9151,15 +9128,15 @@
       </c>
       <c r="B162" s="2"/>
       <c r="C162" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D162" s="4"/>
       <c r="E162" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F162" s="4"/>
       <c r="G162" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H162" s="2"/>
     </row>
@@ -9169,15 +9146,15 @@
       </c>
       <c r="B163" s="2"/>
       <c r="C163" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D163" s="4"/>
       <c r="E163" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F163" s="4"/>
       <c r="G163" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H163" s="2"/>
     </row>
@@ -9187,15 +9164,15 @@
       </c>
       <c r="B164" s="2"/>
       <c r="C164" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D164" s="4"/>
       <c r="E164" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F164" s="4"/>
       <c r="G164" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H164" s="2"/>
     </row>
@@ -9205,15 +9182,15 @@
       </c>
       <c r="B165" s="2"/>
       <c r="C165" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D165" s="4"/>
       <c r="E165" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F165" s="4"/>
       <c r="G165" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H165" s="2"/>
     </row>
@@ -9223,15 +9200,15 @@
       </c>
       <c r="B166" s="2"/>
       <c r="C166" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D166" s="4"/>
       <c r="E166" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F166" s="4"/>
       <c r="G166" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H166" s="2"/>
     </row>
